--- a/vgp_database/Michoacan_Guanajuato_volcanic_field.xlsx
+++ b/vgp_database/Michoacan_Guanajuato_volcanic_field.xlsx
@@ -105,10 +105,10 @@
     <t>R1</t>
   </si>
   <si>
-    <t>R2.1</t>
+    <t>R2a</t>
   </si>
   <si>
-    <t>R2.2</t>
+    <t>R2b</t>
   </si>
   <si>
     <t>R3</t>
@@ -117,10 +117,10 @@
     <t>R4</t>
   </si>
   <si>
-    <t>R5.1</t>
+    <t>R5a</t>
   </si>
   <si>
-    <t>R5.2</t>
+    <t>R5b</t>
   </si>
   <si>
     <t>R6</t>
@@ -329,13 +329,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -366,7 +380,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -420,6 +434,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -1309,7 +1326,7 @@
       <c r="AK8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AL8" s="10" t="s">
+      <c r="AL8" s="30" t="s">
         <v>40</v>
       </c>
       <c r="AM8" s="3"/>
@@ -1325,13 +1342,13 @@
       <c r="B9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="31">
         <v>19.416</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="31">
         <v>-102.305</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="32">
         <v>3.0</v>
       </c>
       <c r="F9" s="18">
@@ -1340,7 +1357,7 @@
       <c r="G9" s="18">
         <v>23.8</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="32">
         <v>56.0</v>
       </c>
       <c r="I9" s="17">
@@ -1364,7 +1381,7 @@
         <v>0.25</v>
       </c>
       <c r="U9" s="13"/>
-      <c r="V9" s="32" t="s">
+      <c r="V9" s="33" t="s">
         <v>64</v>
       </c>
       <c r="W9" s="11" t="s">
@@ -1385,14 +1402,14 @@
       <c r="AD9" s="27">
         <v>0.0</v>
       </c>
-      <c r="AE9" s="33"/>
+      <c r="AE9" s="34"/>
       <c r="AF9" s="27">
         <v>0.0</v>
       </c>
       <c r="AG9" s="11">
         <v>0.0</v>
       </c>
-      <c r="AH9" s="34" t="s">
+      <c r="AH9" s="35" t="s">
         <v>65</v>
       </c>
       <c r="AI9" s="25" t="s">
@@ -1401,12 +1418,12 @@
       <c r="AJ9" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35"/>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="35"/>
-      <c r="AQ9" s="35"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36"/>
+      <c r="AQ9" s="36"/>
     </row>
     <row r="10">
       <c r="A10" s="27" t="s">
@@ -1421,16 +1438,16 @@
       <c r="D10" s="19">
         <v>-102.3048611111</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="37">
         <v>8.0</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="38">
         <v>353.5</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="38">
         <v>43.5</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="39">
         <v>199.0</v>
       </c>
       <c r="I10" s="27">
@@ -1454,7 +1471,7 @@
         <v>0.25</v>
       </c>
       <c r="U10" s="13"/>
-      <c r="V10" s="32" t="s">
+      <c r="V10" s="33" t="s">
         <v>64</v>
       </c>
       <c r="W10" s="11" t="s">
@@ -1475,26 +1492,26 @@
       <c r="AD10" s="27">
         <v>0.0</v>
       </c>
-      <c r="AE10" s="33"/>
+      <c r="AE10" s="34"/>
       <c r="AF10" s="27">
         <v>0.0</v>
       </c>
       <c r="AG10" s="11">
         <v>1.0</v>
       </c>
-      <c r="AH10" s="33"/>
+      <c r="AH10" s="34"/>
       <c r="AI10" s="25" t="s">
         <v>46</v>
       </c>
       <c r="AJ10" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AK10" s="39"/>
-      <c r="AL10" s="39"/>
-      <c r="AN10" s="39"/>
-      <c r="AO10" s="39"/>
-      <c r="AP10" s="39"/>
-      <c r="AQ10" s="39"/>
+      <c r="AK10" s="40"/>
+      <c r="AL10" s="40"/>
+      <c r="AN10" s="40"/>
+      <c r="AO10" s="40"/>
+      <c r="AP10" s="40"/>
+      <c r="AQ10" s="40"/>
     </row>
     <row r="11">
       <c r="A11" s="27" t="s">
@@ -1509,16 +1526,16 @@
       <c r="D11" s="19">
         <v>-102.0910277778</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="37">
         <v>8.0</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="38">
         <v>339.9</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="38">
         <v>60.9</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="39">
         <v>242.0</v>
       </c>
       <c r="I11" s="27">
@@ -1526,8 +1543,8 @@
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
@@ -1542,7 +1559,7 @@
         <v>0.493</v>
       </c>
       <c r="U11" s="13"/>
-      <c r="V11" s="32" t="s">
+      <c r="V11" s="33" t="s">
         <v>64</v>
       </c>
       <c r="W11" s="11" t="s">
@@ -1563,26 +1580,26 @@
       <c r="AD11" s="27">
         <v>0.0</v>
       </c>
-      <c r="AE11" s="33"/>
+      <c r="AE11" s="34"/>
       <c r="AF11" s="27">
         <v>0.0</v>
       </c>
       <c r="AG11" s="11">
         <v>1.0</v>
       </c>
-      <c r="AH11" s="33"/>
+      <c r="AH11" s="34"/>
       <c r="AI11" s="25" t="s">
         <v>46</v>
       </c>
       <c r="AJ11" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AK11" s="39"/>
-      <c r="AL11" s="35"/>
-      <c r="AN11" s="35"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="35"/>
-      <c r="AQ11" s="35"/>
+      <c r="AK11" s="40"/>
+      <c r="AL11" s="36"/>
+      <c r="AN11" s="36"/>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="36"/>
+      <c r="AQ11" s="36"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="11" t="s">
@@ -1591,10 +1608,10 @@
       <c r="B12" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="42">
         <v>19.395</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="42">
         <v>-102.412</v>
       </c>
       <c r="E12" s="14">
@@ -1610,23 +1627,23 @@
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
-      <c r="Q12" s="41">
+      <c r="Q12" s="42">
         <v>0.269</v>
       </c>
-      <c r="R12" s="41">
+      <c r="R12" s="42">
         <v>0.24700000000000003</v>
       </c>
       <c r="S12" s="13"/>
-      <c r="T12" s="41">
+      <c r="T12" s="42">
         <v>0.29100000000000004</v>
       </c>
       <c r="U12" s="13"/>
-      <c r="V12" s="32" t="s">
+      <c r="V12" s="33" t="s">
         <v>64</v>
       </c>
       <c r="W12" s="11" t="s">
@@ -1647,14 +1664,14 @@
       <c r="AD12" s="27">
         <v>0.0</v>
       </c>
-      <c r="AE12" s="33"/>
+      <c r="AE12" s="34"/>
       <c r="AF12" s="27">
         <v>0.0</v>
       </c>
       <c r="AG12" s="11">
         <v>0.0</v>
       </c>
-      <c r="AH12" s="34">
+      <c r="AH12" s="35">
         <v>2.0</v>
       </c>
       <c r="AI12" s="25" t="s">
@@ -1663,12 +1680,12 @@
       <c r="AJ12" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AK12" s="35"/>
-      <c r="AL12" s="35"/>
-      <c r="AN12" s="35"/>
-      <c r="AO12" s="35"/>
-      <c r="AP12" s="35"/>
-      <c r="AQ12" s="35"/>
+      <c r="AK12" s="36"/>
+      <c r="AL12" s="36"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="36"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="27" t="s">
@@ -1683,16 +1700,16 @@
       <c r="D13" s="19">
         <v>-102.4355277778</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="37">
         <v>7.0</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="38">
         <v>17.9</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="38">
         <v>58.6</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="39">
         <v>41.0</v>
       </c>
       <c r="I13" s="27">
@@ -1700,8 +1717,8 @@
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
@@ -1716,7 +1733,7 @@
         <v>0.274</v>
       </c>
       <c r="U13" s="13"/>
-      <c r="V13" s="32" t="s">
+      <c r="V13" s="33" t="s">
         <v>64</v>
       </c>
       <c r="W13" s="11" t="s">
@@ -1737,26 +1754,26 @@
       <c r="AD13" s="27">
         <v>0.0</v>
       </c>
-      <c r="AE13" s="33"/>
+      <c r="AE13" s="34"/>
       <c r="AF13" s="27">
         <v>0.0</v>
       </c>
       <c r="AG13" s="11">
         <v>1.0</v>
       </c>
-      <c r="AH13" s="33"/>
+      <c r="AH13" s="34"/>
       <c r="AI13" s="25" t="s">
         <v>46</v>
       </c>
       <c r="AJ13" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AK13" s="35"/>
-      <c r="AL13" s="35"/>
-      <c r="AN13" s="35"/>
-      <c r="AO13" s="35"/>
-      <c r="AP13" s="35"/>
-      <c r="AQ13" s="35"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="36"/>
+      <c r="AN13" s="36"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="36"/>
+      <c r="AQ13" s="36"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="27" t="s">
@@ -1771,16 +1788,16 @@
       <c r="D14" s="19">
         <v>-102.5395833333</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="37">
         <v>6.0</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="38">
         <v>348.6</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="38">
         <v>28.1</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="39">
         <v>115.0</v>
       </c>
       <c r="I14" s="27">
@@ -1788,8 +1805,8 @@
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
@@ -1804,7 +1821,7 @@
         <v>0.434</v>
       </c>
       <c r="U14" s="13"/>
-      <c r="V14" s="32" t="s">
+      <c r="V14" s="33" t="s">
         <v>64</v>
       </c>
       <c r="W14" s="11" t="s">
@@ -1825,26 +1842,26 @@
       <c r="AD14" s="27">
         <v>0.0</v>
       </c>
-      <c r="AE14" s="33"/>
+      <c r="AE14" s="34"/>
       <c r="AF14" s="27">
         <v>0.0</v>
       </c>
       <c r="AG14" s="11">
         <v>1.0</v>
       </c>
-      <c r="AH14" s="33"/>
+      <c r="AH14" s="34"/>
       <c r="AI14" s="25" t="s">
         <v>46</v>
       </c>
       <c r="AJ14" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="35"/>
-      <c r="AN14" s="35"/>
-      <c r="AO14" s="35"/>
-      <c r="AP14" s="35"/>
-      <c r="AQ14" s="35"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="36"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="27" t="s">
@@ -1861,16 +1878,16 @@
         <f>-(102+33/60+50.6/3600)</f>
         <v>-102.5640556</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="37">
         <v>8.0</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="38">
         <v>2.5</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="38">
         <v>27.7</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="39">
         <v>359.0</v>
       </c>
       <c r="I15" s="27">
@@ -1878,8 +1895,8 @@
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
@@ -1894,7 +1911,7 @@
         <v>0.653</v>
       </c>
       <c r="U15" s="13"/>
-      <c r="V15" s="32" t="s">
+      <c r="V15" s="33" t="s">
         <v>64</v>
       </c>
       <c r="W15" s="11" t="s">
@@ -1915,26 +1932,26 @@
       <c r="AD15" s="27">
         <v>0.0</v>
       </c>
-      <c r="AE15" s="33"/>
+      <c r="AE15" s="34"/>
       <c r="AF15" s="27">
         <v>0.0</v>
       </c>
       <c r="AG15" s="11">
         <v>1.0</v>
       </c>
-      <c r="AH15" s="33"/>
+      <c r="AH15" s="34"/>
       <c r="AI15" s="25" t="s">
         <v>46</v>
       </c>
       <c r="AJ15" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AK15" s="35"/>
-      <c r="AL15" s="35"/>
-      <c r="AN15" s="35"/>
-      <c r="AO15" s="35"/>
-      <c r="AP15" s="35"/>
-      <c r="AQ15" s="35"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="36"/>
+      <c r="AQ15" s="36"/>
     </row>
     <row r="16">
       <c r="A16" s="27" t="s">
@@ -1951,16 +1968,16 @@
         <f>-(102+34/60+8.44/3600)</f>
         <v>-102.5690111</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="37">
         <v>8.0</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="38">
         <v>352.7</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="38">
         <v>31.3</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="39">
         <v>39.0</v>
       </c>
       <c r="I16" s="27">
@@ -1968,8 +1985,8 @@
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
@@ -1984,7 +2001,7 @@
         <v>0.653</v>
       </c>
       <c r="U16" s="13"/>
-      <c r="V16" s="32" t="s">
+      <c r="V16" s="33" t="s">
         <v>64</v>
       </c>
       <c r="W16" s="11" t="s">
@@ -2005,26 +2022,26 @@
       <c r="AD16" s="27">
         <v>0.0</v>
       </c>
-      <c r="AE16" s="33"/>
+      <c r="AE16" s="34"/>
       <c r="AF16" s="27">
         <v>0.0</v>
       </c>
       <c r="AG16" s="11">
         <v>1.0</v>
       </c>
-      <c r="AH16" s="33"/>
+      <c r="AH16" s="34"/>
       <c r="AI16" s="25" t="s">
         <v>46</v>
       </c>
       <c r="AJ16" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AK16" s="35"/>
-      <c r="AL16" s="35"/>
-      <c r="AN16" s="35"/>
-      <c r="AO16" s="35"/>
-      <c r="AP16" s="35"/>
-      <c r="AQ16" s="35"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="36"/>
     </row>
     <row r="17">
       <c r="A17" s="27" t="s">
@@ -2041,16 +2058,16 @@
         <f>-(102+12/60+56.7/3600)</f>
         <v>-102.21575</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="37">
         <v>7.0</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="38">
         <v>1.2</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="38">
         <v>32.8</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="39">
         <v>69.0</v>
       </c>
       <c r="I17" s="27">
@@ -2058,8 +2075,8 @@
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
@@ -2074,7 +2091,7 @@
         <v>0.10600000000000001</v>
       </c>
       <c r="U17" s="13"/>
-      <c r="V17" s="32" t="s">
+      <c r="V17" s="33" t="s">
         <v>64</v>
       </c>
       <c r="W17" s="11" t="s">
@@ -2095,26 +2112,26 @@
       <c r="AD17" s="27">
         <v>0.0</v>
       </c>
-      <c r="AE17" s="33"/>
+      <c r="AE17" s="34"/>
       <c r="AF17" s="27">
         <v>0.0</v>
       </c>
       <c r="AG17" s="11">
         <v>1.0</v>
       </c>
-      <c r="AH17" s="33"/>
+      <c r="AH17" s="34"/>
       <c r="AI17" s="25" t="s">
         <v>46</v>
       </c>
       <c r="AJ17" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AK17" s="35"/>
-      <c r="AL17" s="35"/>
-      <c r="AN17" s="35"/>
-      <c r="AO17" s="35"/>
-      <c r="AP17" s="35"/>
-      <c r="AQ17" s="35"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="36"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="36"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="27" t="s">
@@ -2131,16 +2148,16 @@
         <f>-(102+4/60+3.5/3600)</f>
         <v>-102.0676389</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="37">
         <v>7.0</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="38">
         <v>349.3</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="38">
         <v>43.6</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="39">
         <v>189.0</v>
       </c>
       <c r="I18" s="27">
@@ -2148,8 +2165,8 @@
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -2164,7 +2181,7 @@
         <v>0.2</v>
       </c>
       <c r="U18" s="13"/>
-      <c r="V18" s="32" t="s">
+      <c r="V18" s="33" t="s">
         <v>64</v>
       </c>
       <c r="W18" s="11" t="s">
@@ -2185,447 +2202,447 @@
       <c r="AD18" s="27">
         <v>0.0</v>
       </c>
-      <c r="AE18" s="33"/>
+      <c r="AE18" s="34"/>
       <c r="AF18" s="27">
         <v>0.0</v>
       </c>
       <c r="AG18" s="11">
         <v>1.0</v>
       </c>
-      <c r="AH18" s="33"/>
+      <c r="AH18" s="34"/>
       <c r="AI18" s="25" t="s">
         <v>46</v>
       </c>
       <c r="AJ18" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AK18" s="35"/>
-      <c r="AL18" s="35"/>
-      <c r="AN18" s="35"/>
-      <c r="AO18" s="35"/>
-      <c r="AP18" s="35"/>
-      <c r="AQ18" s="35"/>
+      <c r="AK18" s="36"/>
+      <c r="AL18" s="36"/>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="36"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="43"/>
-      <c r="AB19" s="43"/>
-      <c r="AC19" s="43"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="42"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="49"/>
-      <c r="AH19" s="49"/>
-      <c r="AI19" s="35"/>
-      <c r="AJ19" s="35"/>
-      <c r="AK19" s="35"/>
-      <c r="AL19" s="35"/>
-      <c r="AN19" s="35"/>
-      <c r="AO19" s="35"/>
-      <c r="AP19" s="35"/>
-      <c r="AQ19" s="35"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="43"/>
+      <c r="AF19" s="49"/>
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="50"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="36"/>
     </row>
     <row r="20">
-      <c r="A20" s="42"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="49"/>
-      <c r="AI20" s="49"/>
-      <c r="AJ20" s="35"/>
-      <c r="AK20" s="50"/>
-      <c r="AL20" s="35"/>
-      <c r="AM20" s="35"/>
-      <c r="AN20" s="35"/>
-      <c r="AO20" s="35"/>
-      <c r="AP20" s="35"/>
-      <c r="AQ20" s="35"/>
+      <c r="A20" s="43"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="43"/>
+      <c r="AF20" s="43"/>
+      <c r="AG20" s="49"/>
+      <c r="AH20" s="50"/>
+      <c r="AI20" s="50"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="51"/>
+      <c r="AL20" s="36"/>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="36"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="42"/>
-      <c r="AF21" s="42"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="49"/>
-      <c r="AI21" s="49"/>
-      <c r="AJ21" s="35"/>
-      <c r="AK21" s="50"/>
-      <c r="AL21" s="35"/>
-      <c r="AM21" s="35"/>
-      <c r="AN21" s="35"/>
-      <c r="AO21" s="35"/>
-      <c r="AP21" s="35"/>
-      <c r="AQ21" s="35"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="43"/>
+      <c r="AG21" s="49"/>
+      <c r="AH21" s="50"/>
+      <c r="AI21" s="50"/>
+      <c r="AJ21" s="36"/>
+      <c r="AK21" s="51"/>
+      <c r="AL21" s="36"/>
+      <c r="AM21" s="36"/>
+      <c r="AN21" s="36"/>
+      <c r="AO21" s="36"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="36"/>
     </row>
     <row r="22">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="55"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="49"/>
-      <c r="AI22" s="49"/>
-      <c r="AJ22" s="35"/>
-      <c r="AK22" s="50"/>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="35"/>
-      <c r="AO22" s="35"/>
-      <c r="AP22" s="35"/>
-      <c r="AQ22" s="35"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="43"/>
+      <c r="AF22" s="43"/>
+      <c r="AG22" s="49"/>
+      <c r="AH22" s="50"/>
+      <c r="AI22" s="50"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="36"/>
+      <c r="AM22" s="36"/>
+      <c r="AN22" s="36"/>
+      <c r="AO22" s="36"/>
+      <c r="AP22" s="36"/>
+      <c r="AQ22" s="36"/>
     </row>
     <row r="23">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="55"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="49"/>
-      <c r="AI23" s="49"/>
-      <c r="AJ23" s="35"/>
-      <c r="AK23" s="50"/>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="35"/>
-      <c r="AO23" s="35"/>
-      <c r="AP23" s="35"/>
-      <c r="AQ23" s="35"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="49"/>
+      <c r="AH23" s="50"/>
+      <c r="AI23" s="50"/>
+      <c r="AJ23" s="36"/>
+      <c r="AK23" s="51"/>
+      <c r="AL23" s="36"/>
+      <c r="AM23" s="36"/>
+      <c r="AN23" s="36"/>
+      <c r="AO23" s="36"/>
+      <c r="AP23" s="36"/>
+      <c r="AQ23" s="36"/>
     </row>
     <row r="24">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="54"/>
-      <c r="AA24" s="55"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="48"/>
-      <c r="AD24" s="48"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="48"/>
-      <c r="AH24" s="49"/>
-      <c r="AI24" s="49"/>
-      <c r="AJ24" s="35"/>
-      <c r="AK24" s="50"/>
-      <c r="AL24" s="35"/>
-      <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
-      <c r="AO24" s="35"/>
-      <c r="AP24" s="35"/>
-      <c r="AQ24" s="35"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="43"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="43"/>
+      <c r="AF24" s="43"/>
+      <c r="AG24" s="49"/>
+      <c r="AH24" s="50"/>
+      <c r="AI24" s="50"/>
+      <c r="AJ24" s="36"/>
+      <c r="AK24" s="51"/>
+      <c r="AL24" s="36"/>
+      <c r="AM24" s="36"/>
+      <c r="AN24" s="36"/>
+      <c r="AO24" s="36"/>
+      <c r="AP24" s="36"/>
+      <c r="AQ24" s="36"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="55"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="48"/>
-      <c r="AD25" s="48"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="48"/>
-      <c r="AH25" s="49"/>
-      <c r="AI25" s="49"/>
-      <c r="AJ25" s="57"/>
-      <c r="AK25" s="50"/>
-      <c r="AL25" s="35"/>
-      <c r="AM25" s="35"/>
-      <c r="AN25" s="35"/>
-      <c r="AO25" s="35"/>
-      <c r="AP25" s="35"/>
-      <c r="AQ25" s="35"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="49"/>
+      <c r="AD25" s="49"/>
+      <c r="AE25" s="43"/>
+      <c r="AF25" s="43"/>
+      <c r="AG25" s="49"/>
+      <c r="AH25" s="50"/>
+      <c r="AI25" s="50"/>
+      <c r="AJ25" s="58"/>
+      <c r="AK25" s="51"/>
+      <c r="AL25" s="36"/>
+      <c r="AM25" s="36"/>
+      <c r="AN25" s="36"/>
+      <c r="AO25" s="36"/>
+      <c r="AP25" s="36"/>
+      <c r="AQ25" s="36"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="17"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="54"/>
-      <c r="AA26" s="55"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="48"/>
-      <c r="AD26" s="48"/>
-      <c r="AE26" s="42"/>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="48"/>
-      <c r="AH26" s="49"/>
-      <c r="AI26" s="49"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="35"/>
-      <c r="AL26" s="35"/>
-      <c r="AM26" s="35"/>
-      <c r="AN26" s="35"/>
-      <c r="AO26" s="35"/>
-      <c r="AP26" s="35"/>
-      <c r="AQ26" s="35"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="43"/>
+      <c r="AC26" s="49"/>
+      <c r="AD26" s="49"/>
+      <c r="AE26" s="43"/>
+      <c r="AF26" s="43"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="58"/>
+      <c r="AK26" s="36"/>
+      <c r="AL26" s="36"/>
+      <c r="AM26" s="36"/>
+      <c r="AN26" s="36"/>
+      <c r="AO26" s="36"/>
+      <c r="AP26" s="36"/>
+      <c r="AQ26" s="36"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="17"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="54"/>
-      <c r="AA27" s="55"/>
-      <c r="AB27" s="42"/>
-      <c r="AC27" s="48"/>
-      <c r="AD27" s="48"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="42"/>
-      <c r="AG27" s="48"/>
-      <c r="AH27" s="49"/>
-      <c r="AI27" s="49"/>
-      <c r="AJ27" s="57"/>
-      <c r="AK27" s="50"/>
-      <c r="AL27" s="35"/>
-      <c r="AM27" s="35"/>
-      <c r="AN27" s="35"/>
-      <c r="AO27" s="35"/>
-      <c r="AP27" s="35"/>
-      <c r="AQ27" s="35"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="56"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="49"/>
+      <c r="AE27" s="43"/>
+      <c r="AF27" s="43"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="50"/>
+      <c r="AI27" s="50"/>
+      <c r="AJ27" s="58"/>
+      <c r="AK27" s="51"/>
+      <c r="AL27" s="36"/>
+      <c r="AM27" s="36"/>
+      <c r="AN27" s="36"/>
+      <c r="AO27" s="36"/>
+      <c r="AP27" s="36"/>
+      <c r="AQ27" s="36"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="54"/>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="48"/>
-      <c r="AD28" s="48"/>
-      <c r="AE28" s="42"/>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="42"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="50"/>
-      <c r="AK28" s="35"/>
-      <c r="AL28" s="39"/>
-      <c r="AM28" s="35"/>
-      <c r="AN28" s="35"/>
-      <c r="AO28" s="35"/>
-      <c r="AP28" s="35"/>
-      <c r="AQ28" s="35"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="43"/>
+      <c r="AC28" s="49"/>
+      <c r="AD28" s="49"/>
+      <c r="AE28" s="43"/>
+      <c r="AF28" s="43"/>
+      <c r="AG28" s="43"/>
+      <c r="AH28" s="50"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="36"/>
+      <c r="AL28" s="40"/>
+      <c r="AM28" s="36"/>
+      <c r="AN28" s="36"/>
+      <c r="AO28" s="36"/>
+      <c r="AP28" s="36"/>
+      <c r="AQ28" s="36"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="28"/>
@@ -2656,8 +2673,8 @@
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
       <c r="N30" s="28"/>
@@ -2701,8 +2718,8 @@
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
       <c r="N31" s="28"/>
@@ -2746,8 +2763,8 @@
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
       <c r="L32" s="28"/>
       <c r="M32" s="28"/>
       <c r="N32" s="28"/>
@@ -2791,8 +2808,8 @@
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
       <c r="L33" s="28"/>
       <c r="M33" s="28"/>
       <c r="N33" s="28"/>
@@ -2836,8 +2853,8 @@
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
       <c r="L34" s="28"/>
       <c r="M34" s="28"/>
       <c r="N34" s="28"/>
@@ -2881,8 +2898,8 @@
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
       <c r="L35" s="28"/>
       <c r="M35" s="28"/>
       <c r="N35" s="28"/>
@@ -2926,8 +2943,8 @@
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
       <c r="N36" s="28"/>
@@ -2971,8 +2988,8 @@
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
       <c r="L37" s="28"/>
       <c r="M37" s="28"/>
       <c r="N37" s="28"/>
@@ -3016,8 +3033,8 @@
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
       <c r="L38" s="28"/>
       <c r="M38" s="28"/>
       <c r="N38" s="28"/>
@@ -3061,8 +3078,8 @@
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
       <c r="L39" s="28"/>
       <c r="M39" s="28"/>
       <c r="N39" s="28"/>
@@ -3106,8 +3123,8 @@
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
       <c r="L40" s="28"/>
       <c r="M40" s="28"/>
       <c r="N40" s="28"/>
@@ -3151,8 +3168,8 @@
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
       <c r="L41" s="28"/>
       <c r="M41" s="28"/>
       <c r="N41" s="28"/>
@@ -3196,8 +3213,8 @@
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
       <c r="L42" s="28"/>
       <c r="M42" s="28"/>
       <c r="N42" s="28"/>
@@ -3241,8 +3258,8 @@
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
       <c r="L43" s="28"/>
       <c r="M43" s="28"/>
       <c r="N43" s="28"/>
@@ -3286,8 +3303,8 @@
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
       <c r="L44" s="28"/>
       <c r="M44" s="28"/>
       <c r="N44" s="28"/>
@@ -3331,8 +3348,8 @@
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
       <c r="L45" s="28"/>
       <c r="M45" s="28"/>
       <c r="N45" s="28"/>
@@ -3376,8 +3393,8 @@
       <c r="G46" s="28"/>
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
       <c r="L46" s="28"/>
       <c r="M46" s="28"/>
       <c r="N46" s="28"/>
@@ -3421,8 +3438,8 @@
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
       <c r="L47" s="28"/>
       <c r="M47" s="28"/>
       <c r="N47" s="28"/>
@@ -3466,8 +3483,8 @@
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
       <c r="I48" s="28"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
       <c r="L48" s="28"/>
       <c r="M48" s="28"/>
       <c r="N48" s="28"/>
@@ -3511,8 +3528,8 @@
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
       <c r="L49" s="28"/>
       <c r="M49" s="28"/>
       <c r="N49" s="28"/>
@@ -3556,8 +3573,8 @@
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
       <c r="L50" s="28"/>
       <c r="M50" s="28"/>
       <c r="N50" s="28"/>
@@ -3601,8 +3618,8 @@
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
       <c r="L51" s="28"/>
       <c r="M51" s="28"/>
       <c r="N51" s="28"/>
@@ -3646,8 +3663,8 @@
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
       <c r="I52" s="28"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
       <c r="L52" s="28"/>
       <c r="M52" s="28"/>
       <c r="N52" s="28"/>
@@ -3691,8 +3708,8 @@
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
       <c r="I53" s="28"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="59"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
       <c r="L53" s="28"/>
       <c r="M53" s="28"/>
       <c r="N53" s="28"/>
@@ -3736,8 +3753,8 @@
       <c r="G54" s="28"/>
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="60"/>
       <c r="L54" s="28"/>
       <c r="M54" s="28"/>
       <c r="N54" s="28"/>
@@ -3781,8 +3798,8 @@
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="60"/>
       <c r="L55" s="28"/>
       <c r="M55" s="28"/>
       <c r="N55" s="28"/>
@@ -3826,8 +3843,8 @@
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
+      <c r="J56" s="60"/>
+      <c r="K56" s="60"/>
       <c r="L56" s="28"/>
       <c r="M56" s="28"/>
       <c r="N56" s="28"/>
@@ -3871,8 +3888,8 @@
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="60"/>
       <c r="L57" s="28"/>
       <c r="M57" s="28"/>
       <c r="N57" s="28"/>
@@ -3916,8 +3933,8 @@
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="59"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
       <c r="L58" s="28"/>
       <c r="M58" s="28"/>
       <c r="N58" s="28"/>
@@ -3961,8 +3978,8 @@
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="60"/>
       <c r="L59" s="28"/>
       <c r="M59" s="28"/>
       <c r="N59" s="28"/>
@@ -4006,8 +4023,8 @@
       <c r="G60" s="28"/>
       <c r="H60" s="28"/>
       <c r="I60" s="28"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="59"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="60"/>
       <c r="L60" s="28"/>
       <c r="M60" s="28"/>
       <c r="N60" s="28"/>
@@ -4051,8 +4068,8 @@
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
       <c r="I61" s="28"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="59"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60"/>
       <c r="L61" s="28"/>
       <c r="M61" s="28"/>
       <c r="N61" s="28"/>
@@ -4096,8 +4113,8 @@
       <c r="G62" s="28"/>
       <c r="H62" s="28"/>
       <c r="I62" s="28"/>
-      <c r="J62" s="59"/>
-      <c r="K62" s="59"/>
+      <c r="J62" s="60"/>
+      <c r="K62" s="60"/>
       <c r="L62" s="28"/>
       <c r="M62" s="28"/>
       <c r="N62" s="28"/>
@@ -4141,8 +4158,8 @@
       <c r="G63" s="28"/>
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="59"/>
+      <c r="J63" s="60"/>
+      <c r="K63" s="60"/>
       <c r="L63" s="28"/>
       <c r="M63" s="28"/>
       <c r="N63" s="28"/>
@@ -4186,8 +4203,8 @@
       <c r="G64" s="28"/>
       <c r="H64" s="28"/>
       <c r="I64" s="28"/>
-      <c r="J64" s="59"/>
-      <c r="K64" s="59"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="60"/>
       <c r="L64" s="28"/>
       <c r="M64" s="28"/>
       <c r="N64" s="28"/>
@@ -4231,8 +4248,8 @@
       <c r="G65" s="28"/>
       <c r="H65" s="28"/>
       <c r="I65" s="28"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="60"/>
       <c r="L65" s="28"/>
       <c r="M65" s="28"/>
       <c r="N65" s="28"/>
@@ -4276,8 +4293,8 @@
       <c r="G66" s="28"/>
       <c r="H66" s="28"/>
       <c r="I66" s="28"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="60"/>
       <c r="L66" s="28"/>
       <c r="M66" s="28"/>
       <c r="N66" s="28"/>
@@ -4321,8 +4338,8 @@
       <c r="G67" s="28"/>
       <c r="H67" s="28"/>
       <c r="I67" s="28"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="59"/>
+      <c r="J67" s="60"/>
+      <c r="K67" s="60"/>
       <c r="L67" s="28"/>
       <c r="M67" s="28"/>
       <c r="N67" s="28"/>
@@ -4366,8 +4383,8 @@
       <c r="G68" s="28"/>
       <c r="H68" s="28"/>
       <c r="I68" s="28"/>
-      <c r="J68" s="59"/>
-      <c r="K68" s="59"/>
+      <c r="J68" s="60"/>
+      <c r="K68" s="60"/>
       <c r="L68" s="28"/>
       <c r="M68" s="28"/>
       <c r="N68" s="28"/>
@@ -4411,8 +4428,8 @@
       <c r="G69" s="28"/>
       <c r="H69" s="28"/>
       <c r="I69" s="28"/>
-      <c r="J69" s="59"/>
-      <c r="K69" s="59"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="60"/>
       <c r="L69" s="28"/>
       <c r="M69" s="28"/>
       <c r="N69" s="28"/>
@@ -4456,8 +4473,8 @@
       <c r="G70" s="28"/>
       <c r="H70" s="28"/>
       <c r="I70" s="28"/>
-      <c r="J70" s="59"/>
-      <c r="K70" s="59"/>
+      <c r="J70" s="60"/>
+      <c r="K70" s="60"/>
       <c r="L70" s="28"/>
       <c r="M70" s="28"/>
       <c r="N70" s="28"/>
@@ -4501,8 +4518,8 @@
       <c r="G71" s="28"/>
       <c r="H71" s="28"/>
       <c r="I71" s="28"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="59"/>
+      <c r="J71" s="60"/>
+      <c r="K71" s="60"/>
       <c r="L71" s="28"/>
       <c r="M71" s="28"/>
       <c r="N71" s="28"/>
@@ -4546,8 +4563,8 @@
       <c r="G72" s="28"/>
       <c r="H72" s="28"/>
       <c r="I72" s="28"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60"/>
       <c r="L72" s="28"/>
       <c r="M72" s="28"/>
       <c r="N72" s="28"/>
@@ -4591,8 +4608,8 @@
       <c r="G73" s="28"/>
       <c r="H73" s="28"/>
       <c r="I73" s="28"/>
-      <c r="J73" s="59"/>
-      <c r="K73" s="59"/>
+      <c r="J73" s="60"/>
+      <c r="K73" s="60"/>
       <c r="L73" s="28"/>
       <c r="M73" s="28"/>
       <c r="N73" s="28"/>
@@ -4636,8 +4653,8 @@
       <c r="G74" s="28"/>
       <c r="H74" s="28"/>
       <c r="I74" s="28"/>
-      <c r="J74" s="59"/>
-      <c r="K74" s="59"/>
+      <c r="J74" s="60"/>
+      <c r="K74" s="60"/>
       <c r="L74" s="28"/>
       <c r="M74" s="28"/>
       <c r="N74" s="28"/>
@@ -4681,8 +4698,8 @@
       <c r="G75" s="28"/>
       <c r="H75" s="28"/>
       <c r="I75" s="28"/>
-      <c r="J75" s="59"/>
-      <c r="K75" s="59"/>
+      <c r="J75" s="60"/>
+      <c r="K75" s="60"/>
       <c r="L75" s="28"/>
       <c r="M75" s="28"/>
       <c r="N75" s="28"/>
@@ -4726,8 +4743,8 @@
       <c r="G76" s="28"/>
       <c r="H76" s="28"/>
       <c r="I76" s="28"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="59"/>
+      <c r="J76" s="60"/>
+      <c r="K76" s="60"/>
       <c r="L76" s="28"/>
       <c r="M76" s="28"/>
       <c r="N76" s="28"/>
@@ -4771,8 +4788,8 @@
       <c r="G77" s="28"/>
       <c r="H77" s="28"/>
       <c r="I77" s="28"/>
-      <c r="J77" s="59"/>
-      <c r="K77" s="59"/>
+      <c r="J77" s="60"/>
+      <c r="K77" s="60"/>
       <c r="L77" s="28"/>
       <c r="M77" s="28"/>
       <c r="N77" s="28"/>
@@ -4816,8 +4833,8 @@
       <c r="G78" s="28"/>
       <c r="H78" s="28"/>
       <c r="I78" s="28"/>
-      <c r="J78" s="59"/>
-      <c r="K78" s="59"/>
+      <c r="J78" s="60"/>
+      <c r="K78" s="60"/>
       <c r="L78" s="28"/>
       <c r="M78" s="28"/>
       <c r="N78" s="28"/>
@@ -4861,8 +4878,8 @@
       <c r="G79" s="28"/>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
-      <c r="J79" s="59"/>
-      <c r="K79" s="59"/>
+      <c r="J79" s="60"/>
+      <c r="K79" s="60"/>
       <c r="L79" s="28"/>
       <c r="M79" s="28"/>
       <c r="N79" s="28"/>
@@ -4906,8 +4923,8 @@
       <c r="G80" s="28"/>
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
-      <c r="J80" s="59"/>
-      <c r="K80" s="59"/>
+      <c r="J80" s="60"/>
+      <c r="K80" s="60"/>
       <c r="L80" s="28"/>
       <c r="M80" s="28"/>
       <c r="N80" s="28"/>
@@ -4951,8 +4968,8 @@
       <c r="G81" s="28"/>
       <c r="H81" s="28"/>
       <c r="I81" s="28"/>
-      <c r="J81" s="59"/>
-      <c r="K81" s="59"/>
+      <c r="J81" s="60"/>
+      <c r="K81" s="60"/>
       <c r="L81" s="28"/>
       <c r="M81" s="28"/>
       <c r="N81" s="28"/>
@@ -4996,8 +5013,8 @@
       <c r="G82" s="28"/>
       <c r="H82" s="28"/>
       <c r="I82" s="28"/>
-      <c r="J82" s="59"/>
-      <c r="K82" s="59"/>
+      <c r="J82" s="60"/>
+      <c r="K82" s="60"/>
       <c r="L82" s="28"/>
       <c r="M82" s="28"/>
       <c r="N82" s="28"/>
@@ -5041,8 +5058,8 @@
       <c r="G83" s="28"/>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
-      <c r="J83" s="59"/>
-      <c r="K83" s="59"/>
+      <c r="J83" s="60"/>
+      <c r="K83" s="60"/>
       <c r="L83" s="28"/>
       <c r="M83" s="28"/>
       <c r="N83" s="28"/>
@@ -5086,8 +5103,8 @@
       <c r="G84" s="28"/>
       <c r="H84" s="28"/>
       <c r="I84" s="28"/>
-      <c r="J84" s="59"/>
-      <c r="K84" s="59"/>
+      <c r="J84" s="60"/>
+      <c r="K84" s="60"/>
       <c r="L84" s="28"/>
       <c r="M84" s="28"/>
       <c r="N84" s="28"/>
@@ -5131,8 +5148,8 @@
       <c r="G85" s="28"/>
       <c r="H85" s="28"/>
       <c r="I85" s="28"/>
-      <c r="J85" s="59"/>
-      <c r="K85" s="59"/>
+      <c r="J85" s="60"/>
+      <c r="K85" s="60"/>
       <c r="L85" s="28"/>
       <c r="M85" s="28"/>
       <c r="N85" s="28"/>
@@ -5176,8 +5193,8 @@
       <c r="G86" s="28"/>
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
-      <c r="J86" s="59"/>
-      <c r="K86" s="59"/>
+      <c r="J86" s="60"/>
+      <c r="K86" s="60"/>
       <c r="L86" s="28"/>
       <c r="M86" s="28"/>
       <c r="N86" s="28"/>
@@ -5221,8 +5238,8 @@
       <c r="G87" s="28"/>
       <c r="H87" s="28"/>
       <c r="I87" s="28"/>
-      <c r="J87" s="59"/>
-      <c r="K87" s="59"/>
+      <c r="J87" s="60"/>
+      <c r="K87" s="60"/>
       <c r="L87" s="28"/>
       <c r="M87" s="28"/>
       <c r="N87" s="28"/>
@@ -5266,8 +5283,8 @@
       <c r="G88" s="28"/>
       <c r="H88" s="28"/>
       <c r="I88" s="28"/>
-      <c r="J88" s="59"/>
-      <c r="K88" s="59"/>
+      <c r="J88" s="60"/>
+      <c r="K88" s="60"/>
       <c r="L88" s="28"/>
       <c r="M88" s="28"/>
       <c r="N88" s="28"/>
@@ -5311,8 +5328,8 @@
       <c r="G89" s="28"/>
       <c r="H89" s="28"/>
       <c r="I89" s="28"/>
-      <c r="J89" s="59"/>
-      <c r="K89" s="59"/>
+      <c r="J89" s="60"/>
+      <c r="K89" s="60"/>
       <c r="L89" s="28"/>
       <c r="M89" s="28"/>
       <c r="N89" s="28"/>
@@ -5356,8 +5373,8 @@
       <c r="G90" s="28"/>
       <c r="H90" s="28"/>
       <c r="I90" s="28"/>
-      <c r="J90" s="59"/>
-      <c r="K90" s="59"/>
+      <c r="J90" s="60"/>
+      <c r="K90" s="60"/>
       <c r="L90" s="28"/>
       <c r="M90" s="28"/>
       <c r="N90" s="28"/>
@@ -5401,8 +5418,8 @@
       <c r="G91" s="28"/>
       <c r="H91" s="28"/>
       <c r="I91" s="28"/>
-      <c r="J91" s="59"/>
-      <c r="K91" s="59"/>
+      <c r="J91" s="60"/>
+      <c r="K91" s="60"/>
       <c r="L91" s="28"/>
       <c r="M91" s="28"/>
       <c r="N91" s="28"/>
@@ -5446,8 +5463,8 @@
       <c r="G92" s="28"/>
       <c r="H92" s="28"/>
       <c r="I92" s="28"/>
-      <c r="J92" s="59"/>
-      <c r="K92" s="59"/>
+      <c r="J92" s="60"/>
+      <c r="K92" s="60"/>
       <c r="L92" s="28"/>
       <c r="M92" s="28"/>
       <c r="N92" s="28"/>
@@ -5491,8 +5508,8 @@
       <c r="G93" s="28"/>
       <c r="H93" s="28"/>
       <c r="I93" s="28"/>
-      <c r="J93" s="59"/>
-      <c r="K93" s="59"/>
+      <c r="J93" s="60"/>
+      <c r="K93" s="60"/>
       <c r="L93" s="28"/>
       <c r="M93" s="28"/>
       <c r="N93" s="28"/>
@@ -5536,8 +5553,8 @@
       <c r="G94" s="28"/>
       <c r="H94" s="28"/>
       <c r="I94" s="28"/>
-      <c r="J94" s="59"/>
-      <c r="K94" s="59"/>
+      <c r="J94" s="60"/>
+      <c r="K94" s="60"/>
       <c r="L94" s="28"/>
       <c r="M94" s="28"/>
       <c r="N94" s="28"/>
@@ -5581,8 +5598,8 @@
       <c r="G95" s="28"/>
       <c r="H95" s="28"/>
       <c r="I95" s="28"/>
-      <c r="J95" s="59"/>
-      <c r="K95" s="59"/>
+      <c r="J95" s="60"/>
+      <c r="K95" s="60"/>
       <c r="L95" s="28"/>
       <c r="M95" s="28"/>
       <c r="N95" s="28"/>
@@ -5626,8 +5643,8 @@
       <c r="G96" s="28"/>
       <c r="H96" s="28"/>
       <c r="I96" s="28"/>
-      <c r="J96" s="59"/>
-      <c r="K96" s="59"/>
+      <c r="J96" s="60"/>
+      <c r="K96" s="60"/>
       <c r="L96" s="28"/>
       <c r="M96" s="28"/>
       <c r="N96" s="28"/>
@@ -5671,8 +5688,8 @@
       <c r="G97" s="28"/>
       <c r="H97" s="28"/>
       <c r="I97" s="28"/>
-      <c r="J97" s="59"/>
-      <c r="K97" s="59"/>
+      <c r="J97" s="60"/>
+      <c r="K97" s="60"/>
       <c r="L97" s="28"/>
       <c r="M97" s="28"/>
       <c r="N97" s="28"/>
@@ -5716,8 +5733,8 @@
       <c r="G98" s="28"/>
       <c r="H98" s="28"/>
       <c r="I98" s="28"/>
-      <c r="J98" s="59"/>
-      <c r="K98" s="59"/>
+      <c r="J98" s="60"/>
+      <c r="K98" s="60"/>
       <c r="L98" s="28"/>
       <c r="M98" s="28"/>
       <c r="N98" s="28"/>
@@ -5761,8 +5778,8 @@
       <c r="G99" s="28"/>
       <c r="H99" s="28"/>
       <c r="I99" s="28"/>
-      <c r="J99" s="59"/>
-      <c r="K99" s="59"/>
+      <c r="J99" s="60"/>
+      <c r="K99" s="60"/>
       <c r="L99" s="28"/>
       <c r="M99" s="28"/>
       <c r="N99" s="28"/>
@@ -5806,8 +5823,8 @@
       <c r="G100" s="28"/>
       <c r="H100" s="28"/>
       <c r="I100" s="28"/>
-      <c r="J100" s="59"/>
-      <c r="K100" s="59"/>
+      <c r="J100" s="60"/>
+      <c r="K100" s="60"/>
       <c r="L100" s="28"/>
       <c r="M100" s="28"/>
       <c r="N100" s="28"/>
@@ -5851,8 +5868,8 @@
       <c r="G101" s="28"/>
       <c r="H101" s="28"/>
       <c r="I101" s="28"/>
-      <c r="J101" s="59"/>
-      <c r="K101" s="59"/>
+      <c r="J101" s="60"/>
+      <c r="K101" s="60"/>
       <c r="L101" s="28"/>
       <c r="M101" s="28"/>
       <c r="N101" s="28"/>
@@ -5896,8 +5913,8 @@
       <c r="G102" s="28"/>
       <c r="H102" s="28"/>
       <c r="I102" s="28"/>
-      <c r="J102" s="59"/>
-      <c r="K102" s="59"/>
+      <c r="J102" s="60"/>
+      <c r="K102" s="60"/>
       <c r="L102" s="28"/>
       <c r="M102" s="28"/>
       <c r="N102" s="28"/>
@@ -5941,8 +5958,8 @@
       <c r="G103" s="28"/>
       <c r="H103" s="28"/>
       <c r="I103" s="28"/>
-      <c r="J103" s="59"/>
-      <c r="K103" s="59"/>
+      <c r="J103" s="60"/>
+      <c r="K103" s="60"/>
       <c r="L103" s="28"/>
       <c r="M103" s="28"/>
       <c r="N103" s="28"/>
@@ -5986,8 +6003,8 @@
       <c r="G104" s="28"/>
       <c r="H104" s="28"/>
       <c r="I104" s="28"/>
-      <c r="J104" s="59"/>
-      <c r="K104" s="59"/>
+      <c r="J104" s="60"/>
+      <c r="K104" s="60"/>
       <c r="L104" s="28"/>
       <c r="M104" s="28"/>
       <c r="N104" s="28"/>
@@ -6031,8 +6048,8 @@
       <c r="G105" s="28"/>
       <c r="H105" s="28"/>
       <c r="I105" s="28"/>
-      <c r="J105" s="59"/>
-      <c r="K105" s="59"/>
+      <c r="J105" s="60"/>
+      <c r="K105" s="60"/>
       <c r="L105" s="28"/>
       <c r="M105" s="28"/>
       <c r="N105" s="28"/>
@@ -6076,8 +6093,8 @@
       <c r="G106" s="28"/>
       <c r="H106" s="28"/>
       <c r="I106" s="28"/>
-      <c r="J106" s="59"/>
-      <c r="K106" s="59"/>
+      <c r="J106" s="60"/>
+      <c r="K106" s="60"/>
       <c r="L106" s="28"/>
       <c r="M106" s="28"/>
       <c r="N106" s="28"/>
@@ -6121,8 +6138,8 @@
       <c r="G107" s="28"/>
       <c r="H107" s="28"/>
       <c r="I107" s="28"/>
-      <c r="J107" s="59"/>
-      <c r="K107" s="59"/>
+      <c r="J107" s="60"/>
+      <c r="K107" s="60"/>
       <c r="L107" s="28"/>
       <c r="M107" s="28"/>
       <c r="N107" s="28"/>
@@ -6166,8 +6183,8 @@
       <c r="G108" s="28"/>
       <c r="H108" s="28"/>
       <c r="I108" s="28"/>
-      <c r="J108" s="59"/>
-      <c r="K108" s="59"/>
+      <c r="J108" s="60"/>
+      <c r="K108" s="60"/>
       <c r="L108" s="28"/>
       <c r="M108" s="28"/>
       <c r="N108" s="28"/>
@@ -6211,8 +6228,8 @@
       <c r="G109" s="28"/>
       <c r="H109" s="28"/>
       <c r="I109" s="28"/>
-      <c r="J109" s="59"/>
-      <c r="K109" s="59"/>
+      <c r="J109" s="60"/>
+      <c r="K109" s="60"/>
       <c r="L109" s="28"/>
       <c r="M109" s="28"/>
       <c r="N109" s="28"/>
@@ -6256,8 +6273,8 @@
       <c r="G110" s="28"/>
       <c r="H110" s="28"/>
       <c r="I110" s="28"/>
-      <c r="J110" s="59"/>
-      <c r="K110" s="59"/>
+      <c r="J110" s="60"/>
+      <c r="K110" s="60"/>
       <c r="L110" s="28"/>
       <c r="M110" s="28"/>
       <c r="N110" s="28"/>
@@ -6301,8 +6318,8 @@
       <c r="G111" s="28"/>
       <c r="H111" s="28"/>
       <c r="I111" s="28"/>
-      <c r="J111" s="59"/>
-      <c r="K111" s="59"/>
+      <c r="J111" s="60"/>
+      <c r="K111" s="60"/>
       <c r="L111" s="28"/>
       <c r="M111" s="28"/>
       <c r="N111" s="28"/>
@@ -6346,8 +6363,8 @@
       <c r="G112" s="28"/>
       <c r="H112" s="28"/>
       <c r="I112" s="28"/>
-      <c r="J112" s="59"/>
-      <c r="K112" s="59"/>
+      <c r="J112" s="60"/>
+      <c r="K112" s="60"/>
       <c r="L112" s="28"/>
       <c r="M112" s="28"/>
       <c r="N112" s="28"/>
@@ -6391,8 +6408,8 @@
       <c r="G113" s="28"/>
       <c r="H113" s="28"/>
       <c r="I113" s="28"/>
-      <c r="J113" s="59"/>
-      <c r="K113" s="59"/>
+      <c r="J113" s="60"/>
+      <c r="K113" s="60"/>
       <c r="L113" s="28"/>
       <c r="M113" s="28"/>
       <c r="N113" s="28"/>
@@ -6436,8 +6453,8 @@
       <c r="G114" s="28"/>
       <c r="H114" s="28"/>
       <c r="I114" s="28"/>
-      <c r="J114" s="59"/>
-      <c r="K114" s="59"/>
+      <c r="J114" s="60"/>
+      <c r="K114" s="60"/>
       <c r="L114" s="28"/>
       <c r="M114" s="28"/>
       <c r="N114" s="28"/>
@@ -6481,8 +6498,8 @@
       <c r="G115" s="28"/>
       <c r="H115" s="28"/>
       <c r="I115" s="28"/>
-      <c r="J115" s="59"/>
-      <c r="K115" s="59"/>
+      <c r="J115" s="60"/>
+      <c r="K115" s="60"/>
       <c r="L115" s="28"/>
       <c r="M115" s="28"/>
       <c r="N115" s="28"/>
@@ -6526,8 +6543,8 @@
       <c r="G116" s="28"/>
       <c r="H116" s="28"/>
       <c r="I116" s="28"/>
-      <c r="J116" s="59"/>
-      <c r="K116" s="59"/>
+      <c r="J116" s="60"/>
+      <c r="K116" s="60"/>
       <c r="L116" s="28"/>
       <c r="M116" s="28"/>
       <c r="N116" s="28"/>
@@ -6571,8 +6588,8 @@
       <c r="G117" s="28"/>
       <c r="H117" s="28"/>
       <c r="I117" s="28"/>
-      <c r="J117" s="59"/>
-      <c r="K117" s="59"/>
+      <c r="J117" s="60"/>
+      <c r="K117" s="60"/>
       <c r="L117" s="28"/>
       <c r="M117" s="28"/>
       <c r="N117" s="28"/>
@@ -6616,8 +6633,8 @@
       <c r="G118" s="28"/>
       <c r="H118" s="28"/>
       <c r="I118" s="28"/>
-      <c r="J118" s="59"/>
-      <c r="K118" s="59"/>
+      <c r="J118" s="60"/>
+      <c r="K118" s="60"/>
       <c r="L118" s="28"/>
       <c r="M118" s="28"/>
       <c r="N118" s="28"/>
@@ -6661,8 +6678,8 @@
       <c r="G119" s="28"/>
       <c r="H119" s="28"/>
       <c r="I119" s="28"/>
-      <c r="J119" s="59"/>
-      <c r="K119" s="59"/>
+      <c r="J119" s="60"/>
+      <c r="K119" s="60"/>
       <c r="L119" s="28"/>
       <c r="M119" s="28"/>
       <c r="N119" s="28"/>
@@ -6706,8 +6723,8 @@
       <c r="G120" s="28"/>
       <c r="H120" s="28"/>
       <c r="I120" s="28"/>
-      <c r="J120" s="59"/>
-      <c r="K120" s="59"/>
+      <c r="J120" s="60"/>
+      <c r="K120" s="60"/>
       <c r="L120" s="28"/>
       <c r="M120" s="28"/>
       <c r="N120" s="28"/>
@@ -6751,8 +6768,8 @@
       <c r="G121" s="28"/>
       <c r="H121" s="28"/>
       <c r="I121" s="28"/>
-      <c r="J121" s="59"/>
-      <c r="K121" s="59"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
       <c r="L121" s="28"/>
       <c r="M121" s="28"/>
       <c r="N121" s="28"/>
@@ -6796,8 +6813,8 @@
       <c r="G122" s="28"/>
       <c r="H122" s="28"/>
       <c r="I122" s="28"/>
-      <c r="J122" s="59"/>
-      <c r="K122" s="59"/>
+      <c r="J122" s="60"/>
+      <c r="K122" s="60"/>
       <c r="L122" s="28"/>
       <c r="M122" s="28"/>
       <c r="N122" s="28"/>
@@ -6841,8 +6858,8 @@
       <c r="G123" s="28"/>
       <c r="H123" s="28"/>
       <c r="I123" s="28"/>
-      <c r="J123" s="59"/>
-      <c r="K123" s="59"/>
+      <c r="J123" s="60"/>
+      <c r="K123" s="60"/>
       <c r="L123" s="28"/>
       <c r="M123" s="28"/>
       <c r="N123" s="28"/>
@@ -6886,8 +6903,8 @@
       <c r="G124" s="28"/>
       <c r="H124" s="28"/>
       <c r="I124" s="28"/>
-      <c r="J124" s="59"/>
-      <c r="K124" s="59"/>
+      <c r="J124" s="60"/>
+      <c r="K124" s="60"/>
       <c r="L124" s="28"/>
       <c r="M124" s="28"/>
       <c r="N124" s="28"/>
@@ -6931,8 +6948,8 @@
       <c r="G125" s="28"/>
       <c r="H125" s="28"/>
       <c r="I125" s="28"/>
-      <c r="J125" s="59"/>
-      <c r="K125" s="59"/>
+      <c r="J125" s="60"/>
+      <c r="K125" s="60"/>
       <c r="L125" s="28"/>
       <c r="M125" s="28"/>
       <c r="N125" s="28"/>
@@ -6976,8 +6993,8 @@
       <c r="G126" s="28"/>
       <c r="H126" s="28"/>
       <c r="I126" s="28"/>
-      <c r="J126" s="59"/>
-      <c r="K126" s="59"/>
+      <c r="J126" s="60"/>
+      <c r="K126" s="60"/>
       <c r="L126" s="28"/>
       <c r="M126" s="28"/>
       <c r="N126" s="28"/>
@@ -7021,8 +7038,8 @@
       <c r="G127" s="28"/>
       <c r="H127" s="28"/>
       <c r="I127" s="28"/>
-      <c r="J127" s="59"/>
-      <c r="K127" s="59"/>
+      <c r="J127" s="60"/>
+      <c r="K127" s="60"/>
       <c r="L127" s="28"/>
       <c r="M127" s="28"/>
       <c r="N127" s="28"/>
@@ -7066,8 +7083,8 @@
       <c r="G128" s="28"/>
       <c r="H128" s="28"/>
       <c r="I128" s="28"/>
-      <c r="J128" s="59"/>
-      <c r="K128" s="59"/>
+      <c r="J128" s="60"/>
+      <c r="K128" s="60"/>
       <c r="L128" s="28"/>
       <c r="M128" s="28"/>
       <c r="N128" s="28"/>
@@ -7111,8 +7128,8 @@
       <c r="G129" s="28"/>
       <c r="H129" s="28"/>
       <c r="I129" s="28"/>
-      <c r="J129" s="59"/>
-      <c r="K129" s="59"/>
+      <c r="J129" s="60"/>
+      <c r="K129" s="60"/>
       <c r="L129" s="28"/>
       <c r="M129" s="28"/>
       <c r="N129" s="28"/>
@@ -7156,8 +7173,8 @@
       <c r="G130" s="28"/>
       <c r="H130" s="28"/>
       <c r="I130" s="28"/>
-      <c r="J130" s="59"/>
-      <c r="K130" s="59"/>
+      <c r="J130" s="60"/>
+      <c r="K130" s="60"/>
       <c r="L130" s="28"/>
       <c r="M130" s="28"/>
       <c r="N130" s="28"/>
@@ -7201,8 +7218,8 @@
       <c r="G131" s="28"/>
       <c r="H131" s="28"/>
       <c r="I131" s="28"/>
-      <c r="J131" s="59"/>
-      <c r="K131" s="59"/>
+      <c r="J131" s="60"/>
+      <c r="K131" s="60"/>
       <c r="L131" s="28"/>
       <c r="M131" s="28"/>
       <c r="N131" s="28"/>
@@ -7246,8 +7263,8 @@
       <c r="G132" s="28"/>
       <c r="H132" s="28"/>
       <c r="I132" s="28"/>
-      <c r="J132" s="59"/>
-      <c r="K132" s="59"/>
+      <c r="J132" s="60"/>
+      <c r="K132" s="60"/>
       <c r="L132" s="28"/>
       <c r="M132" s="28"/>
       <c r="N132" s="28"/>
@@ -7291,8 +7308,8 @@
       <c r="G133" s="28"/>
       <c r="H133" s="28"/>
       <c r="I133" s="28"/>
-      <c r="J133" s="59"/>
-      <c r="K133" s="59"/>
+      <c r="J133" s="60"/>
+      <c r="K133" s="60"/>
       <c r="L133" s="28"/>
       <c r="M133" s="28"/>
       <c r="N133" s="28"/>
@@ -7336,8 +7353,8 @@
       <c r="G134" s="28"/>
       <c r="H134" s="28"/>
       <c r="I134" s="28"/>
-      <c r="J134" s="59"/>
-      <c r="K134" s="59"/>
+      <c r="J134" s="60"/>
+      <c r="K134" s="60"/>
       <c r="L134" s="28"/>
       <c r="M134" s="28"/>
       <c r="N134" s="28"/>
@@ -7381,8 +7398,8 @@
       <c r="G135" s="28"/>
       <c r="H135" s="28"/>
       <c r="I135" s="28"/>
-      <c r="J135" s="59"/>
-      <c r="K135" s="59"/>
+      <c r="J135" s="60"/>
+      <c r="K135" s="60"/>
       <c r="L135" s="28"/>
       <c r="M135" s="28"/>
       <c r="N135" s="28"/>
@@ -7426,8 +7443,8 @@
       <c r="G136" s="28"/>
       <c r="H136" s="28"/>
       <c r="I136" s="28"/>
-      <c r="J136" s="59"/>
-      <c r="K136" s="59"/>
+      <c r="J136" s="60"/>
+      <c r="K136" s="60"/>
       <c r="L136" s="28"/>
       <c r="M136" s="28"/>
       <c r="N136" s="28"/>
@@ -7471,8 +7488,8 @@
       <c r="G137" s="28"/>
       <c r="H137" s="28"/>
       <c r="I137" s="28"/>
-      <c r="J137" s="59"/>
-      <c r="K137" s="59"/>
+      <c r="J137" s="60"/>
+      <c r="K137" s="60"/>
       <c r="L137" s="28"/>
       <c r="M137" s="28"/>
       <c r="N137" s="28"/>
@@ -7516,8 +7533,8 @@
       <c r="G138" s="28"/>
       <c r="H138" s="28"/>
       <c r="I138" s="28"/>
-      <c r="J138" s="59"/>
-      <c r="K138" s="59"/>
+      <c r="J138" s="60"/>
+      <c r="K138" s="60"/>
       <c r="L138" s="28"/>
       <c r="M138" s="28"/>
       <c r="N138" s="28"/>
@@ -7561,8 +7578,8 @@
       <c r="G139" s="28"/>
       <c r="H139" s="28"/>
       <c r="I139" s="28"/>
-      <c r="J139" s="59"/>
-      <c r="K139" s="59"/>
+      <c r="J139" s="60"/>
+      <c r="K139" s="60"/>
       <c r="L139" s="28"/>
       <c r="M139" s="28"/>
       <c r="N139" s="28"/>
@@ -7606,8 +7623,8 @@
       <c r="G140" s="28"/>
       <c r="H140" s="28"/>
       <c r="I140" s="28"/>
-      <c r="J140" s="59"/>
-      <c r="K140" s="59"/>
+      <c r="J140" s="60"/>
+      <c r="K140" s="60"/>
       <c r="L140" s="28"/>
       <c r="M140" s="28"/>
       <c r="N140" s="28"/>
@@ -7651,8 +7668,8 @@
       <c r="G141" s="28"/>
       <c r="H141" s="28"/>
       <c r="I141" s="28"/>
-      <c r="J141" s="59"/>
-      <c r="K141" s="59"/>
+      <c r="J141" s="60"/>
+      <c r="K141" s="60"/>
       <c r="L141" s="28"/>
       <c r="M141" s="28"/>
       <c r="N141" s="28"/>
@@ -7696,8 +7713,8 @@
       <c r="G142" s="28"/>
       <c r="H142" s="28"/>
       <c r="I142" s="28"/>
-      <c r="J142" s="59"/>
-      <c r="K142" s="59"/>
+      <c r="J142" s="60"/>
+      <c r="K142" s="60"/>
       <c r="L142" s="28"/>
       <c r="M142" s="28"/>
       <c r="N142" s="28"/>
@@ -7741,8 +7758,8 @@
       <c r="G143" s="28"/>
       <c r="H143" s="28"/>
       <c r="I143" s="28"/>
-      <c r="J143" s="59"/>
-      <c r="K143" s="59"/>
+      <c r="J143" s="60"/>
+      <c r="K143" s="60"/>
       <c r="L143" s="28"/>
       <c r="M143" s="28"/>
       <c r="N143" s="28"/>
@@ -7786,8 +7803,8 @@
       <c r="G144" s="28"/>
       <c r="H144" s="28"/>
       <c r="I144" s="28"/>
-      <c r="J144" s="59"/>
-      <c r="K144" s="59"/>
+      <c r="J144" s="60"/>
+      <c r="K144" s="60"/>
       <c r="L144" s="28"/>
       <c r="M144" s="28"/>
       <c r="N144" s="28"/>
@@ -7831,8 +7848,8 @@
       <c r="G145" s="28"/>
       <c r="H145" s="28"/>
       <c r="I145" s="28"/>
-      <c r="J145" s="59"/>
-      <c r="K145" s="59"/>
+      <c r="J145" s="60"/>
+      <c r="K145" s="60"/>
       <c r="L145" s="28"/>
       <c r="M145" s="28"/>
       <c r="N145" s="28"/>
@@ -7876,8 +7893,8 @@
       <c r="G146" s="28"/>
       <c r="H146" s="28"/>
       <c r="I146" s="28"/>
-      <c r="J146" s="59"/>
-      <c r="K146" s="59"/>
+      <c r="J146" s="60"/>
+      <c r="K146" s="60"/>
       <c r="L146" s="28"/>
       <c r="M146" s="28"/>
       <c r="N146" s="28"/>
@@ -7921,8 +7938,8 @@
       <c r="G147" s="28"/>
       <c r="H147" s="28"/>
       <c r="I147" s="28"/>
-      <c r="J147" s="59"/>
-      <c r="K147" s="59"/>
+      <c r="J147" s="60"/>
+      <c r="K147" s="60"/>
       <c r="L147" s="28"/>
       <c r="M147" s="28"/>
       <c r="N147" s="28"/>
@@ -7966,8 +7983,8 @@
       <c r="G148" s="28"/>
       <c r="H148" s="28"/>
       <c r="I148" s="28"/>
-      <c r="J148" s="59"/>
-      <c r="K148" s="59"/>
+      <c r="J148" s="60"/>
+      <c r="K148" s="60"/>
       <c r="L148" s="28"/>
       <c r="M148" s="28"/>
       <c r="N148" s="28"/>
@@ -8011,8 +8028,8 @@
       <c r="G149" s="28"/>
       <c r="H149" s="28"/>
       <c r="I149" s="28"/>
-      <c r="J149" s="59"/>
-      <c r="K149" s="59"/>
+      <c r="J149" s="60"/>
+      <c r="K149" s="60"/>
       <c r="L149" s="28"/>
       <c r="M149" s="28"/>
       <c r="N149" s="28"/>
@@ -8056,8 +8073,8 @@
       <c r="G150" s="28"/>
       <c r="H150" s="28"/>
       <c r="I150" s="28"/>
-      <c r="J150" s="59"/>
-      <c r="K150" s="59"/>
+      <c r="J150" s="60"/>
+      <c r="K150" s="60"/>
       <c r="L150" s="28"/>
       <c r="M150" s="28"/>
       <c r="N150" s="28"/>
@@ -8101,8 +8118,8 @@
       <c r="G151" s="28"/>
       <c r="H151" s="28"/>
       <c r="I151" s="28"/>
-      <c r="J151" s="59"/>
-      <c r="K151" s="59"/>
+      <c r="J151" s="60"/>
+      <c r="K151" s="60"/>
       <c r="L151" s="28"/>
       <c r="M151" s="28"/>
       <c r="N151" s="28"/>
@@ -8146,8 +8163,8 @@
       <c r="G152" s="28"/>
       <c r="H152" s="28"/>
       <c r="I152" s="28"/>
-      <c r="J152" s="59"/>
-      <c r="K152" s="59"/>
+      <c r="J152" s="60"/>
+      <c r="K152" s="60"/>
       <c r="L152" s="28"/>
       <c r="M152" s="28"/>
       <c r="N152" s="28"/>
@@ -8191,8 +8208,8 @@
       <c r="G153" s="28"/>
       <c r="H153" s="28"/>
       <c r="I153" s="28"/>
-      <c r="J153" s="59"/>
-      <c r="K153" s="59"/>
+      <c r="J153" s="60"/>
+      <c r="K153" s="60"/>
       <c r="L153" s="28"/>
       <c r="M153" s="28"/>
       <c r="N153" s="28"/>
@@ -8236,8 +8253,8 @@
       <c r="G154" s="28"/>
       <c r="H154" s="28"/>
       <c r="I154" s="28"/>
-      <c r="J154" s="59"/>
-      <c r="K154" s="59"/>
+      <c r="J154" s="60"/>
+      <c r="K154" s="60"/>
       <c r="L154" s="28"/>
       <c r="M154" s="28"/>
       <c r="N154" s="28"/>
@@ -8281,8 +8298,8 @@
       <c r="G155" s="28"/>
       <c r="H155" s="28"/>
       <c r="I155" s="28"/>
-      <c r="J155" s="59"/>
-      <c r="K155" s="59"/>
+      <c r="J155" s="60"/>
+      <c r="K155" s="60"/>
       <c r="L155" s="28"/>
       <c r="M155" s="28"/>
       <c r="N155" s="28"/>
@@ -8326,8 +8343,8 @@
       <c r="G156" s="28"/>
       <c r="H156" s="28"/>
       <c r="I156" s="28"/>
-      <c r="J156" s="59"/>
-      <c r="K156" s="59"/>
+      <c r="J156" s="60"/>
+      <c r="K156" s="60"/>
       <c r="L156" s="28"/>
       <c r="M156" s="28"/>
       <c r="N156" s="28"/>
@@ -8371,8 +8388,8 @@
       <c r="G157" s="28"/>
       <c r="H157" s="28"/>
       <c r="I157" s="28"/>
-      <c r="J157" s="59"/>
-      <c r="K157" s="59"/>
+      <c r="J157" s="60"/>
+      <c r="K157" s="60"/>
       <c r="L157" s="28"/>
       <c r="M157" s="28"/>
       <c r="N157" s="28"/>
@@ -8416,8 +8433,8 @@
       <c r="G158" s="28"/>
       <c r="H158" s="28"/>
       <c r="I158" s="28"/>
-      <c r="J158" s="59"/>
-      <c r="K158" s="59"/>
+      <c r="J158" s="60"/>
+      <c r="K158" s="60"/>
       <c r="L158" s="28"/>
       <c r="M158" s="28"/>
       <c r="N158" s="28"/>
@@ -8461,8 +8478,8 @@
       <c r="G159" s="28"/>
       <c r="H159" s="28"/>
       <c r="I159" s="28"/>
-      <c r="J159" s="59"/>
-      <c r="K159" s="59"/>
+      <c r="J159" s="60"/>
+      <c r="K159" s="60"/>
       <c r="L159" s="28"/>
       <c r="M159" s="28"/>
       <c r="N159" s="28"/>
@@ -8506,8 +8523,8 @@
       <c r="G160" s="28"/>
       <c r="H160" s="28"/>
       <c r="I160" s="28"/>
-      <c r="J160" s="59"/>
-      <c r="K160" s="59"/>
+      <c r="J160" s="60"/>
+      <c r="K160" s="60"/>
       <c r="L160" s="28"/>
       <c r="M160" s="28"/>
       <c r="N160" s="28"/>
@@ -8551,8 +8568,8 @@
       <c r="G161" s="28"/>
       <c r="H161" s="28"/>
       <c r="I161" s="28"/>
-      <c r="J161" s="59"/>
-      <c r="K161" s="59"/>
+      <c r="J161" s="60"/>
+      <c r="K161" s="60"/>
       <c r="L161" s="28"/>
       <c r="M161" s="28"/>
       <c r="N161" s="28"/>
@@ -8596,8 +8613,8 @@
       <c r="G162" s="28"/>
       <c r="H162" s="28"/>
       <c r="I162" s="28"/>
-      <c r="J162" s="59"/>
-      <c r="K162" s="59"/>
+      <c r="J162" s="60"/>
+      <c r="K162" s="60"/>
       <c r="L162" s="28"/>
       <c r="M162" s="28"/>
       <c r="N162" s="28"/>
@@ -8641,8 +8658,8 @@
       <c r="G163" s="28"/>
       <c r="H163" s="28"/>
       <c r="I163" s="28"/>
-      <c r="J163" s="59"/>
-      <c r="K163" s="59"/>
+      <c r="J163" s="60"/>
+      <c r="K163" s="60"/>
       <c r="L163" s="28"/>
       <c r="M163" s="28"/>
       <c r="N163" s="28"/>
@@ -8686,8 +8703,8 @@
       <c r="G164" s="28"/>
       <c r="H164" s="28"/>
       <c r="I164" s="28"/>
-      <c r="J164" s="59"/>
-      <c r="K164" s="59"/>
+      <c r="J164" s="60"/>
+      <c r="K164" s="60"/>
       <c r="L164" s="28"/>
       <c r="M164" s="28"/>
       <c r="N164" s="28"/>
@@ -8731,8 +8748,8 @@
       <c r="G165" s="28"/>
       <c r="H165" s="28"/>
       <c r="I165" s="28"/>
-      <c r="J165" s="59"/>
-      <c r="K165" s="59"/>
+      <c r="J165" s="60"/>
+      <c r="K165" s="60"/>
       <c r="L165" s="28"/>
       <c r="M165" s="28"/>
       <c r="N165" s="28"/>
@@ -8776,8 +8793,8 @@
       <c r="G166" s="28"/>
       <c r="H166" s="28"/>
       <c r="I166" s="28"/>
-      <c r="J166" s="59"/>
-      <c r="K166" s="59"/>
+      <c r="J166" s="60"/>
+      <c r="K166" s="60"/>
       <c r="L166" s="28"/>
       <c r="M166" s="28"/>
       <c r="N166" s="28"/>
@@ -8821,8 +8838,8 @@
       <c r="G167" s="28"/>
       <c r="H167" s="28"/>
       <c r="I167" s="28"/>
-      <c r="J167" s="59"/>
-      <c r="K167" s="59"/>
+      <c r="J167" s="60"/>
+      <c r="K167" s="60"/>
       <c r="L167" s="28"/>
       <c r="M167" s="28"/>
       <c r="N167" s="28"/>
@@ -8866,8 +8883,8 @@
       <c r="G168" s="28"/>
       <c r="H168" s="28"/>
       <c r="I168" s="28"/>
-      <c r="J168" s="59"/>
-      <c r="K168" s="59"/>
+      <c r="J168" s="60"/>
+      <c r="K168" s="60"/>
       <c r="L168" s="28"/>
       <c r="M168" s="28"/>
       <c r="N168" s="28"/>
@@ -8911,8 +8928,8 @@
       <c r="G169" s="28"/>
       <c r="H169" s="28"/>
       <c r="I169" s="28"/>
-      <c r="J169" s="59"/>
-      <c r="K169" s="59"/>
+      <c r="J169" s="60"/>
+      <c r="K169" s="60"/>
       <c r="L169" s="28"/>
       <c r="M169" s="28"/>
       <c r="N169" s="28"/>
@@ -8956,8 +8973,8 @@
       <c r="G170" s="28"/>
       <c r="H170" s="28"/>
       <c r="I170" s="28"/>
-      <c r="J170" s="59"/>
-      <c r="K170" s="59"/>
+      <c r="J170" s="60"/>
+      <c r="K170" s="60"/>
       <c r="L170" s="28"/>
       <c r="M170" s="28"/>
       <c r="N170" s="28"/>
@@ -9001,8 +9018,8 @@
       <c r="G171" s="28"/>
       <c r="H171" s="28"/>
       <c r="I171" s="28"/>
-      <c r="J171" s="59"/>
-      <c r="K171" s="59"/>
+      <c r="J171" s="60"/>
+      <c r="K171" s="60"/>
       <c r="L171" s="28"/>
       <c r="M171" s="28"/>
       <c r="N171" s="28"/>
@@ -9046,8 +9063,8 @@
       <c r="G172" s="28"/>
       <c r="H172" s="28"/>
       <c r="I172" s="28"/>
-      <c r="J172" s="59"/>
-      <c r="K172" s="59"/>
+      <c r="J172" s="60"/>
+      <c r="K172" s="60"/>
       <c r="L172" s="28"/>
       <c r="M172" s="28"/>
       <c r="N172" s="28"/>
@@ -9091,8 +9108,8 @@
       <c r="G173" s="28"/>
       <c r="H173" s="28"/>
       <c r="I173" s="28"/>
-      <c r="J173" s="59"/>
-      <c r="K173" s="59"/>
+      <c r="J173" s="60"/>
+      <c r="K173" s="60"/>
       <c r="L173" s="28"/>
       <c r="M173" s="28"/>
       <c r="N173" s="28"/>
@@ -9136,8 +9153,8 @@
       <c r="G174" s="28"/>
       <c r="H174" s="28"/>
       <c r="I174" s="28"/>
-      <c r="J174" s="59"/>
-      <c r="K174" s="59"/>
+      <c r="J174" s="60"/>
+      <c r="K174" s="60"/>
       <c r="L174" s="28"/>
       <c r="M174" s="28"/>
       <c r="N174" s="28"/>
@@ -9181,8 +9198,8 @@
       <c r="G175" s="28"/>
       <c r="H175" s="28"/>
       <c r="I175" s="28"/>
-      <c r="J175" s="59"/>
-      <c r="K175" s="59"/>
+      <c r="J175" s="60"/>
+      <c r="K175" s="60"/>
       <c r="L175" s="28"/>
       <c r="M175" s="28"/>
       <c r="N175" s="28"/>
@@ -9226,8 +9243,8 @@
       <c r="G176" s="28"/>
       <c r="H176" s="28"/>
       <c r="I176" s="28"/>
-      <c r="J176" s="59"/>
-      <c r="K176" s="59"/>
+      <c r="J176" s="60"/>
+      <c r="K176" s="60"/>
       <c r="L176" s="28"/>
       <c r="M176" s="28"/>
       <c r="N176" s="28"/>
@@ -9271,8 +9288,8 @@
       <c r="G177" s="28"/>
       <c r="H177" s="28"/>
       <c r="I177" s="28"/>
-      <c r="J177" s="59"/>
-      <c r="K177" s="59"/>
+      <c r="J177" s="60"/>
+      <c r="K177" s="60"/>
       <c r="L177" s="28"/>
       <c r="M177" s="28"/>
       <c r="N177" s="28"/>
@@ -9316,8 +9333,8 @@
       <c r="G178" s="28"/>
       <c r="H178" s="28"/>
       <c r="I178" s="28"/>
-      <c r="J178" s="59"/>
-      <c r="K178" s="59"/>
+      <c r="J178" s="60"/>
+      <c r="K178" s="60"/>
       <c r="L178" s="28"/>
       <c r="M178" s="28"/>
       <c r="N178" s="28"/>
@@ -9361,8 +9378,8 @@
       <c r="G179" s="28"/>
       <c r="H179" s="28"/>
       <c r="I179" s="28"/>
-      <c r="J179" s="59"/>
-      <c r="K179" s="59"/>
+      <c r="J179" s="60"/>
+      <c r="K179" s="60"/>
       <c r="L179" s="28"/>
       <c r="M179" s="28"/>
       <c r="N179" s="28"/>
@@ -9406,8 +9423,8 @@
       <c r="G180" s="28"/>
       <c r="H180" s="28"/>
       <c r="I180" s="28"/>
-      <c r="J180" s="59"/>
-      <c r="K180" s="59"/>
+      <c r="J180" s="60"/>
+      <c r="K180" s="60"/>
       <c r="L180" s="28"/>
       <c r="M180" s="28"/>
       <c r="N180" s="28"/>
@@ -9451,8 +9468,8 @@
       <c r="G181" s="28"/>
       <c r="H181" s="28"/>
       <c r="I181" s="28"/>
-      <c r="J181" s="59"/>
-      <c r="K181" s="59"/>
+      <c r="J181" s="60"/>
+      <c r="K181" s="60"/>
       <c r="L181" s="28"/>
       <c r="M181" s="28"/>
       <c r="N181" s="28"/>
@@ -9496,8 +9513,8 @@
       <c r="G182" s="28"/>
       <c r="H182" s="28"/>
       <c r="I182" s="28"/>
-      <c r="J182" s="59"/>
-      <c r="K182" s="59"/>
+      <c r="J182" s="60"/>
+      <c r="K182" s="60"/>
       <c r="L182" s="28"/>
       <c r="M182" s="28"/>
       <c r="N182" s="28"/>
@@ -9541,8 +9558,8 @@
       <c r="G183" s="28"/>
       <c r="H183" s="28"/>
       <c r="I183" s="28"/>
-      <c r="J183" s="59"/>
-      <c r="K183" s="59"/>
+      <c r="J183" s="60"/>
+      <c r="K183" s="60"/>
       <c r="L183" s="28"/>
       <c r="M183" s="28"/>
       <c r="N183" s="28"/>
@@ -9586,8 +9603,8 @@
       <c r="G184" s="28"/>
       <c r="H184" s="28"/>
       <c r="I184" s="28"/>
-      <c r="J184" s="59"/>
-      <c r="K184" s="59"/>
+      <c r="J184" s="60"/>
+      <c r="K184" s="60"/>
       <c r="L184" s="28"/>
       <c r="M184" s="28"/>
       <c r="N184" s="28"/>
@@ -9631,8 +9648,8 @@
       <c r="G185" s="28"/>
       <c r="H185" s="28"/>
       <c r="I185" s="28"/>
-      <c r="J185" s="59"/>
-      <c r="K185" s="59"/>
+      <c r="J185" s="60"/>
+      <c r="K185" s="60"/>
       <c r="L185" s="28"/>
       <c r="M185" s="28"/>
       <c r="N185" s="28"/>
@@ -9676,8 +9693,8 @@
       <c r="G186" s="28"/>
       <c r="H186" s="28"/>
       <c r="I186" s="28"/>
-      <c r="J186" s="59"/>
-      <c r="K186" s="59"/>
+      <c r="J186" s="60"/>
+      <c r="K186" s="60"/>
       <c r="L186" s="28"/>
       <c r="M186" s="28"/>
       <c r="N186" s="28"/>
@@ -9721,8 +9738,8 @@
       <c r="G187" s="28"/>
       <c r="H187" s="28"/>
       <c r="I187" s="28"/>
-      <c r="J187" s="59"/>
-      <c r="K187" s="59"/>
+      <c r="J187" s="60"/>
+      <c r="K187" s="60"/>
       <c r="L187" s="28"/>
       <c r="M187" s="28"/>
       <c r="N187" s="28"/>
@@ -9766,8 +9783,8 @@
       <c r="G188" s="28"/>
       <c r="H188" s="28"/>
       <c r="I188" s="28"/>
-      <c r="J188" s="59"/>
-      <c r="K188" s="59"/>
+      <c r="J188" s="60"/>
+      <c r="K188" s="60"/>
       <c r="L188" s="28"/>
       <c r="M188" s="28"/>
       <c r="N188" s="28"/>
@@ -9811,8 +9828,8 @@
       <c r="G189" s="28"/>
       <c r="H189" s="28"/>
       <c r="I189" s="28"/>
-      <c r="J189" s="59"/>
-      <c r="K189" s="59"/>
+      <c r="J189" s="60"/>
+      <c r="K189" s="60"/>
       <c r="L189" s="28"/>
       <c r="M189" s="28"/>
       <c r="N189" s="28"/>
@@ -9856,8 +9873,8 @@
       <c r="G190" s="28"/>
       <c r="H190" s="28"/>
       <c r="I190" s="28"/>
-      <c r="J190" s="59"/>
-      <c r="K190" s="59"/>
+      <c r="J190" s="60"/>
+      <c r="K190" s="60"/>
       <c r="L190" s="28"/>
       <c r="M190" s="28"/>
       <c r="N190" s="28"/>
@@ -9901,8 +9918,8 @@
       <c r="G191" s="28"/>
       <c r="H191" s="28"/>
       <c r="I191" s="28"/>
-      <c r="J191" s="59"/>
-      <c r="K191" s="59"/>
+      <c r="J191" s="60"/>
+      <c r="K191" s="60"/>
       <c r="L191" s="28"/>
       <c r="M191" s="28"/>
       <c r="N191" s="28"/>
@@ -9946,8 +9963,8 @@
       <c r="G192" s="28"/>
       <c r="H192" s="28"/>
       <c r="I192" s="28"/>
-      <c r="J192" s="59"/>
-      <c r="K192" s="59"/>
+      <c r="J192" s="60"/>
+      <c r="K192" s="60"/>
       <c r="L192" s="28"/>
       <c r="M192" s="28"/>
       <c r="N192" s="28"/>
@@ -9991,8 +10008,8 @@
       <c r="G193" s="28"/>
       <c r="H193" s="28"/>
       <c r="I193" s="28"/>
-      <c r="J193" s="59"/>
-      <c r="K193" s="59"/>
+      <c r="J193" s="60"/>
+      <c r="K193" s="60"/>
       <c r="L193" s="28"/>
       <c r="M193" s="28"/>
       <c r="N193" s="28"/>
@@ -10036,8 +10053,8 @@
       <c r="G194" s="28"/>
       <c r="H194" s="28"/>
       <c r="I194" s="28"/>
-      <c r="J194" s="59"/>
-      <c r="K194" s="59"/>
+      <c r="J194" s="60"/>
+      <c r="K194" s="60"/>
       <c r="L194" s="28"/>
       <c r="M194" s="28"/>
       <c r="N194" s="28"/>
@@ -10081,8 +10098,8 @@
       <c r="G195" s="28"/>
       <c r="H195" s="28"/>
       <c r="I195" s="28"/>
-      <c r="J195" s="59"/>
-      <c r="K195" s="59"/>
+      <c r="J195" s="60"/>
+      <c r="K195" s="60"/>
       <c r="L195" s="28"/>
       <c r="M195" s="28"/>
       <c r="N195" s="28"/>
@@ -10126,8 +10143,8 @@
       <c r="G196" s="28"/>
       <c r="H196" s="28"/>
       <c r="I196" s="28"/>
-      <c r="J196" s="59"/>
-      <c r="K196" s="59"/>
+      <c r="J196" s="60"/>
+      <c r="K196" s="60"/>
       <c r="L196" s="28"/>
       <c r="M196" s="28"/>
       <c r="N196" s="28"/>
@@ -10171,8 +10188,8 @@
       <c r="G197" s="28"/>
       <c r="H197" s="28"/>
       <c r="I197" s="28"/>
-      <c r="J197" s="59"/>
-      <c r="K197" s="59"/>
+      <c r="J197" s="60"/>
+      <c r="K197" s="60"/>
       <c r="L197" s="28"/>
       <c r="M197" s="28"/>
       <c r="N197" s="28"/>
@@ -10216,8 +10233,8 @@
       <c r="G198" s="28"/>
       <c r="H198" s="28"/>
       <c r="I198" s="28"/>
-      <c r="J198" s="59"/>
-      <c r="K198" s="59"/>
+      <c r="J198" s="60"/>
+      <c r="K198" s="60"/>
       <c r="L198" s="28"/>
       <c r="M198" s="28"/>
       <c r="N198" s="28"/>
@@ -10261,8 +10278,8 @@
       <c r="G199" s="28"/>
       <c r="H199" s="28"/>
       <c r="I199" s="28"/>
-      <c r="J199" s="59"/>
-      <c r="K199" s="59"/>
+      <c r="J199" s="60"/>
+      <c r="K199" s="60"/>
       <c r="L199" s="28"/>
       <c r="M199" s="28"/>
       <c r="N199" s="28"/>
@@ -10306,8 +10323,8 @@
       <c r="G200" s="28"/>
       <c r="H200" s="28"/>
       <c r="I200" s="28"/>
-      <c r="J200" s="59"/>
-      <c r="K200" s="59"/>
+      <c r="J200" s="60"/>
+      <c r="K200" s="60"/>
       <c r="L200" s="28"/>
       <c r="M200" s="28"/>
       <c r="N200" s="28"/>
@@ -10351,8 +10368,8 @@
       <c r="G201" s="28"/>
       <c r="H201" s="28"/>
       <c r="I201" s="28"/>
-      <c r="J201" s="59"/>
-      <c r="K201" s="59"/>
+      <c r="J201" s="60"/>
+      <c r="K201" s="60"/>
       <c r="L201" s="28"/>
       <c r="M201" s="28"/>
       <c r="N201" s="28"/>
@@ -10396,8 +10413,8 @@
       <c r="G202" s="28"/>
       <c r="H202" s="28"/>
       <c r="I202" s="28"/>
-      <c r="J202" s="59"/>
-      <c r="K202" s="59"/>
+      <c r="J202" s="60"/>
+      <c r="K202" s="60"/>
       <c r="L202" s="28"/>
       <c r="M202" s="28"/>
       <c r="N202" s="28"/>
@@ -10441,8 +10458,8 @@
       <c r="G203" s="28"/>
       <c r="H203" s="28"/>
       <c r="I203" s="28"/>
-      <c r="J203" s="59"/>
-      <c r="K203" s="59"/>
+      <c r="J203" s="60"/>
+      <c r="K203" s="60"/>
       <c r="L203" s="28"/>
       <c r="M203" s="28"/>
       <c r="N203" s="28"/>
@@ -10486,8 +10503,8 @@
       <c r="G204" s="28"/>
       <c r="H204" s="28"/>
       <c r="I204" s="28"/>
-      <c r="J204" s="59"/>
-      <c r="K204" s="59"/>
+      <c r="J204" s="60"/>
+      <c r="K204" s="60"/>
       <c r="L204" s="28"/>
       <c r="M204" s="28"/>
       <c r="N204" s="28"/>
@@ -10531,8 +10548,8 @@
       <c r="G205" s="28"/>
       <c r="H205" s="28"/>
       <c r="I205" s="28"/>
-      <c r="J205" s="59"/>
-      <c r="K205" s="59"/>
+      <c r="J205" s="60"/>
+      <c r="K205" s="60"/>
       <c r="L205" s="28"/>
       <c r="M205" s="28"/>
       <c r="N205" s="28"/>
@@ -10576,8 +10593,8 @@
       <c r="G206" s="28"/>
       <c r="H206" s="28"/>
       <c r="I206" s="28"/>
-      <c r="J206" s="59"/>
-      <c r="K206" s="59"/>
+      <c r="J206" s="60"/>
+      <c r="K206" s="60"/>
       <c r="L206" s="28"/>
       <c r="M206" s="28"/>
       <c r="N206" s="28"/>
@@ -10621,8 +10638,8 @@
       <c r="G207" s="28"/>
       <c r="H207" s="28"/>
       <c r="I207" s="28"/>
-      <c r="J207" s="59"/>
-      <c r="K207" s="59"/>
+      <c r="J207" s="60"/>
+      <c r="K207" s="60"/>
       <c r="L207" s="28"/>
       <c r="M207" s="28"/>
       <c r="N207" s="28"/>
@@ -10666,8 +10683,8 @@
       <c r="G208" s="28"/>
       <c r="H208" s="28"/>
       <c r="I208" s="28"/>
-      <c r="J208" s="59"/>
-      <c r="K208" s="59"/>
+      <c r="J208" s="60"/>
+      <c r="K208" s="60"/>
       <c r="L208" s="28"/>
       <c r="M208" s="28"/>
       <c r="N208" s="28"/>
@@ -10711,8 +10728,8 @@
       <c r="G209" s="28"/>
       <c r="H209" s="28"/>
       <c r="I209" s="28"/>
-      <c r="J209" s="59"/>
-      <c r="K209" s="59"/>
+      <c r="J209" s="60"/>
+      <c r="K209" s="60"/>
       <c r="L209" s="28"/>
       <c r="M209" s="28"/>
       <c r="N209" s="28"/>
@@ -10756,8 +10773,8 @@
       <c r="G210" s="28"/>
       <c r="H210" s="28"/>
       <c r="I210" s="28"/>
-      <c r="J210" s="59"/>
-      <c r="K210" s="59"/>
+      <c r="J210" s="60"/>
+      <c r="K210" s="60"/>
       <c r="L210" s="28"/>
       <c r="M210" s="28"/>
       <c r="N210" s="28"/>
@@ -10801,8 +10818,8 @@
       <c r="G211" s="28"/>
       <c r="H211" s="28"/>
       <c r="I211" s="28"/>
-      <c r="J211" s="59"/>
-      <c r="K211" s="59"/>
+      <c r="J211" s="60"/>
+      <c r="K211" s="60"/>
       <c r="L211" s="28"/>
       <c r="M211" s="28"/>
       <c r="N211" s="28"/>
@@ -10846,8 +10863,8 @@
       <c r="G212" s="28"/>
       <c r="H212" s="28"/>
       <c r="I212" s="28"/>
-      <c r="J212" s="59"/>
-      <c r="K212" s="59"/>
+      <c r="J212" s="60"/>
+      <c r="K212" s="60"/>
       <c r="L212" s="28"/>
       <c r="M212" s="28"/>
       <c r="N212" s="28"/>
@@ -10891,8 +10908,8 @@
       <c r="G213" s="28"/>
       <c r="H213" s="28"/>
       <c r="I213" s="28"/>
-      <c r="J213" s="59"/>
-      <c r="K213" s="59"/>
+      <c r="J213" s="60"/>
+      <c r="K213" s="60"/>
       <c r="L213" s="28"/>
       <c r="M213" s="28"/>
       <c r="N213" s="28"/>
@@ -10936,8 +10953,8 @@
       <c r="G214" s="28"/>
       <c r="H214" s="28"/>
       <c r="I214" s="28"/>
-      <c r="J214" s="59"/>
-      <c r="K214" s="59"/>
+      <c r="J214" s="60"/>
+      <c r="K214" s="60"/>
       <c r="L214" s="28"/>
       <c r="M214" s="28"/>
       <c r="N214" s="28"/>
@@ -10981,8 +10998,8 @@
       <c r="G215" s="28"/>
       <c r="H215" s="28"/>
       <c r="I215" s="28"/>
-      <c r="J215" s="59"/>
-      <c r="K215" s="59"/>
+      <c r="J215" s="60"/>
+      <c r="K215" s="60"/>
       <c r="L215" s="28"/>
       <c r="M215" s="28"/>
       <c r="N215" s="28"/>
@@ -11026,8 +11043,8 @@
       <c r="G216" s="28"/>
       <c r="H216" s="28"/>
       <c r="I216" s="28"/>
-      <c r="J216" s="59"/>
-      <c r="K216" s="59"/>
+      <c r="J216" s="60"/>
+      <c r="K216" s="60"/>
       <c r="L216" s="28"/>
       <c r="M216" s="28"/>
       <c r="N216" s="28"/>
@@ -11071,8 +11088,8 @@
       <c r="G217" s="28"/>
       <c r="H217" s="28"/>
       <c r="I217" s="28"/>
-      <c r="J217" s="59"/>
-      <c r="K217" s="59"/>
+      <c r="J217" s="60"/>
+      <c r="K217" s="60"/>
       <c r="L217" s="28"/>
       <c r="M217" s="28"/>
       <c r="N217" s="28"/>
@@ -11116,8 +11133,8 @@
       <c r="G218" s="28"/>
       <c r="H218" s="28"/>
       <c r="I218" s="28"/>
-      <c r="J218" s="59"/>
-      <c r="K218" s="59"/>
+      <c r="J218" s="60"/>
+      <c r="K218" s="60"/>
       <c r="L218" s="28"/>
       <c r="M218" s="28"/>
       <c r="N218" s="28"/>
@@ -11161,8 +11178,8 @@
       <c r="G219" s="28"/>
       <c r="H219" s="28"/>
       <c r="I219" s="28"/>
-      <c r="J219" s="59"/>
-      <c r="K219" s="59"/>
+      <c r="J219" s="60"/>
+      <c r="K219" s="60"/>
       <c r="L219" s="28"/>
       <c r="M219" s="28"/>
       <c r="N219" s="28"/>
@@ -11206,8 +11223,8 @@
       <c r="G220" s="28"/>
       <c r="H220" s="28"/>
       <c r="I220" s="28"/>
-      <c r="J220" s="59"/>
-      <c r="K220" s="59"/>
+      <c r="J220" s="60"/>
+      <c r="K220" s="60"/>
       <c r="L220" s="28"/>
       <c r="M220" s="28"/>
       <c r="N220" s="28"/>
@@ -11251,8 +11268,8 @@
       <c r="G221" s="28"/>
       <c r="H221" s="28"/>
       <c r="I221" s="28"/>
-      <c r="J221" s="59"/>
-      <c r="K221" s="59"/>
+      <c r="J221" s="60"/>
+      <c r="K221" s="60"/>
       <c r="L221" s="28"/>
       <c r="M221" s="28"/>
       <c r="N221" s="28"/>
@@ -11296,8 +11313,8 @@
       <c r="G222" s="28"/>
       <c r="H222" s="28"/>
       <c r="I222" s="28"/>
-      <c r="J222" s="59"/>
-      <c r="K222" s="59"/>
+      <c r="J222" s="60"/>
+      <c r="K222" s="60"/>
       <c r="L222" s="28"/>
       <c r="M222" s="28"/>
       <c r="N222" s="28"/>
@@ -11341,8 +11358,8 @@
       <c r="G223" s="28"/>
       <c r="H223" s="28"/>
       <c r="I223" s="28"/>
-      <c r="J223" s="59"/>
-      <c r="K223" s="59"/>
+      <c r="J223" s="60"/>
+      <c r="K223" s="60"/>
       <c r="L223" s="28"/>
       <c r="M223" s="28"/>
       <c r="N223" s="28"/>
@@ -11386,8 +11403,8 @@
       <c r="G224" s="28"/>
       <c r="H224" s="28"/>
       <c r="I224" s="28"/>
-      <c r="J224" s="59"/>
-      <c r="K224" s="59"/>
+      <c r="J224" s="60"/>
+      <c r="K224" s="60"/>
       <c r="L224" s="28"/>
       <c r="M224" s="28"/>
       <c r="N224" s="28"/>
@@ -11431,8 +11448,8 @@
       <c r="G225" s="28"/>
       <c r="H225" s="28"/>
       <c r="I225" s="28"/>
-      <c r="J225" s="59"/>
-      <c r="K225" s="59"/>
+      <c r="J225" s="60"/>
+      <c r="K225" s="60"/>
       <c r="L225" s="28"/>
       <c r="M225" s="28"/>
       <c r="N225" s="28"/>
@@ -11476,8 +11493,8 @@
       <c r="G226" s="28"/>
       <c r="H226" s="28"/>
       <c r="I226" s="28"/>
-      <c r="J226" s="59"/>
-      <c r="K226" s="59"/>
+      <c r="J226" s="60"/>
+      <c r="K226" s="60"/>
       <c r="L226" s="28"/>
       <c r="M226" s="28"/>
       <c r="N226" s="28"/>
@@ -11521,8 +11538,8 @@
       <c r="G227" s="28"/>
       <c r="H227" s="28"/>
       <c r="I227" s="28"/>
-      <c r="J227" s="59"/>
-      <c r="K227" s="59"/>
+      <c r="J227" s="60"/>
+      <c r="K227" s="60"/>
       <c r="L227" s="28"/>
       <c r="M227" s="28"/>
       <c r="N227" s="28"/>
@@ -11566,8 +11583,8 @@
       <c r="G228" s="28"/>
       <c r="H228" s="28"/>
       <c r="I228" s="28"/>
-      <c r="J228" s="59"/>
-      <c r="K228" s="59"/>
+      <c r="J228" s="60"/>
+      <c r="K228" s="60"/>
       <c r="L228" s="28"/>
       <c r="M228" s="28"/>
       <c r="N228" s="28"/>
@@ -11611,8 +11628,8 @@
       <c r="G229" s="28"/>
       <c r="H229" s="28"/>
       <c r="I229" s="28"/>
-      <c r="J229" s="59"/>
-      <c r="K229" s="59"/>
+      <c r="J229" s="60"/>
+      <c r="K229" s="60"/>
       <c r="L229" s="28"/>
       <c r="M229" s="28"/>
       <c r="N229" s="28"/>
@@ -11656,8 +11673,8 @@
       <c r="G230" s="28"/>
       <c r="H230" s="28"/>
       <c r="I230" s="28"/>
-      <c r="J230" s="59"/>
-      <c r="K230" s="59"/>
+      <c r="J230" s="60"/>
+      <c r="K230" s="60"/>
       <c r="L230" s="28"/>
       <c r="M230" s="28"/>
       <c r="N230" s="28"/>
@@ -11701,8 +11718,8 @@
       <c r="G231" s="28"/>
       <c r="H231" s="28"/>
       <c r="I231" s="28"/>
-      <c r="J231" s="59"/>
-      <c r="K231" s="59"/>
+      <c r="J231" s="60"/>
+      <c r="K231" s="60"/>
       <c r="L231" s="28"/>
       <c r="M231" s="28"/>
       <c r="N231" s="28"/>
@@ -11746,8 +11763,8 @@
       <c r="G232" s="28"/>
       <c r="H232" s="28"/>
       <c r="I232" s="28"/>
-      <c r="J232" s="59"/>
-      <c r="K232" s="59"/>
+      <c r="J232" s="60"/>
+      <c r="K232" s="60"/>
       <c r="L232" s="28"/>
       <c r="M232" s="28"/>
       <c r="N232" s="28"/>
@@ -11791,8 +11808,8 @@
       <c r="G233" s="28"/>
       <c r="H233" s="28"/>
       <c r="I233" s="28"/>
-      <c r="J233" s="59"/>
-      <c r="K233" s="59"/>
+      <c r="J233" s="60"/>
+      <c r="K233" s="60"/>
       <c r="L233" s="28"/>
       <c r="M233" s="28"/>
       <c r="N233" s="28"/>
@@ -11836,8 +11853,8 @@
       <c r="G234" s="28"/>
       <c r="H234" s="28"/>
       <c r="I234" s="28"/>
-      <c r="J234" s="59"/>
-      <c r="K234" s="59"/>
+      <c r="J234" s="60"/>
+      <c r="K234" s="60"/>
       <c r="L234" s="28"/>
       <c r="M234" s="28"/>
       <c r="N234" s="28"/>
@@ -11881,8 +11898,8 @@
       <c r="G235" s="28"/>
       <c r="H235" s="28"/>
       <c r="I235" s="28"/>
-      <c r="J235" s="59"/>
-      <c r="K235" s="59"/>
+      <c r="J235" s="60"/>
+      <c r="K235" s="60"/>
       <c r="L235" s="28"/>
       <c r="M235" s="28"/>
       <c r="N235" s="28"/>
@@ -11926,8 +11943,8 @@
       <c r="G236" s="28"/>
       <c r="H236" s="28"/>
       <c r="I236" s="28"/>
-      <c r="J236" s="59"/>
-      <c r="K236" s="59"/>
+      <c r="J236" s="60"/>
+      <c r="K236" s="60"/>
       <c r="L236" s="28"/>
       <c r="M236" s="28"/>
       <c r="N236" s="28"/>
@@ -11971,8 +11988,8 @@
       <c r="G237" s="28"/>
       <c r="H237" s="28"/>
       <c r="I237" s="28"/>
-      <c r="J237" s="59"/>
-      <c r="K237" s="59"/>
+      <c r="J237" s="60"/>
+      <c r="K237" s="60"/>
       <c r="L237" s="28"/>
       <c r="M237" s="28"/>
       <c r="N237" s="28"/>
@@ -12016,8 +12033,8 @@
       <c r="G238" s="28"/>
       <c r="H238" s="28"/>
       <c r="I238" s="28"/>
-      <c r="J238" s="59"/>
-      <c r="K238" s="59"/>
+      <c r="J238" s="60"/>
+      <c r="K238" s="60"/>
       <c r="L238" s="28"/>
       <c r="M238" s="28"/>
       <c r="N238" s="28"/>
@@ -12061,8 +12078,8 @@
       <c r="G239" s="28"/>
       <c r="H239" s="28"/>
       <c r="I239" s="28"/>
-      <c r="J239" s="59"/>
-      <c r="K239" s="59"/>
+      <c r="J239" s="60"/>
+      <c r="K239" s="60"/>
       <c r="L239" s="28"/>
       <c r="M239" s="28"/>
       <c r="N239" s="28"/>
@@ -12106,8 +12123,8 @@
       <c r="G240" s="28"/>
       <c r="H240" s="28"/>
       <c r="I240" s="28"/>
-      <c r="J240" s="59"/>
-      <c r="K240" s="59"/>
+      <c r="J240" s="60"/>
+      <c r="K240" s="60"/>
       <c r="L240" s="28"/>
       <c r="M240" s="28"/>
       <c r="N240" s="28"/>
@@ -12151,8 +12168,8 @@
       <c r="G241" s="28"/>
       <c r="H241" s="28"/>
       <c r="I241" s="28"/>
-      <c r="J241" s="59"/>
-      <c r="K241" s="59"/>
+      <c r="J241" s="60"/>
+      <c r="K241" s="60"/>
       <c r="L241" s="28"/>
       <c r="M241" s="28"/>
       <c r="N241" s="28"/>
@@ -12196,8 +12213,8 @@
       <c r="G242" s="28"/>
       <c r="H242" s="28"/>
       <c r="I242" s="28"/>
-      <c r="J242" s="59"/>
-      <c r="K242" s="59"/>
+      <c r="J242" s="60"/>
+      <c r="K242" s="60"/>
       <c r="L242" s="28"/>
       <c r="M242" s="28"/>
       <c r="N242" s="28"/>
@@ -12241,8 +12258,8 @@
       <c r="G243" s="28"/>
       <c r="H243" s="28"/>
       <c r="I243" s="28"/>
-      <c r="J243" s="59"/>
-      <c r="K243" s="59"/>
+      <c r="J243" s="60"/>
+      <c r="K243" s="60"/>
       <c r="L243" s="28"/>
       <c r="M243" s="28"/>
       <c r="N243" s="28"/>
@@ -12286,8 +12303,8 @@
       <c r="G244" s="28"/>
       <c r="H244" s="28"/>
       <c r="I244" s="28"/>
-      <c r="J244" s="59"/>
-      <c r="K244" s="59"/>
+      <c r="J244" s="60"/>
+      <c r="K244" s="60"/>
       <c r="L244" s="28"/>
       <c r="M244" s="28"/>
       <c r="N244" s="28"/>
@@ -12331,8 +12348,8 @@
       <c r="G245" s="28"/>
       <c r="H245" s="28"/>
       <c r="I245" s="28"/>
-      <c r="J245" s="59"/>
-      <c r="K245" s="59"/>
+      <c r="J245" s="60"/>
+      <c r="K245" s="60"/>
       <c r="L245" s="28"/>
       <c r="M245" s="28"/>
       <c r="N245" s="28"/>
@@ -12376,8 +12393,8 @@
       <c r="G246" s="28"/>
       <c r="H246" s="28"/>
       <c r="I246" s="28"/>
-      <c r="J246" s="59"/>
-      <c r="K246" s="59"/>
+      <c r="J246" s="60"/>
+      <c r="K246" s="60"/>
       <c r="L246" s="28"/>
       <c r="M246" s="28"/>
       <c r="N246" s="28"/>
@@ -12421,8 +12438,8 @@
       <c r="G247" s="28"/>
       <c r="H247" s="28"/>
       <c r="I247" s="28"/>
-      <c r="J247" s="59"/>
-      <c r="K247" s="59"/>
+      <c r="J247" s="60"/>
+      <c r="K247" s="60"/>
       <c r="L247" s="28"/>
       <c r="M247" s="28"/>
       <c r="N247" s="28"/>
@@ -12466,8 +12483,8 @@
       <c r="G248" s="28"/>
       <c r="H248" s="28"/>
       <c r="I248" s="28"/>
-      <c r="J248" s="59"/>
-      <c r="K248" s="59"/>
+      <c r="J248" s="60"/>
+      <c r="K248" s="60"/>
       <c r="L248" s="28"/>
       <c r="M248" s="28"/>
       <c r="N248" s="28"/>
@@ -12511,8 +12528,8 @@
       <c r="G249" s="28"/>
       <c r="H249" s="28"/>
       <c r="I249" s="28"/>
-      <c r="J249" s="59"/>
-      <c r="K249" s="59"/>
+      <c r="J249" s="60"/>
+      <c r="K249" s="60"/>
       <c r="L249" s="28"/>
       <c r="M249" s="28"/>
       <c r="N249" s="28"/>
@@ -12556,8 +12573,8 @@
       <c r="G250" s="28"/>
       <c r="H250" s="28"/>
       <c r="I250" s="28"/>
-      <c r="J250" s="59"/>
-      <c r="K250" s="59"/>
+      <c r="J250" s="60"/>
+      <c r="K250" s="60"/>
       <c r="L250" s="28"/>
       <c r="M250" s="28"/>
       <c r="N250" s="28"/>
@@ -12601,8 +12618,8 @@
       <c r="G251" s="28"/>
       <c r="H251" s="28"/>
       <c r="I251" s="28"/>
-      <c r="J251" s="59"/>
-      <c r="K251" s="59"/>
+      <c r="J251" s="60"/>
+      <c r="K251" s="60"/>
       <c r="L251" s="28"/>
       <c r="M251" s="28"/>
       <c r="N251" s="28"/>
@@ -12646,8 +12663,8 @@
       <c r="G252" s="28"/>
       <c r="H252" s="28"/>
       <c r="I252" s="28"/>
-      <c r="J252" s="59"/>
-      <c r="K252" s="59"/>
+      <c r="J252" s="60"/>
+      <c r="K252" s="60"/>
       <c r="L252" s="28"/>
       <c r="M252" s="28"/>
       <c r="N252" s="28"/>
@@ -12691,8 +12708,8 @@
       <c r="G253" s="28"/>
       <c r="H253" s="28"/>
       <c r="I253" s="28"/>
-      <c r="J253" s="59"/>
-      <c r="K253" s="59"/>
+      <c r="J253" s="60"/>
+      <c r="K253" s="60"/>
       <c r="L253" s="28"/>
       <c r="M253" s="28"/>
       <c r="N253" s="28"/>
@@ -12736,8 +12753,8 @@
       <c r="G254" s="28"/>
       <c r="H254" s="28"/>
       <c r="I254" s="28"/>
-      <c r="J254" s="59"/>
-      <c r="K254" s="59"/>
+      <c r="J254" s="60"/>
+      <c r="K254" s="60"/>
       <c r="L254" s="28"/>
       <c r="M254" s="28"/>
       <c r="N254" s="28"/>
@@ -12781,8 +12798,8 @@
       <c r="G255" s="28"/>
       <c r="H255" s="28"/>
       <c r="I255" s="28"/>
-      <c r="J255" s="59"/>
-      <c r="K255" s="59"/>
+      <c r="J255" s="60"/>
+      <c r="K255" s="60"/>
       <c r="L255" s="28"/>
       <c r="M255" s="28"/>
       <c r="N255" s="28"/>
@@ -12826,8 +12843,8 @@
       <c r="G256" s="28"/>
       <c r="H256" s="28"/>
       <c r="I256" s="28"/>
-      <c r="J256" s="59"/>
-      <c r="K256" s="59"/>
+      <c r="J256" s="60"/>
+      <c r="K256" s="60"/>
       <c r="L256" s="28"/>
       <c r="M256" s="28"/>
       <c r="N256" s="28"/>
@@ -12871,8 +12888,8 @@
       <c r="G257" s="28"/>
       <c r="H257" s="28"/>
       <c r="I257" s="28"/>
-      <c r="J257" s="59"/>
-      <c r="K257" s="59"/>
+      <c r="J257" s="60"/>
+      <c r="K257" s="60"/>
       <c r="L257" s="28"/>
       <c r="M257" s="28"/>
       <c r="N257" s="28"/>
@@ -12916,8 +12933,8 @@
       <c r="G258" s="28"/>
       <c r="H258" s="28"/>
       <c r="I258" s="28"/>
-      <c r="J258" s="59"/>
-      <c r="K258" s="59"/>
+      <c r="J258" s="60"/>
+      <c r="K258" s="60"/>
       <c r="L258" s="28"/>
       <c r="M258" s="28"/>
       <c r="N258" s="28"/>
@@ -12961,8 +12978,8 @@
       <c r="G259" s="28"/>
       <c r="H259" s="28"/>
       <c r="I259" s="28"/>
-      <c r="J259" s="59"/>
-      <c r="K259" s="59"/>
+      <c r="J259" s="60"/>
+      <c r="K259" s="60"/>
       <c r="L259" s="28"/>
       <c r="M259" s="28"/>
       <c r="N259" s="28"/>
@@ -13006,8 +13023,8 @@
       <c r="G260" s="28"/>
       <c r="H260" s="28"/>
       <c r="I260" s="28"/>
-      <c r="J260" s="59"/>
-      <c r="K260" s="59"/>
+      <c r="J260" s="60"/>
+      <c r="K260" s="60"/>
       <c r="L260" s="28"/>
       <c r="M260" s="28"/>
       <c r="N260" s="28"/>
@@ -13051,8 +13068,8 @@
       <c r="G261" s="28"/>
       <c r="H261" s="28"/>
       <c r="I261" s="28"/>
-      <c r="J261" s="59"/>
-      <c r="K261" s="59"/>
+      <c r="J261" s="60"/>
+      <c r="K261" s="60"/>
       <c r="L261" s="28"/>
       <c r="M261" s="28"/>
       <c r="N261" s="28"/>
@@ -13096,8 +13113,8 @@
       <c r="G262" s="28"/>
       <c r="H262" s="28"/>
       <c r="I262" s="28"/>
-      <c r="J262" s="59"/>
-      <c r="K262" s="59"/>
+      <c r="J262" s="60"/>
+      <c r="K262" s="60"/>
       <c r="L262" s="28"/>
       <c r="M262" s="28"/>
       <c r="N262" s="28"/>
@@ -13141,8 +13158,8 @@
       <c r="G263" s="28"/>
       <c r="H263" s="28"/>
       <c r="I263" s="28"/>
-      <c r="J263" s="59"/>
-      <c r="K263" s="59"/>
+      <c r="J263" s="60"/>
+      <c r="K263" s="60"/>
       <c r="L263" s="28"/>
       <c r="M263" s="28"/>
       <c r="N263" s="28"/>
@@ -13186,8 +13203,8 @@
       <c r="G264" s="28"/>
       <c r="H264" s="28"/>
       <c r="I264" s="28"/>
-      <c r="J264" s="59"/>
-      <c r="K264" s="59"/>
+      <c r="J264" s="60"/>
+      <c r="K264" s="60"/>
       <c r="L264" s="28"/>
       <c r="M264" s="28"/>
       <c r="N264" s="28"/>
@@ -13231,8 +13248,8 @@
       <c r="G265" s="28"/>
       <c r="H265" s="28"/>
       <c r="I265" s="28"/>
-      <c r="J265" s="59"/>
-      <c r="K265" s="59"/>
+      <c r="J265" s="60"/>
+      <c r="K265" s="60"/>
       <c r="L265" s="28"/>
       <c r="M265" s="28"/>
       <c r="N265" s="28"/>
@@ -13276,8 +13293,8 @@
       <c r="G266" s="28"/>
       <c r="H266" s="28"/>
       <c r="I266" s="28"/>
-      <c r="J266" s="59"/>
-      <c r="K266" s="59"/>
+      <c r="J266" s="60"/>
+      <c r="K266" s="60"/>
       <c r="L266" s="28"/>
       <c r="M266" s="28"/>
       <c r="N266" s="28"/>
@@ -13321,8 +13338,8 @@
       <c r="G267" s="28"/>
       <c r="H267" s="28"/>
       <c r="I267" s="28"/>
-      <c r="J267" s="59"/>
-      <c r="K267" s="59"/>
+      <c r="J267" s="60"/>
+      <c r="K267" s="60"/>
       <c r="L267" s="28"/>
       <c r="M267" s="28"/>
       <c r="N267" s="28"/>
@@ -13366,8 +13383,8 @@
       <c r="G268" s="28"/>
       <c r="H268" s="28"/>
       <c r="I268" s="28"/>
-      <c r="J268" s="59"/>
-      <c r="K268" s="59"/>
+      <c r="J268" s="60"/>
+      <c r="K268" s="60"/>
       <c r="L268" s="28"/>
       <c r="M268" s="28"/>
       <c r="N268" s="28"/>
@@ -13411,8 +13428,8 @@
       <c r="G269" s="28"/>
       <c r="H269" s="28"/>
       <c r="I269" s="28"/>
-      <c r="J269" s="59"/>
-      <c r="K269" s="59"/>
+      <c r="J269" s="60"/>
+      <c r="K269" s="60"/>
       <c r="L269" s="28"/>
       <c r="M269" s="28"/>
       <c r="N269" s="28"/>
@@ -13456,8 +13473,8 @@
       <c r="G270" s="28"/>
       <c r="H270" s="28"/>
       <c r="I270" s="28"/>
-      <c r="J270" s="59"/>
-      <c r="K270" s="59"/>
+      <c r="J270" s="60"/>
+      <c r="K270" s="60"/>
       <c r="L270" s="28"/>
       <c r="M270" s="28"/>
       <c r="N270" s="28"/>
@@ -13501,8 +13518,8 @@
       <c r="G271" s="28"/>
       <c r="H271" s="28"/>
       <c r="I271" s="28"/>
-      <c r="J271" s="59"/>
-      <c r="K271" s="59"/>
+      <c r="J271" s="60"/>
+      <c r="K271" s="60"/>
       <c r="L271" s="28"/>
       <c r="M271" s="28"/>
       <c r="N271" s="28"/>
@@ -13546,8 +13563,8 @@
       <c r="G272" s="28"/>
       <c r="H272" s="28"/>
       <c r="I272" s="28"/>
-      <c r="J272" s="59"/>
-      <c r="K272" s="59"/>
+      <c r="J272" s="60"/>
+      <c r="K272" s="60"/>
       <c r="L272" s="28"/>
       <c r="M272" s="28"/>
       <c r="N272" s="28"/>
@@ -13591,8 +13608,8 @@
       <c r="G273" s="28"/>
       <c r="H273" s="28"/>
       <c r="I273" s="28"/>
-      <c r="J273" s="59"/>
-      <c r="K273" s="59"/>
+      <c r="J273" s="60"/>
+      <c r="K273" s="60"/>
       <c r="L273" s="28"/>
       <c r="M273" s="28"/>
       <c r="N273" s="28"/>
@@ -13636,8 +13653,8 @@
       <c r="G274" s="28"/>
       <c r="H274" s="28"/>
       <c r="I274" s="28"/>
-      <c r="J274" s="59"/>
-      <c r="K274" s="59"/>
+      <c r="J274" s="60"/>
+      <c r="K274" s="60"/>
       <c r="L274" s="28"/>
       <c r="M274" s="28"/>
       <c r="N274" s="28"/>
@@ -13681,8 +13698,8 @@
       <c r="G275" s="28"/>
       <c r="H275" s="28"/>
       <c r="I275" s="28"/>
-      <c r="J275" s="59"/>
-      <c r="K275" s="59"/>
+      <c r="J275" s="60"/>
+      <c r="K275" s="60"/>
       <c r="L275" s="28"/>
       <c r="M275" s="28"/>
       <c r="N275" s="28"/>
@@ -13726,8 +13743,8 @@
       <c r="G276" s="28"/>
       <c r="H276" s="28"/>
       <c r="I276" s="28"/>
-      <c r="J276" s="59"/>
-      <c r="K276" s="59"/>
+      <c r="J276" s="60"/>
+      <c r="K276" s="60"/>
       <c r="L276" s="28"/>
       <c r="M276" s="28"/>
       <c r="N276" s="28"/>
@@ -13771,8 +13788,8 @@
       <c r="G277" s="28"/>
       <c r="H277" s="28"/>
       <c r="I277" s="28"/>
-      <c r="J277" s="59"/>
-      <c r="K277" s="59"/>
+      <c r="J277" s="60"/>
+      <c r="K277" s="60"/>
       <c r="L277" s="28"/>
       <c r="M277" s="28"/>
       <c r="N277" s="28"/>
@@ -13816,8 +13833,8 @@
       <c r="G278" s="28"/>
       <c r="H278" s="28"/>
       <c r="I278" s="28"/>
-      <c r="J278" s="59"/>
-      <c r="K278" s="59"/>
+      <c r="J278" s="60"/>
+      <c r="K278" s="60"/>
       <c r="L278" s="28"/>
       <c r="M278" s="28"/>
       <c r="N278" s="28"/>
@@ -13861,8 +13878,8 @@
       <c r="G279" s="28"/>
       <c r="H279" s="28"/>
       <c r="I279" s="28"/>
-      <c r="J279" s="59"/>
-      <c r="K279" s="59"/>
+      <c r="J279" s="60"/>
+      <c r="K279" s="60"/>
       <c r="L279" s="28"/>
       <c r="M279" s="28"/>
       <c r="N279" s="28"/>
@@ -13906,8 +13923,8 @@
       <c r="G280" s="28"/>
       <c r="H280" s="28"/>
       <c r="I280" s="28"/>
-      <c r="J280" s="59"/>
-      <c r="K280" s="59"/>
+      <c r="J280" s="60"/>
+      <c r="K280" s="60"/>
       <c r="L280" s="28"/>
       <c r="M280" s="28"/>
       <c r="N280" s="28"/>
@@ -13951,8 +13968,8 @@
       <c r="G281" s="28"/>
       <c r="H281" s="28"/>
       <c r="I281" s="28"/>
-      <c r="J281" s="59"/>
-      <c r="K281" s="59"/>
+      <c r="J281" s="60"/>
+      <c r="K281" s="60"/>
       <c r="L281" s="28"/>
       <c r="M281" s="28"/>
       <c r="N281" s="28"/>
@@ -13996,8 +14013,8 @@
       <c r="G282" s="28"/>
       <c r="H282" s="28"/>
       <c r="I282" s="28"/>
-      <c r="J282" s="59"/>
-      <c r="K282" s="59"/>
+      <c r="J282" s="60"/>
+      <c r="K282" s="60"/>
       <c r="L282" s="28"/>
       <c r="M282" s="28"/>
       <c r="N282" s="28"/>
@@ -14041,8 +14058,8 @@
       <c r="G283" s="28"/>
       <c r="H283" s="28"/>
       <c r="I283" s="28"/>
-      <c r="J283" s="59"/>
-      <c r="K283" s="59"/>
+      <c r="J283" s="60"/>
+      <c r="K283" s="60"/>
       <c r="L283" s="28"/>
       <c r="M283" s="28"/>
       <c r="N283" s="28"/>
@@ -14086,8 +14103,8 @@
       <c r="G284" s="28"/>
       <c r="H284" s="28"/>
       <c r="I284" s="28"/>
-      <c r="J284" s="59"/>
-      <c r="K284" s="59"/>
+      <c r="J284" s="60"/>
+      <c r="K284" s="60"/>
       <c r="L284" s="28"/>
       <c r="M284" s="28"/>
       <c r="N284" s="28"/>
@@ -14131,8 +14148,8 @@
       <c r="G285" s="28"/>
       <c r="H285" s="28"/>
       <c r="I285" s="28"/>
-      <c r="J285" s="59"/>
-      <c r="K285" s="59"/>
+      <c r="J285" s="60"/>
+      <c r="K285" s="60"/>
       <c r="L285" s="28"/>
       <c r="M285" s="28"/>
       <c r="N285" s="28"/>
@@ -14176,8 +14193,8 @@
       <c r="G286" s="28"/>
       <c r="H286" s="28"/>
       <c r="I286" s="28"/>
-      <c r="J286" s="59"/>
-      <c r="K286" s="59"/>
+      <c r="J286" s="60"/>
+      <c r="K286" s="60"/>
       <c r="L286" s="28"/>
       <c r="M286" s="28"/>
       <c r="N286" s="28"/>
@@ -14221,8 +14238,8 @@
       <c r="G287" s="28"/>
       <c r="H287" s="28"/>
       <c r="I287" s="28"/>
-      <c r="J287" s="59"/>
-      <c r="K287" s="59"/>
+      <c r="J287" s="60"/>
+      <c r="K287" s="60"/>
       <c r="L287" s="28"/>
       <c r="M287" s="28"/>
       <c r="N287" s="28"/>
@@ -14266,8 +14283,8 @@
       <c r="G288" s="28"/>
       <c r="H288" s="28"/>
       <c r="I288" s="28"/>
-      <c r="J288" s="59"/>
-      <c r="K288" s="59"/>
+      <c r="J288" s="60"/>
+      <c r="K288" s="60"/>
       <c r="L288" s="28"/>
       <c r="M288" s="28"/>
       <c r="N288" s="28"/>
@@ -14311,8 +14328,8 @@
       <c r="G289" s="28"/>
       <c r="H289" s="28"/>
       <c r="I289" s="28"/>
-      <c r="J289" s="59"/>
-      <c r="K289" s="59"/>
+      <c r="J289" s="60"/>
+      <c r="K289" s="60"/>
       <c r="L289" s="28"/>
       <c r="M289" s="28"/>
       <c r="N289" s="28"/>
@@ -14356,8 +14373,8 @@
       <c r="G290" s="28"/>
       <c r="H290" s="28"/>
       <c r="I290" s="28"/>
-      <c r="J290" s="59"/>
-      <c r="K290" s="59"/>
+      <c r="J290" s="60"/>
+      <c r="K290" s="60"/>
       <c r="L290" s="28"/>
       <c r="M290" s="28"/>
       <c r="N290" s="28"/>
@@ -14401,8 +14418,8 @@
       <c r="G291" s="28"/>
       <c r="H291" s="28"/>
       <c r="I291" s="28"/>
-      <c r="J291" s="59"/>
-      <c r="K291" s="59"/>
+      <c r="J291" s="60"/>
+      <c r="K291" s="60"/>
       <c r="L291" s="28"/>
       <c r="M291" s="28"/>
       <c r="N291" s="28"/>
@@ -14446,8 +14463,8 @@
       <c r="G292" s="28"/>
       <c r="H292" s="28"/>
       <c r="I292" s="28"/>
-      <c r="J292" s="59"/>
-      <c r="K292" s="59"/>
+      <c r="J292" s="60"/>
+      <c r="K292" s="60"/>
       <c r="L292" s="28"/>
       <c r="M292" s="28"/>
       <c r="N292" s="28"/>
@@ -14491,8 +14508,8 @@
       <c r="G293" s="28"/>
       <c r="H293" s="28"/>
       <c r="I293" s="28"/>
-      <c r="J293" s="59"/>
-      <c r="K293" s="59"/>
+      <c r="J293" s="60"/>
+      <c r="K293" s="60"/>
       <c r="L293" s="28"/>
       <c r="M293" s="28"/>
       <c r="N293" s="28"/>
@@ -14536,8 +14553,8 @@
       <c r="G294" s="28"/>
       <c r="H294" s="28"/>
       <c r="I294" s="28"/>
-      <c r="J294" s="59"/>
-      <c r="K294" s="59"/>
+      <c r="J294" s="60"/>
+      <c r="K294" s="60"/>
       <c r="L294" s="28"/>
       <c r="M294" s="28"/>
       <c r="N294" s="28"/>
@@ -14581,8 +14598,8 @@
       <c r="G295" s="28"/>
       <c r="H295" s="28"/>
       <c r="I295" s="28"/>
-      <c r="J295" s="59"/>
-      <c r="K295" s="59"/>
+      <c r="J295" s="60"/>
+      <c r="K295" s="60"/>
       <c r="L295" s="28"/>
       <c r="M295" s="28"/>
       <c r="N295" s="28"/>
@@ -14626,8 +14643,8 @@
       <c r="G296" s="28"/>
       <c r="H296" s="28"/>
       <c r="I296" s="28"/>
-      <c r="J296" s="59"/>
-      <c r="K296" s="59"/>
+      <c r="J296" s="60"/>
+      <c r="K296" s="60"/>
       <c r="L296" s="28"/>
       <c r="M296" s="28"/>
       <c r="N296" s="28"/>
@@ -14671,8 +14688,8 @@
       <c r="G297" s="28"/>
       <c r="H297" s="28"/>
       <c r="I297" s="28"/>
-      <c r="J297" s="59"/>
-      <c r="K297" s="59"/>
+      <c r="J297" s="60"/>
+      <c r="K297" s="60"/>
       <c r="L297" s="28"/>
       <c r="M297" s="28"/>
       <c r="N297" s="28"/>
@@ -14716,8 +14733,8 @@
       <c r="G298" s="28"/>
       <c r="H298" s="28"/>
       <c r="I298" s="28"/>
-      <c r="J298" s="59"/>
-      <c r="K298" s="59"/>
+      <c r="J298" s="60"/>
+      <c r="K298" s="60"/>
       <c r="L298" s="28"/>
       <c r="M298" s="28"/>
       <c r="N298" s="28"/>
@@ -14761,8 +14778,8 @@
       <c r="G299" s="28"/>
       <c r="H299" s="28"/>
       <c r="I299" s="28"/>
-      <c r="J299" s="59"/>
-      <c r="K299" s="59"/>
+      <c r="J299" s="60"/>
+      <c r="K299" s="60"/>
       <c r="L299" s="28"/>
       <c r="M299" s="28"/>
       <c r="N299" s="28"/>
@@ -14806,8 +14823,8 @@
       <c r="G300" s="28"/>
       <c r="H300" s="28"/>
       <c r="I300" s="28"/>
-      <c r="J300" s="59"/>
-      <c r="K300" s="59"/>
+      <c r="J300" s="60"/>
+      <c r="K300" s="60"/>
       <c r="L300" s="28"/>
       <c r="M300" s="28"/>
       <c r="N300" s="28"/>
@@ -14851,8 +14868,8 @@
       <c r="G301" s="28"/>
       <c r="H301" s="28"/>
       <c r="I301" s="28"/>
-      <c r="J301" s="59"/>
-      <c r="K301" s="59"/>
+      <c r="J301" s="60"/>
+      <c r="K301" s="60"/>
       <c r="L301" s="28"/>
       <c r="M301" s="28"/>
       <c r="N301" s="28"/>
@@ -14896,8 +14913,8 @@
       <c r="G302" s="28"/>
       <c r="H302" s="28"/>
       <c r="I302" s="28"/>
-      <c r="J302" s="59"/>
-      <c r="K302" s="59"/>
+      <c r="J302" s="60"/>
+      <c r="K302" s="60"/>
       <c r="L302" s="28"/>
       <c r="M302" s="28"/>
       <c r="N302" s="28"/>
@@ -14941,8 +14958,8 @@
       <c r="G303" s="28"/>
       <c r="H303" s="28"/>
       <c r="I303" s="28"/>
-      <c r="J303" s="59"/>
-      <c r="K303" s="59"/>
+      <c r="J303" s="60"/>
+      <c r="K303" s="60"/>
       <c r="L303" s="28"/>
       <c r="M303" s="28"/>
       <c r="N303" s="28"/>
@@ -14986,8 +15003,8 @@
       <c r="G304" s="28"/>
       <c r="H304" s="28"/>
       <c r="I304" s="28"/>
-      <c r="J304" s="59"/>
-      <c r="K304" s="59"/>
+      <c r="J304" s="60"/>
+      <c r="K304" s="60"/>
       <c r="L304" s="28"/>
       <c r="M304" s="28"/>
       <c r="N304" s="28"/>
@@ -15031,8 +15048,8 @@
       <c r="G305" s="28"/>
       <c r="H305" s="28"/>
       <c r="I305" s="28"/>
-      <c r="J305" s="59"/>
-      <c r="K305" s="59"/>
+      <c r="J305" s="60"/>
+      <c r="K305" s="60"/>
       <c r="L305" s="28"/>
       <c r="M305" s="28"/>
       <c r="N305" s="28"/>
@@ -15076,8 +15093,8 @@
       <c r="G306" s="28"/>
       <c r="H306" s="28"/>
       <c r="I306" s="28"/>
-      <c r="J306" s="59"/>
-      <c r="K306" s="59"/>
+      <c r="J306" s="60"/>
+      <c r="K306" s="60"/>
       <c r="L306" s="28"/>
       <c r="M306" s="28"/>
       <c r="N306" s="28"/>
@@ -15121,8 +15138,8 @@
       <c r="G307" s="28"/>
       <c r="H307" s="28"/>
       <c r="I307" s="28"/>
-      <c r="J307" s="59"/>
-      <c r="K307" s="59"/>
+      <c r="J307" s="60"/>
+      <c r="K307" s="60"/>
       <c r="L307" s="28"/>
       <c r="M307" s="28"/>
       <c r="N307" s="28"/>
@@ -15166,8 +15183,8 @@
       <c r="G308" s="28"/>
       <c r="H308" s="28"/>
       <c r="I308" s="28"/>
-      <c r="J308" s="59"/>
-      <c r="K308" s="59"/>
+      <c r="J308" s="60"/>
+      <c r="K308" s="60"/>
       <c r="L308" s="28"/>
       <c r="M308" s="28"/>
       <c r="N308" s="28"/>
@@ -15211,8 +15228,8 @@
       <c r="G309" s="28"/>
       <c r="H309" s="28"/>
       <c r="I309" s="28"/>
-      <c r="J309" s="59"/>
-      <c r="K309" s="59"/>
+      <c r="J309" s="60"/>
+      <c r="K309" s="60"/>
       <c r="L309" s="28"/>
       <c r="M309" s="28"/>
       <c r="N309" s="28"/>
@@ -15256,8 +15273,8 @@
       <c r="G310" s="28"/>
       <c r="H310" s="28"/>
       <c r="I310" s="28"/>
-      <c r="J310" s="59"/>
-      <c r="K310" s="59"/>
+      <c r="J310" s="60"/>
+      <c r="K310" s="60"/>
       <c r="L310" s="28"/>
       <c r="M310" s="28"/>
       <c r="N310" s="28"/>
@@ -15301,8 +15318,8 @@
       <c r="G311" s="28"/>
       <c r="H311" s="28"/>
       <c r="I311" s="28"/>
-      <c r="J311" s="59"/>
-      <c r="K311" s="59"/>
+      <c r="J311" s="60"/>
+      <c r="K311" s="60"/>
       <c r="L311" s="28"/>
       <c r="M311" s="28"/>
       <c r="N311" s="28"/>
@@ -15346,8 +15363,8 @@
       <c r="G312" s="28"/>
       <c r="H312" s="28"/>
       <c r="I312" s="28"/>
-      <c r="J312" s="59"/>
-      <c r="K312" s="59"/>
+      <c r="J312" s="60"/>
+      <c r="K312" s="60"/>
       <c r="L312" s="28"/>
       <c r="M312" s="28"/>
       <c r="N312" s="28"/>
@@ -15391,8 +15408,8 @@
       <c r="G313" s="28"/>
       <c r="H313" s="28"/>
       <c r="I313" s="28"/>
-      <c r="J313" s="59"/>
-      <c r="K313" s="59"/>
+      <c r="J313" s="60"/>
+      <c r="K313" s="60"/>
       <c r="L313" s="28"/>
       <c r="M313" s="28"/>
       <c r="N313" s="28"/>
@@ -15436,8 +15453,8 @@
       <c r="G314" s="28"/>
       <c r="H314" s="28"/>
       <c r="I314" s="28"/>
-      <c r="J314" s="59"/>
-      <c r="K314" s="59"/>
+      <c r="J314" s="60"/>
+      <c r="K314" s="60"/>
       <c r="L314" s="28"/>
       <c r="M314" s="28"/>
       <c r="N314" s="28"/>
@@ -15481,8 +15498,8 @@
       <c r="G315" s="28"/>
       <c r="H315" s="28"/>
       <c r="I315" s="28"/>
-      <c r="J315" s="59"/>
-      <c r="K315" s="59"/>
+      <c r="J315" s="60"/>
+      <c r="K315" s="60"/>
       <c r="L315" s="28"/>
       <c r="M315" s="28"/>
       <c r="N315" s="28"/>
@@ -15526,8 +15543,8 @@
       <c r="G316" s="28"/>
       <c r="H316" s="28"/>
       <c r="I316" s="28"/>
-      <c r="J316" s="59"/>
-      <c r="K316" s="59"/>
+      <c r="J316" s="60"/>
+      <c r="K316" s="60"/>
       <c r="L316" s="28"/>
       <c r="M316" s="28"/>
       <c r="N316" s="28"/>
@@ -15571,8 +15588,8 @@
       <c r="G317" s="28"/>
       <c r="H317" s="28"/>
       <c r="I317" s="28"/>
-      <c r="J317" s="59"/>
-      <c r="K317" s="59"/>
+      <c r="J317" s="60"/>
+      <c r="K317" s="60"/>
       <c r="L317" s="28"/>
       <c r="M317" s="28"/>
       <c r="N317" s="28"/>
@@ -15616,8 +15633,8 @@
       <c r="G318" s="28"/>
       <c r="H318" s="28"/>
       <c r="I318" s="28"/>
-      <c r="J318" s="59"/>
-      <c r="K318" s="59"/>
+      <c r="J318" s="60"/>
+      <c r="K318" s="60"/>
       <c r="L318" s="28"/>
       <c r="M318" s="28"/>
       <c r="N318" s="28"/>
@@ -15661,8 +15678,8 @@
       <c r="G319" s="28"/>
       <c r="H319" s="28"/>
       <c r="I319" s="28"/>
-      <c r="J319" s="59"/>
-      <c r="K319" s="59"/>
+      <c r="J319" s="60"/>
+      <c r="K319" s="60"/>
       <c r="L319" s="28"/>
       <c r="M319" s="28"/>
       <c r="N319" s="28"/>
@@ -15706,8 +15723,8 @@
       <c r="G320" s="28"/>
       <c r="H320" s="28"/>
       <c r="I320" s="28"/>
-      <c r="J320" s="59"/>
-      <c r="K320" s="59"/>
+      <c r="J320" s="60"/>
+      <c r="K320" s="60"/>
       <c r="L320" s="28"/>
       <c r="M320" s="28"/>
       <c r="N320" s="28"/>
@@ -15751,8 +15768,8 @@
       <c r="G321" s="28"/>
       <c r="H321" s="28"/>
       <c r="I321" s="28"/>
-      <c r="J321" s="59"/>
-      <c r="K321" s="59"/>
+      <c r="J321" s="60"/>
+      <c r="K321" s="60"/>
       <c r="L321" s="28"/>
       <c r="M321" s="28"/>
       <c r="N321" s="28"/>
@@ -15796,8 +15813,8 @@
       <c r="G322" s="28"/>
       <c r="H322" s="28"/>
       <c r="I322" s="28"/>
-      <c r="J322" s="59"/>
-      <c r="K322" s="59"/>
+      <c r="J322" s="60"/>
+      <c r="K322" s="60"/>
       <c r="L322" s="28"/>
       <c r="M322" s="28"/>
       <c r="N322" s="28"/>
@@ -15841,8 +15858,8 @@
       <c r="G323" s="28"/>
       <c r="H323" s="28"/>
       <c r="I323" s="28"/>
-      <c r="J323" s="59"/>
-      <c r="K323" s="59"/>
+      <c r="J323" s="60"/>
+      <c r="K323" s="60"/>
       <c r="L323" s="28"/>
       <c r="M323" s="28"/>
       <c r="N323" s="28"/>
@@ -15886,8 +15903,8 @@
       <c r="G324" s="28"/>
       <c r="H324" s="28"/>
       <c r="I324" s="28"/>
-      <c r="J324" s="59"/>
-      <c r="K324" s="59"/>
+      <c r="J324" s="60"/>
+      <c r="K324" s="60"/>
       <c r="L324" s="28"/>
       <c r="M324" s="28"/>
       <c r="N324" s="28"/>
@@ -15931,8 +15948,8 @@
       <c r="G325" s="28"/>
       <c r="H325" s="28"/>
       <c r="I325" s="28"/>
-      <c r="J325" s="59"/>
-      <c r="K325" s="59"/>
+      <c r="J325" s="60"/>
+      <c r="K325" s="60"/>
       <c r="L325" s="28"/>
       <c r="M325" s="28"/>
       <c r="N325" s="28"/>
@@ -15976,8 +15993,8 @@
       <c r="G326" s="28"/>
       <c r="H326" s="28"/>
       <c r="I326" s="28"/>
-      <c r="J326" s="59"/>
-      <c r="K326" s="59"/>
+      <c r="J326" s="60"/>
+      <c r="K326" s="60"/>
       <c r="L326" s="28"/>
       <c r="M326" s="28"/>
       <c r="N326" s="28"/>
@@ -16021,8 +16038,8 @@
       <c r="G327" s="28"/>
       <c r="H327" s="28"/>
       <c r="I327" s="28"/>
-      <c r="J327" s="59"/>
-      <c r="K327" s="59"/>
+      <c r="J327" s="60"/>
+      <c r="K327" s="60"/>
       <c r="L327" s="28"/>
       <c r="M327" s="28"/>
       <c r="N327" s="28"/>
@@ -16066,8 +16083,8 @@
       <c r="G328" s="28"/>
       <c r="H328" s="28"/>
       <c r="I328" s="28"/>
-      <c r="J328" s="59"/>
-      <c r="K328" s="59"/>
+      <c r="J328" s="60"/>
+      <c r="K328" s="60"/>
       <c r="L328" s="28"/>
       <c r="M328" s="28"/>
       <c r="N328" s="28"/>
@@ -16111,8 +16128,8 @@
       <c r="G329" s="28"/>
       <c r="H329" s="28"/>
       <c r="I329" s="28"/>
-      <c r="J329" s="59"/>
-      <c r="K329" s="59"/>
+      <c r="J329" s="60"/>
+      <c r="K329" s="60"/>
       <c r="L329" s="28"/>
       <c r="M329" s="28"/>
       <c r="N329" s="28"/>
@@ -16156,8 +16173,8 @@
       <c r="G330" s="28"/>
       <c r="H330" s="28"/>
       <c r="I330" s="28"/>
-      <c r="J330" s="59"/>
-      <c r="K330" s="59"/>
+      <c r="J330" s="60"/>
+      <c r="K330" s="60"/>
       <c r="L330" s="28"/>
       <c r="M330" s="28"/>
       <c r="N330" s="28"/>
@@ -16201,8 +16218,8 @@
       <c r="G331" s="28"/>
       <c r="H331" s="28"/>
       <c r="I331" s="28"/>
-      <c r="J331" s="59"/>
-      <c r="K331" s="59"/>
+      <c r="J331" s="60"/>
+      <c r="K331" s="60"/>
       <c r="L331" s="28"/>
       <c r="M331" s="28"/>
       <c r="N331" s="28"/>
@@ -16246,8 +16263,8 @@
       <c r="G332" s="28"/>
       <c r="H332" s="28"/>
       <c r="I332" s="28"/>
-      <c r="J332" s="59"/>
-      <c r="K332" s="59"/>
+      <c r="J332" s="60"/>
+      <c r="K332" s="60"/>
       <c r="L332" s="28"/>
       <c r="M332" s="28"/>
       <c r="N332" s="28"/>
@@ -16291,8 +16308,8 @@
       <c r="G333" s="28"/>
       <c r="H333" s="28"/>
       <c r="I333" s="28"/>
-      <c r="J333" s="59"/>
-      <c r="K333" s="59"/>
+      <c r="J333" s="60"/>
+      <c r="K333" s="60"/>
       <c r="L333" s="28"/>
       <c r="M333" s="28"/>
       <c r="N333" s="28"/>
@@ -16336,8 +16353,8 @@
       <c r="G334" s="28"/>
       <c r="H334" s="28"/>
       <c r="I334" s="28"/>
-      <c r="J334" s="59"/>
-      <c r="K334" s="59"/>
+      <c r="J334" s="60"/>
+      <c r="K334" s="60"/>
       <c r="L334" s="28"/>
       <c r="M334" s="28"/>
       <c r="N334" s="28"/>
@@ -16381,8 +16398,8 @@
       <c r="G335" s="28"/>
       <c r="H335" s="28"/>
       <c r="I335" s="28"/>
-      <c r="J335" s="59"/>
-      <c r="K335" s="59"/>
+      <c r="J335" s="60"/>
+      <c r="K335" s="60"/>
       <c r="L335" s="28"/>
       <c r="M335" s="28"/>
       <c r="N335" s="28"/>
@@ -16426,8 +16443,8 @@
       <c r="G336" s="28"/>
       <c r="H336" s="28"/>
       <c r="I336" s="28"/>
-      <c r="J336" s="59"/>
-      <c r="K336" s="59"/>
+      <c r="J336" s="60"/>
+      <c r="K336" s="60"/>
       <c r="L336" s="28"/>
       <c r="M336" s="28"/>
       <c r="N336" s="28"/>
@@ -16471,8 +16488,8 @@
       <c r="G337" s="28"/>
       <c r="H337" s="28"/>
       <c r="I337" s="28"/>
-      <c r="J337" s="59"/>
-      <c r="K337" s="59"/>
+      <c r="J337" s="60"/>
+      <c r="K337" s="60"/>
       <c r="L337" s="28"/>
       <c r="M337" s="28"/>
       <c r="N337" s="28"/>
@@ -16516,8 +16533,8 @@
       <c r="G338" s="28"/>
       <c r="H338" s="28"/>
       <c r="I338" s="28"/>
-      <c r="J338" s="59"/>
-      <c r="K338" s="59"/>
+      <c r="J338" s="60"/>
+      <c r="K338" s="60"/>
       <c r="L338" s="28"/>
       <c r="M338" s="28"/>
       <c r="N338" s="28"/>
@@ -16561,8 +16578,8 @@
       <c r="G339" s="28"/>
       <c r="H339" s="28"/>
       <c r="I339" s="28"/>
-      <c r="J339" s="59"/>
-      <c r="K339" s="59"/>
+      <c r="J339" s="60"/>
+      <c r="K339" s="60"/>
       <c r="L339" s="28"/>
       <c r="M339" s="28"/>
       <c r="N339" s="28"/>
@@ -16606,8 +16623,8 @@
       <c r="G340" s="28"/>
       <c r="H340" s="28"/>
       <c r="I340" s="28"/>
-      <c r="J340" s="59"/>
-      <c r="K340" s="59"/>
+      <c r="J340" s="60"/>
+      <c r="K340" s="60"/>
       <c r="L340" s="28"/>
       <c r="M340" s="28"/>
       <c r="N340" s="28"/>
@@ -16651,8 +16668,8 @@
       <c r="G341" s="28"/>
       <c r="H341" s="28"/>
       <c r="I341" s="28"/>
-      <c r="J341" s="59"/>
-      <c r="K341" s="59"/>
+      <c r="J341" s="60"/>
+      <c r="K341" s="60"/>
       <c r="L341" s="28"/>
       <c r="M341" s="28"/>
       <c r="N341" s="28"/>
@@ -16696,8 +16713,8 @@
       <c r="G342" s="28"/>
       <c r="H342" s="28"/>
       <c r="I342" s="28"/>
-      <c r="J342" s="59"/>
-      <c r="K342" s="59"/>
+      <c r="J342" s="60"/>
+      <c r="K342" s="60"/>
       <c r="L342" s="28"/>
       <c r="M342" s="28"/>
       <c r="N342" s="28"/>
@@ -16741,8 +16758,8 @@
       <c r="G343" s="28"/>
       <c r="H343" s="28"/>
       <c r="I343" s="28"/>
-      <c r="J343" s="59"/>
-      <c r="K343" s="59"/>
+      <c r="J343" s="60"/>
+      <c r="K343" s="60"/>
       <c r="L343" s="28"/>
       <c r="M343" s="28"/>
       <c r="N343" s="28"/>
@@ -16786,8 +16803,8 @@
       <c r="G344" s="28"/>
       <c r="H344" s="28"/>
       <c r="I344" s="28"/>
-      <c r="J344" s="59"/>
-      <c r="K344" s="59"/>
+      <c r="J344" s="60"/>
+      <c r="K344" s="60"/>
       <c r="L344" s="28"/>
       <c r="M344" s="28"/>
       <c r="N344" s="28"/>
@@ -16831,8 +16848,8 @@
       <c r="G345" s="28"/>
       <c r="H345" s="28"/>
       <c r="I345" s="28"/>
-      <c r="J345" s="59"/>
-      <c r="K345" s="59"/>
+      <c r="J345" s="60"/>
+      <c r="K345" s="60"/>
       <c r="L345" s="28"/>
       <c r="M345" s="28"/>
       <c r="N345" s="28"/>
@@ -16876,8 +16893,8 @@
       <c r="G346" s="28"/>
       <c r="H346" s="28"/>
       <c r="I346" s="28"/>
-      <c r="J346" s="59"/>
-      <c r="K346" s="59"/>
+      <c r="J346" s="60"/>
+      <c r="K346" s="60"/>
       <c r="L346" s="28"/>
       <c r="M346" s="28"/>
       <c r="N346" s="28"/>
@@ -16921,8 +16938,8 @@
       <c r="G347" s="28"/>
       <c r="H347" s="28"/>
       <c r="I347" s="28"/>
-      <c r="J347" s="59"/>
-      <c r="K347" s="59"/>
+      <c r="J347" s="60"/>
+      <c r="K347" s="60"/>
       <c r="L347" s="28"/>
       <c r="M347" s="28"/>
       <c r="N347" s="28"/>
@@ -16966,8 +16983,8 @@
       <c r="G348" s="28"/>
       <c r="H348" s="28"/>
       <c r="I348" s="28"/>
-      <c r="J348" s="59"/>
-      <c r="K348" s="59"/>
+      <c r="J348" s="60"/>
+      <c r="K348" s="60"/>
       <c r="L348" s="28"/>
       <c r="M348" s="28"/>
       <c r="N348" s="28"/>
@@ -17011,8 +17028,8 @@
       <c r="G349" s="28"/>
       <c r="H349" s="28"/>
       <c r="I349" s="28"/>
-      <c r="J349" s="59"/>
-      <c r="K349" s="59"/>
+      <c r="J349" s="60"/>
+      <c r="K349" s="60"/>
       <c r="L349" s="28"/>
       <c r="M349" s="28"/>
       <c r="N349" s="28"/>
@@ -17056,8 +17073,8 @@
       <c r="G350" s="28"/>
       <c r="H350" s="28"/>
       <c r="I350" s="28"/>
-      <c r="J350" s="59"/>
-      <c r="K350" s="59"/>
+      <c r="J350" s="60"/>
+      <c r="K350" s="60"/>
       <c r="L350" s="28"/>
       <c r="M350" s="28"/>
       <c r="N350" s="28"/>
@@ -17101,8 +17118,8 @@
       <c r="G351" s="28"/>
       <c r="H351" s="28"/>
       <c r="I351" s="28"/>
-      <c r="J351" s="59"/>
-      <c r="K351" s="59"/>
+      <c r="J351" s="60"/>
+      <c r="K351" s="60"/>
       <c r="L351" s="28"/>
       <c r="M351" s="28"/>
       <c r="N351" s="28"/>
@@ -17146,8 +17163,8 @@
       <c r="G352" s="28"/>
       <c r="H352" s="28"/>
       <c r="I352" s="28"/>
-      <c r="J352" s="59"/>
-      <c r="K352" s="59"/>
+      <c r="J352" s="60"/>
+      <c r="K352" s="60"/>
       <c r="L352" s="28"/>
       <c r="M352" s="28"/>
       <c r="N352" s="28"/>
@@ -17191,8 +17208,8 @@
       <c r="G353" s="28"/>
       <c r="H353" s="28"/>
       <c r="I353" s="28"/>
-      <c r="J353" s="59"/>
-      <c r="K353" s="59"/>
+      <c r="J353" s="60"/>
+      <c r="K353" s="60"/>
       <c r="L353" s="28"/>
       <c r="M353" s="28"/>
       <c r="N353" s="28"/>
@@ -17236,8 +17253,8 @@
       <c r="G354" s="28"/>
       <c r="H354" s="28"/>
       <c r="I354" s="28"/>
-      <c r="J354" s="59"/>
-      <c r="K354" s="59"/>
+      <c r="J354" s="60"/>
+      <c r="K354" s="60"/>
       <c r="L354" s="28"/>
       <c r="M354" s="28"/>
       <c r="N354" s="28"/>
@@ -17281,8 +17298,8 @@
       <c r="G355" s="28"/>
       <c r="H355" s="28"/>
       <c r="I355" s="28"/>
-      <c r="J355" s="59"/>
-      <c r="K355" s="59"/>
+      <c r="J355" s="60"/>
+      <c r="K355" s="60"/>
       <c r="L355" s="28"/>
       <c r="M355" s="28"/>
       <c r="N355" s="28"/>
@@ -17326,8 +17343,8 @@
       <c r="G356" s="28"/>
       <c r="H356" s="28"/>
       <c r="I356" s="28"/>
-      <c r="J356" s="59"/>
-      <c r="K356" s="59"/>
+      <c r="J356" s="60"/>
+      <c r="K356" s="60"/>
       <c r="L356" s="28"/>
       <c r="M356" s="28"/>
       <c r="N356" s="28"/>
@@ -17371,8 +17388,8 @@
       <c r="G357" s="28"/>
       <c r="H357" s="28"/>
       <c r="I357" s="28"/>
-      <c r="J357" s="59"/>
-      <c r="K357" s="59"/>
+      <c r="J357" s="60"/>
+      <c r="K357" s="60"/>
       <c r="L357" s="28"/>
       <c r="M357" s="28"/>
       <c r="N357" s="28"/>
@@ -17416,8 +17433,8 @@
       <c r="G358" s="28"/>
       <c r="H358" s="28"/>
       <c r="I358" s="28"/>
-      <c r="J358" s="59"/>
-      <c r="K358" s="59"/>
+      <c r="J358" s="60"/>
+      <c r="K358" s="60"/>
       <c r="L358" s="28"/>
       <c r="M358" s="28"/>
       <c r="N358" s="28"/>
@@ -17461,8 +17478,8 @@
       <c r="G359" s="28"/>
       <c r="H359" s="28"/>
       <c r="I359" s="28"/>
-      <c r="J359" s="59"/>
-      <c r="K359" s="59"/>
+      <c r="J359" s="60"/>
+      <c r="K359" s="60"/>
       <c r="L359" s="28"/>
       <c r="M359" s="28"/>
       <c r="N359" s="28"/>
@@ -17506,8 +17523,8 @@
       <c r="G360" s="28"/>
       <c r="H360" s="28"/>
       <c r="I360" s="28"/>
-      <c r="J360" s="59"/>
-      <c r="K360" s="59"/>
+      <c r="J360" s="60"/>
+      <c r="K360" s="60"/>
       <c r="L360" s="28"/>
       <c r="M360" s="28"/>
       <c r="N360" s="28"/>
@@ -17551,8 +17568,8 @@
       <c r="G361" s="28"/>
       <c r="H361" s="28"/>
       <c r="I361" s="28"/>
-      <c r="J361" s="59"/>
-      <c r="K361" s="59"/>
+      <c r="J361" s="60"/>
+      <c r="K361" s="60"/>
       <c r="L361" s="28"/>
       <c r="M361" s="28"/>
       <c r="N361" s="28"/>
@@ -17596,8 +17613,8 @@
       <c r="G362" s="28"/>
       <c r="H362" s="28"/>
       <c r="I362" s="28"/>
-      <c r="J362" s="59"/>
-      <c r="K362" s="59"/>
+      <c r="J362" s="60"/>
+      <c r="K362" s="60"/>
       <c r="L362" s="28"/>
       <c r="M362" s="28"/>
       <c r="N362" s="28"/>
@@ -17641,8 +17658,8 @@
       <c r="G363" s="28"/>
       <c r="H363" s="28"/>
       <c r="I363" s="28"/>
-      <c r="J363" s="59"/>
-      <c r="K363" s="59"/>
+      <c r="J363" s="60"/>
+      <c r="K363" s="60"/>
       <c r="L363" s="28"/>
       <c r="M363" s="28"/>
       <c r="N363" s="28"/>
@@ -17686,8 +17703,8 @@
       <c r="G364" s="28"/>
       <c r="H364" s="28"/>
       <c r="I364" s="28"/>
-      <c r="J364" s="59"/>
-      <c r="K364" s="59"/>
+      <c r="J364" s="60"/>
+      <c r="K364" s="60"/>
       <c r="L364" s="28"/>
       <c r="M364" s="28"/>
       <c r="N364" s="28"/>
@@ -17731,8 +17748,8 @@
       <c r="G365" s="28"/>
       <c r="H365" s="28"/>
       <c r="I365" s="28"/>
-      <c r="J365" s="59"/>
-      <c r="K365" s="59"/>
+      <c r="J365" s="60"/>
+      <c r="K365" s="60"/>
       <c r="L365" s="28"/>
       <c r="M365" s="28"/>
       <c r="N365" s="28"/>
@@ -17776,8 +17793,8 @@
       <c r="G366" s="28"/>
       <c r="H366" s="28"/>
       <c r="I366" s="28"/>
-      <c r="J366" s="59"/>
-      <c r="K366" s="59"/>
+      <c r="J366" s="60"/>
+      <c r="K366" s="60"/>
       <c r="L366" s="28"/>
       <c r="M366" s="28"/>
       <c r="N366" s="28"/>
@@ -17821,8 +17838,8 @@
       <c r="G367" s="28"/>
       <c r="H367" s="28"/>
       <c r="I367" s="28"/>
-      <c r="J367" s="59"/>
-      <c r="K367" s="59"/>
+      <c r="J367" s="60"/>
+      <c r="K367" s="60"/>
       <c r="L367" s="28"/>
       <c r="M367" s="28"/>
       <c r="N367" s="28"/>
@@ -17866,8 +17883,8 @@
       <c r="G368" s="28"/>
       <c r="H368" s="28"/>
       <c r="I368" s="28"/>
-      <c r="J368" s="59"/>
-      <c r="K368" s="59"/>
+      <c r="J368" s="60"/>
+      <c r="K368" s="60"/>
       <c r="L368" s="28"/>
       <c r="M368" s="28"/>
       <c r="N368" s="28"/>
@@ -17911,8 +17928,8 @@
       <c r="G369" s="28"/>
       <c r="H369" s="28"/>
       <c r="I369" s="28"/>
-      <c r="J369" s="59"/>
-      <c r="K369" s="59"/>
+      <c r="J369" s="60"/>
+      <c r="K369" s="60"/>
       <c r="L369" s="28"/>
       <c r="M369" s="28"/>
       <c r="N369" s="28"/>
@@ -17956,8 +17973,8 @@
       <c r="G370" s="28"/>
       <c r="H370" s="28"/>
       <c r="I370" s="28"/>
-      <c r="J370" s="59"/>
-      <c r="K370" s="59"/>
+      <c r="J370" s="60"/>
+      <c r="K370" s="60"/>
       <c r="L370" s="28"/>
       <c r="M370" s="28"/>
       <c r="N370" s="28"/>
@@ -18001,8 +18018,8 @@
       <c r="G371" s="28"/>
       <c r="H371" s="28"/>
       <c r="I371" s="28"/>
-      <c r="J371" s="59"/>
-      <c r="K371" s="59"/>
+      <c r="J371" s="60"/>
+      <c r="K371" s="60"/>
       <c r="L371" s="28"/>
       <c r="M371" s="28"/>
       <c r="N371" s="28"/>
@@ -18046,8 +18063,8 @@
       <c r="G372" s="28"/>
       <c r="H372" s="28"/>
       <c r="I372" s="28"/>
-      <c r="J372" s="59"/>
-      <c r="K372" s="59"/>
+      <c r="J372" s="60"/>
+      <c r="K372" s="60"/>
       <c r="L372" s="28"/>
       <c r="M372" s="28"/>
       <c r="N372" s="28"/>
@@ -18091,8 +18108,8 @@
       <c r="G373" s="28"/>
       <c r="H373" s="28"/>
       <c r="I373" s="28"/>
-      <c r="J373" s="59"/>
-      <c r="K373" s="59"/>
+      <c r="J373" s="60"/>
+      <c r="K373" s="60"/>
       <c r="L373" s="28"/>
       <c r="M373" s="28"/>
       <c r="N373" s="28"/>
@@ -18136,8 +18153,8 @@
       <c r="G374" s="28"/>
       <c r="H374" s="28"/>
       <c r="I374" s="28"/>
-      <c r="J374" s="59"/>
-      <c r="K374" s="59"/>
+      <c r="J374" s="60"/>
+      <c r="K374" s="60"/>
       <c r="L374" s="28"/>
       <c r="M374" s="28"/>
       <c r="N374" s="28"/>
@@ -18181,8 +18198,8 @@
       <c r="G375" s="28"/>
       <c r="H375" s="28"/>
       <c r="I375" s="28"/>
-      <c r="J375" s="59"/>
-      <c r="K375" s="59"/>
+      <c r="J375" s="60"/>
+      <c r="K375" s="60"/>
       <c r="L375" s="28"/>
       <c r="M375" s="28"/>
       <c r="N375" s="28"/>
@@ -18226,8 +18243,8 @@
       <c r="G376" s="28"/>
       <c r="H376" s="28"/>
       <c r="I376" s="28"/>
-      <c r="J376" s="59"/>
-      <c r="K376" s="59"/>
+      <c r="J376" s="60"/>
+      <c r="K376" s="60"/>
       <c r="L376" s="28"/>
       <c r="M376" s="28"/>
       <c r="N376" s="28"/>
@@ -18271,8 +18288,8 @@
       <c r="G377" s="28"/>
       <c r="H377" s="28"/>
       <c r="I377" s="28"/>
-      <c r="J377" s="59"/>
-      <c r="K377" s="59"/>
+      <c r="J377" s="60"/>
+      <c r="K377" s="60"/>
       <c r="L377" s="28"/>
       <c r="M377" s="28"/>
       <c r="N377" s="28"/>
@@ -18316,8 +18333,8 @@
       <c r="G378" s="28"/>
       <c r="H378" s="28"/>
       <c r="I378" s="28"/>
-      <c r="J378" s="59"/>
-      <c r="K378" s="59"/>
+      <c r="J378" s="60"/>
+      <c r="K378" s="60"/>
       <c r="L378" s="28"/>
       <c r="M378" s="28"/>
       <c r="N378" s="28"/>
@@ -18361,8 +18378,8 @@
       <c r="G379" s="28"/>
       <c r="H379" s="28"/>
       <c r="I379" s="28"/>
-      <c r="J379" s="59"/>
-      <c r="K379" s="59"/>
+      <c r="J379" s="60"/>
+      <c r="K379" s="60"/>
       <c r="L379" s="28"/>
       <c r="M379" s="28"/>
       <c r="N379" s="28"/>
@@ -18406,8 +18423,8 @@
       <c r="G380" s="28"/>
       <c r="H380" s="28"/>
       <c r="I380" s="28"/>
-      <c r="J380" s="59"/>
-      <c r="K380" s="59"/>
+      <c r="J380" s="60"/>
+      <c r="K380" s="60"/>
       <c r="L380" s="28"/>
       <c r="M380" s="28"/>
       <c r="N380" s="28"/>
@@ -18451,8 +18468,8 @@
       <c r="G381" s="28"/>
       <c r="H381" s="28"/>
       <c r="I381" s="28"/>
-      <c r="J381" s="59"/>
-      <c r="K381" s="59"/>
+      <c r="J381" s="60"/>
+      <c r="K381" s="60"/>
       <c r="L381" s="28"/>
       <c r="M381" s="28"/>
       <c r="N381" s="28"/>
@@ -18496,8 +18513,8 @@
       <c r="G382" s="28"/>
       <c r="H382" s="28"/>
       <c r="I382" s="28"/>
-      <c r="J382" s="59"/>
-      <c r="K382" s="59"/>
+      <c r="J382" s="60"/>
+      <c r="K382" s="60"/>
       <c r="L382" s="28"/>
       <c r="M382" s="28"/>
       <c r="N382" s="28"/>
@@ -18541,8 +18558,8 @@
       <c r="G383" s="28"/>
       <c r="H383" s="28"/>
       <c r="I383" s="28"/>
-      <c r="J383" s="59"/>
-      <c r="K383" s="59"/>
+      <c r="J383" s="60"/>
+      <c r="K383" s="60"/>
       <c r="L383" s="28"/>
       <c r="M383" s="28"/>
       <c r="N383" s="28"/>
@@ -18586,8 +18603,8 @@
       <c r="G384" s="28"/>
       <c r="H384" s="28"/>
       <c r="I384" s="28"/>
-      <c r="J384" s="59"/>
-      <c r="K384" s="59"/>
+      <c r="J384" s="60"/>
+      <c r="K384" s="60"/>
       <c r="L384" s="28"/>
       <c r="M384" s="28"/>
       <c r="N384" s="28"/>
@@ -18631,8 +18648,8 @@
       <c r="G385" s="28"/>
       <c r="H385" s="28"/>
       <c r="I385" s="28"/>
-      <c r="J385" s="59"/>
-      <c r="K385" s="59"/>
+      <c r="J385" s="60"/>
+      <c r="K385" s="60"/>
       <c r="L385" s="28"/>
       <c r="M385" s="28"/>
       <c r="N385" s="28"/>
@@ -18676,8 +18693,8 @@
       <c r="G386" s="28"/>
       <c r="H386" s="28"/>
       <c r="I386" s="28"/>
-      <c r="J386" s="59"/>
-      <c r="K386" s="59"/>
+      <c r="J386" s="60"/>
+      <c r="K386" s="60"/>
       <c r="L386" s="28"/>
       <c r="M386" s="28"/>
       <c r="N386" s="28"/>
@@ -18721,8 +18738,8 @@
       <c r="G387" s="28"/>
       <c r="H387" s="28"/>
       <c r="I387" s="28"/>
-      <c r="J387" s="59"/>
-      <c r="K387" s="59"/>
+      <c r="J387" s="60"/>
+      <c r="K387" s="60"/>
       <c r="L387" s="28"/>
       <c r="M387" s="28"/>
       <c r="N387" s="28"/>
@@ -18766,8 +18783,8 @@
       <c r="G388" s="28"/>
       <c r="H388" s="28"/>
       <c r="I388" s="28"/>
-      <c r="J388" s="59"/>
-      <c r="K388" s="59"/>
+      <c r="J388" s="60"/>
+      <c r="K388" s="60"/>
       <c r="L388" s="28"/>
       <c r="M388" s="28"/>
       <c r="N388" s="28"/>
@@ -18811,8 +18828,8 @@
       <c r="G389" s="28"/>
       <c r="H389" s="28"/>
       <c r="I389" s="28"/>
-      <c r="J389" s="59"/>
-      <c r="K389" s="59"/>
+      <c r="J389" s="60"/>
+      <c r="K389" s="60"/>
       <c r="L389" s="28"/>
       <c r="M389" s="28"/>
       <c r="N389" s="28"/>
@@ -18856,8 +18873,8 @@
       <c r="G390" s="28"/>
       <c r="H390" s="28"/>
       <c r="I390" s="28"/>
-      <c r="J390" s="59"/>
-      <c r="K390" s="59"/>
+      <c r="J390" s="60"/>
+      <c r="K390" s="60"/>
       <c r="L390" s="28"/>
       <c r="M390" s="28"/>
       <c r="N390" s="28"/>
@@ -18901,8 +18918,8 @@
       <c r="G391" s="28"/>
       <c r="H391" s="28"/>
       <c r="I391" s="28"/>
-      <c r="J391" s="59"/>
-      <c r="K391" s="59"/>
+      <c r="J391" s="60"/>
+      <c r="K391" s="60"/>
       <c r="L391" s="28"/>
       <c r="M391" s="28"/>
       <c r="N391" s="28"/>
@@ -18946,8 +18963,8 @@
       <c r="G392" s="28"/>
       <c r="H392" s="28"/>
       <c r="I392" s="28"/>
-      <c r="J392" s="59"/>
-      <c r="K392" s="59"/>
+      <c r="J392" s="60"/>
+      <c r="K392" s="60"/>
       <c r="L392" s="28"/>
       <c r="M392" s="28"/>
       <c r="N392" s="28"/>
@@ -18991,8 +19008,8 @@
       <c r="G393" s="28"/>
       <c r="H393" s="28"/>
       <c r="I393" s="28"/>
-      <c r="J393" s="59"/>
-      <c r="K393" s="59"/>
+      <c r="J393" s="60"/>
+      <c r="K393" s="60"/>
       <c r="L393" s="28"/>
       <c r="M393" s="28"/>
       <c r="N393" s="28"/>
@@ -19036,8 +19053,8 @@
       <c r="G394" s="28"/>
       <c r="H394" s="28"/>
       <c r="I394" s="28"/>
-      <c r="J394" s="59"/>
-      <c r="K394" s="59"/>
+      <c r="J394" s="60"/>
+      <c r="K394" s="60"/>
       <c r="L394" s="28"/>
       <c r="M394" s="28"/>
       <c r="N394" s="28"/>
@@ -19081,8 +19098,8 @@
       <c r="G395" s="28"/>
       <c r="H395" s="28"/>
       <c r="I395" s="28"/>
-      <c r="J395" s="59"/>
-      <c r="K395" s="59"/>
+      <c r="J395" s="60"/>
+      <c r="K395" s="60"/>
       <c r="L395" s="28"/>
       <c r="M395" s="28"/>
       <c r="N395" s="28"/>
@@ -19126,8 +19143,8 @@
       <c r="G396" s="28"/>
       <c r="H396" s="28"/>
       <c r="I396" s="28"/>
-      <c r="J396" s="59"/>
-      <c r="K396" s="59"/>
+      <c r="J396" s="60"/>
+      <c r="K396" s="60"/>
       <c r="L396" s="28"/>
       <c r="M396" s="28"/>
       <c r="N396" s="28"/>
@@ -19171,8 +19188,8 @@
       <c r="G397" s="28"/>
       <c r="H397" s="28"/>
       <c r="I397" s="28"/>
-      <c r="J397" s="59"/>
-      <c r="K397" s="59"/>
+      <c r="J397" s="60"/>
+      <c r="K397" s="60"/>
       <c r="L397" s="28"/>
       <c r="M397" s="28"/>
       <c r="N397" s="28"/>
@@ -19216,8 +19233,8 @@
       <c r="G398" s="28"/>
       <c r="H398" s="28"/>
       <c r="I398" s="28"/>
-      <c r="J398" s="59"/>
-      <c r="K398" s="59"/>
+      <c r="J398" s="60"/>
+      <c r="K398" s="60"/>
       <c r="L398" s="28"/>
       <c r="M398" s="28"/>
       <c r="N398" s="28"/>
@@ -19261,8 +19278,8 @@
       <c r="G399" s="28"/>
       <c r="H399" s="28"/>
       <c r="I399" s="28"/>
-      <c r="J399" s="59"/>
-      <c r="K399" s="59"/>
+      <c r="J399" s="60"/>
+      <c r="K399" s="60"/>
       <c r="L399" s="28"/>
       <c r="M399" s="28"/>
       <c r="N399" s="28"/>
@@ -19306,8 +19323,8 @@
       <c r="G400" s="28"/>
       <c r="H400" s="28"/>
       <c r="I400" s="28"/>
-      <c r="J400" s="59"/>
-      <c r="K400" s="59"/>
+      <c r="J400" s="60"/>
+      <c r="K400" s="60"/>
       <c r="L400" s="28"/>
       <c r="M400" s="28"/>
       <c r="N400" s="28"/>
@@ -19351,8 +19368,8 @@
       <c r="G401" s="28"/>
       <c r="H401" s="28"/>
       <c r="I401" s="28"/>
-      <c r="J401" s="59"/>
-      <c r="K401" s="59"/>
+      <c r="J401" s="60"/>
+      <c r="K401" s="60"/>
       <c r="L401" s="28"/>
       <c r="M401" s="28"/>
       <c r="N401" s="28"/>
@@ -19396,8 +19413,8 @@
       <c r="G402" s="28"/>
       <c r="H402" s="28"/>
       <c r="I402" s="28"/>
-      <c r="J402" s="59"/>
-      <c r="K402" s="59"/>
+      <c r="J402" s="60"/>
+      <c r="K402" s="60"/>
       <c r="L402" s="28"/>
       <c r="M402" s="28"/>
       <c r="N402" s="28"/>
@@ -19441,8 +19458,8 @@
       <c r="G403" s="28"/>
       <c r="H403" s="28"/>
       <c r="I403" s="28"/>
-      <c r="J403" s="59"/>
-      <c r="K403" s="59"/>
+      <c r="J403" s="60"/>
+      <c r="K403" s="60"/>
       <c r="L403" s="28"/>
       <c r="M403" s="28"/>
       <c r="N403" s="28"/>
@@ -19486,8 +19503,8 @@
       <c r="G404" s="28"/>
       <c r="H404" s="28"/>
       <c r="I404" s="28"/>
-      <c r="J404" s="59"/>
-      <c r="K404" s="59"/>
+      <c r="J404" s="60"/>
+      <c r="K404" s="60"/>
       <c r="L404" s="28"/>
       <c r="M404" s="28"/>
       <c r="N404" s="28"/>
@@ -19531,8 +19548,8 @@
       <c r="G405" s="28"/>
       <c r="H405" s="28"/>
       <c r="I405" s="28"/>
-      <c r="J405" s="59"/>
-      <c r="K405" s="59"/>
+      <c r="J405" s="60"/>
+      <c r="K405" s="60"/>
       <c r="L405" s="28"/>
       <c r="M405" s="28"/>
       <c r="N405" s="28"/>
@@ -19576,8 +19593,8 @@
       <c r="G406" s="28"/>
       <c r="H406" s="28"/>
       <c r="I406" s="28"/>
-      <c r="J406" s="59"/>
-      <c r="K406" s="59"/>
+      <c r="J406" s="60"/>
+      <c r="K406" s="60"/>
       <c r="L406" s="28"/>
       <c r="M406" s="28"/>
       <c r="N406" s="28"/>
@@ -19621,8 +19638,8 @@
       <c r="G407" s="28"/>
       <c r="H407" s="28"/>
       <c r="I407" s="28"/>
-      <c r="J407" s="59"/>
-      <c r="K407" s="59"/>
+      <c r="J407" s="60"/>
+      <c r="K407" s="60"/>
       <c r="L407" s="28"/>
       <c r="M407" s="28"/>
       <c r="N407" s="28"/>
@@ -19666,8 +19683,8 @@
       <c r="G408" s="28"/>
       <c r="H408" s="28"/>
       <c r="I408" s="28"/>
-      <c r="J408" s="59"/>
-      <c r="K408" s="59"/>
+      <c r="J408" s="60"/>
+      <c r="K408" s="60"/>
       <c r="L408" s="28"/>
       <c r="M408" s="28"/>
       <c r="N408" s="28"/>
@@ -19711,8 +19728,8 @@
       <c r="G409" s="28"/>
       <c r="H409" s="28"/>
       <c r="I409" s="28"/>
-      <c r="J409" s="59"/>
-      <c r="K409" s="59"/>
+      <c r="J409" s="60"/>
+      <c r="K409" s="60"/>
       <c r="L409" s="28"/>
       <c r="M409" s="28"/>
       <c r="N409" s="28"/>
@@ -19756,8 +19773,8 @@
       <c r="G410" s="28"/>
       <c r="H410" s="28"/>
       <c r="I410" s="28"/>
-      <c r="J410" s="59"/>
-      <c r="K410" s="59"/>
+      <c r="J410" s="60"/>
+      <c r="K410" s="60"/>
       <c r="L410" s="28"/>
       <c r="M410" s="28"/>
       <c r="N410" s="28"/>
@@ -19801,8 +19818,8 @@
       <c r="G411" s="28"/>
       <c r="H411" s="28"/>
       <c r="I411" s="28"/>
-      <c r="J411" s="59"/>
-      <c r="K411" s="59"/>
+      <c r="J411" s="60"/>
+      <c r="K411" s="60"/>
       <c r="L411" s="28"/>
       <c r="M411" s="28"/>
       <c r="N411" s="28"/>
@@ -19846,8 +19863,8 @@
       <c r="G412" s="28"/>
       <c r="H412" s="28"/>
       <c r="I412" s="28"/>
-      <c r="J412" s="59"/>
-      <c r="K412" s="59"/>
+      <c r="J412" s="60"/>
+      <c r="K412" s="60"/>
       <c r="L412" s="28"/>
       <c r="M412" s="28"/>
       <c r="N412" s="28"/>
@@ -19891,8 +19908,8 @@
       <c r="G413" s="28"/>
       <c r="H413" s="28"/>
       <c r="I413" s="28"/>
-      <c r="J413" s="59"/>
-      <c r="K413" s="59"/>
+      <c r="J413" s="60"/>
+      <c r="K413" s="60"/>
       <c r="L413" s="28"/>
       <c r="M413" s="28"/>
       <c r="N413" s="28"/>
@@ -19936,8 +19953,8 @@
       <c r="G414" s="28"/>
       <c r="H414" s="28"/>
       <c r="I414" s="28"/>
-      <c r="J414" s="59"/>
-      <c r="K414" s="59"/>
+      <c r="J414" s="60"/>
+      <c r="K414" s="60"/>
       <c r="L414" s="28"/>
       <c r="M414" s="28"/>
       <c r="N414" s="28"/>
@@ -19981,8 +19998,8 @@
       <c r="G415" s="28"/>
       <c r="H415" s="28"/>
       <c r="I415" s="28"/>
-      <c r="J415" s="59"/>
-      <c r="K415" s="59"/>
+      <c r="J415" s="60"/>
+      <c r="K415" s="60"/>
       <c r="L415" s="28"/>
       <c r="M415" s="28"/>
       <c r="N415" s="28"/>
@@ -20026,8 +20043,8 @@
       <c r="G416" s="28"/>
       <c r="H416" s="28"/>
       <c r="I416" s="28"/>
-      <c r="J416" s="59"/>
-      <c r="K416" s="59"/>
+      <c r="J416" s="60"/>
+      <c r="K416" s="60"/>
       <c r="L416" s="28"/>
       <c r="M416" s="28"/>
       <c r="N416" s="28"/>
@@ -20071,8 +20088,8 @@
       <c r="G417" s="28"/>
       <c r="H417" s="28"/>
       <c r="I417" s="28"/>
-      <c r="J417" s="59"/>
-      <c r="K417" s="59"/>
+      <c r="J417" s="60"/>
+      <c r="K417" s="60"/>
       <c r="L417" s="28"/>
       <c r="M417" s="28"/>
       <c r="N417" s="28"/>
@@ -20116,8 +20133,8 @@
       <c r="G418" s="28"/>
       <c r="H418" s="28"/>
       <c r="I418" s="28"/>
-      <c r="J418" s="59"/>
-      <c r="K418" s="59"/>
+      <c r="J418" s="60"/>
+      <c r="K418" s="60"/>
       <c r="L418" s="28"/>
       <c r="M418" s="28"/>
       <c r="N418" s="28"/>
@@ -20161,8 +20178,8 @@
       <c r="G419" s="28"/>
       <c r="H419" s="28"/>
       <c r="I419" s="28"/>
-      <c r="J419" s="59"/>
-      <c r="K419" s="59"/>
+      <c r="J419" s="60"/>
+      <c r="K419" s="60"/>
       <c r="L419" s="28"/>
       <c r="M419" s="28"/>
       <c r="N419" s="28"/>
@@ -20206,8 +20223,8 @@
       <c r="G420" s="28"/>
       <c r="H420" s="28"/>
       <c r="I420" s="28"/>
-      <c r="J420" s="59"/>
-      <c r="K420" s="59"/>
+      <c r="J420" s="60"/>
+      <c r="K420" s="60"/>
       <c r="L420" s="28"/>
       <c r="M420" s="28"/>
       <c r="N420" s="28"/>
@@ -20251,8 +20268,8 @@
       <c r="G421" s="28"/>
       <c r="H421" s="28"/>
       <c r="I421" s="28"/>
-      <c r="J421" s="59"/>
-      <c r="K421" s="59"/>
+      <c r="J421" s="60"/>
+      <c r="K421" s="60"/>
       <c r="L421" s="28"/>
       <c r="M421" s="28"/>
       <c r="N421" s="28"/>
@@ -20296,8 +20313,8 @@
       <c r="G422" s="28"/>
       <c r="H422" s="28"/>
       <c r="I422" s="28"/>
-      <c r="J422" s="59"/>
-      <c r="K422" s="59"/>
+      <c r="J422" s="60"/>
+      <c r="K422" s="60"/>
       <c r="L422" s="28"/>
       <c r="M422" s="28"/>
       <c r="N422" s="28"/>
@@ -20341,8 +20358,8 @@
       <c r="G423" s="28"/>
       <c r="H423" s="28"/>
       <c r="I423" s="28"/>
-      <c r="J423" s="59"/>
-      <c r="K423" s="59"/>
+      <c r="J423" s="60"/>
+      <c r="K423" s="60"/>
       <c r="L423" s="28"/>
       <c r="M423" s="28"/>
       <c r="N423" s="28"/>
@@ -20386,8 +20403,8 @@
       <c r="G424" s="28"/>
       <c r="H424" s="28"/>
       <c r="I424" s="28"/>
-      <c r="J424" s="59"/>
-      <c r="K424" s="59"/>
+      <c r="J424" s="60"/>
+      <c r="K424" s="60"/>
       <c r="L424" s="28"/>
       <c r="M424" s="28"/>
       <c r="N424" s="28"/>
@@ -20431,8 +20448,8 @@
       <c r="G425" s="28"/>
       <c r="H425" s="28"/>
       <c r="I425" s="28"/>
-      <c r="J425" s="59"/>
-      <c r="K425" s="59"/>
+      <c r="J425" s="60"/>
+      <c r="K425" s="60"/>
       <c r="L425" s="28"/>
       <c r="M425" s="28"/>
       <c r="N425" s="28"/>
@@ -20476,8 +20493,8 @@
       <c r="G426" s="28"/>
       <c r="H426" s="28"/>
       <c r="I426" s="28"/>
-      <c r="J426" s="59"/>
-      <c r="K426" s="59"/>
+      <c r="J426" s="60"/>
+      <c r="K426" s="60"/>
       <c r="L426" s="28"/>
       <c r="M426" s="28"/>
       <c r="N426" s="28"/>
@@ -20521,8 +20538,8 @@
       <c r="G427" s="28"/>
       <c r="H427" s="28"/>
       <c r="I427" s="28"/>
-      <c r="J427" s="59"/>
-      <c r="K427" s="59"/>
+      <c r="J427" s="60"/>
+      <c r="K427" s="60"/>
       <c r="L427" s="28"/>
       <c r="M427" s="28"/>
       <c r="N427" s="28"/>
@@ -20566,8 +20583,8 @@
       <c r="G428" s="28"/>
       <c r="H428" s="28"/>
       <c r="I428" s="28"/>
-      <c r="J428" s="59"/>
-      <c r="K428" s="59"/>
+      <c r="J428" s="60"/>
+      <c r="K428" s="60"/>
       <c r="L428" s="28"/>
       <c r="M428" s="28"/>
       <c r="N428" s="28"/>
@@ -20611,8 +20628,8 @@
       <c r="G429" s="28"/>
       <c r="H429" s="28"/>
       <c r="I429" s="28"/>
-      <c r="J429" s="59"/>
-      <c r="K429" s="59"/>
+      <c r="J429" s="60"/>
+      <c r="K429" s="60"/>
       <c r="L429" s="28"/>
       <c r="M429" s="28"/>
       <c r="N429" s="28"/>
@@ -20656,8 +20673,8 @@
       <c r="G430" s="28"/>
       <c r="H430" s="28"/>
       <c r="I430" s="28"/>
-      <c r="J430" s="59"/>
-      <c r="K430" s="59"/>
+      <c r="J430" s="60"/>
+      <c r="K430" s="60"/>
       <c r="L430" s="28"/>
       <c r="M430" s="28"/>
       <c r="N430" s="28"/>
@@ -20701,8 +20718,8 @@
       <c r="G431" s="28"/>
       <c r="H431" s="28"/>
       <c r="I431" s="28"/>
-      <c r="J431" s="59"/>
-      <c r="K431" s="59"/>
+      <c r="J431" s="60"/>
+      <c r="K431" s="60"/>
       <c r="L431" s="28"/>
       <c r="M431" s="28"/>
       <c r="N431" s="28"/>
@@ -20746,8 +20763,8 @@
       <c r="G432" s="28"/>
       <c r="H432" s="28"/>
       <c r="I432" s="28"/>
-      <c r="J432" s="59"/>
-      <c r="K432" s="59"/>
+      <c r="J432" s="60"/>
+      <c r="K432" s="60"/>
       <c r="L432" s="28"/>
       <c r="M432" s="28"/>
       <c r="N432" s="28"/>
@@ -20791,8 +20808,8 @@
       <c r="G433" s="28"/>
       <c r="H433" s="28"/>
       <c r="I433" s="28"/>
-      <c r="J433" s="59"/>
-      <c r="K433" s="59"/>
+      <c r="J433" s="60"/>
+      <c r="K433" s="60"/>
       <c r="L433" s="28"/>
       <c r="M433" s="28"/>
       <c r="N433" s="28"/>
@@ -20836,8 +20853,8 @@
       <c r="G434" s="28"/>
       <c r="H434" s="28"/>
       <c r="I434" s="28"/>
-      <c r="J434" s="59"/>
-      <c r="K434" s="59"/>
+      <c r="J434" s="60"/>
+      <c r="K434" s="60"/>
       <c r="L434" s="28"/>
       <c r="M434" s="28"/>
       <c r="N434" s="28"/>
@@ -20881,8 +20898,8 @@
       <c r="G435" s="28"/>
       <c r="H435" s="28"/>
       <c r="I435" s="28"/>
-      <c r="J435" s="59"/>
-      <c r="K435" s="59"/>
+      <c r="J435" s="60"/>
+      <c r="K435" s="60"/>
       <c r="L435" s="28"/>
       <c r="M435" s="28"/>
       <c r="N435" s="28"/>
@@ -20926,8 +20943,8 @@
       <c r="G436" s="28"/>
       <c r="H436" s="28"/>
       <c r="I436" s="28"/>
-      <c r="J436" s="59"/>
-      <c r="K436" s="59"/>
+      <c r="J436" s="60"/>
+      <c r="K436" s="60"/>
       <c r="L436" s="28"/>
       <c r="M436" s="28"/>
       <c r="N436" s="28"/>
@@ -20971,8 +20988,8 @@
       <c r="G437" s="28"/>
       <c r="H437" s="28"/>
       <c r="I437" s="28"/>
-      <c r="J437" s="59"/>
-      <c r="K437" s="59"/>
+      <c r="J437" s="60"/>
+      <c r="K437" s="60"/>
       <c r="L437" s="28"/>
       <c r="M437" s="28"/>
       <c r="N437" s="28"/>
@@ -21016,8 +21033,8 @@
       <c r="G438" s="28"/>
       <c r="H438" s="28"/>
       <c r="I438" s="28"/>
-      <c r="J438" s="59"/>
-      <c r="K438" s="59"/>
+      <c r="J438" s="60"/>
+      <c r="K438" s="60"/>
       <c r="L438" s="28"/>
       <c r="M438" s="28"/>
       <c r="N438" s="28"/>
@@ -21061,8 +21078,8 @@
       <c r="G439" s="28"/>
       <c r="H439" s="28"/>
       <c r="I439" s="28"/>
-      <c r="J439" s="59"/>
-      <c r="K439" s="59"/>
+      <c r="J439" s="60"/>
+      <c r="K439" s="60"/>
       <c r="L439" s="28"/>
       <c r="M439" s="28"/>
       <c r="N439" s="28"/>
@@ -21106,8 +21123,8 @@
       <c r="G440" s="28"/>
       <c r="H440" s="28"/>
       <c r="I440" s="28"/>
-      <c r="J440" s="59"/>
-      <c r="K440" s="59"/>
+      <c r="J440" s="60"/>
+      <c r="K440" s="60"/>
       <c r="L440" s="28"/>
       <c r="M440" s="28"/>
       <c r="N440" s="28"/>
@@ -21151,8 +21168,8 @@
       <c r="G441" s="28"/>
       <c r="H441" s="28"/>
       <c r="I441" s="28"/>
-      <c r="J441" s="59"/>
-      <c r="K441" s="59"/>
+      <c r="J441" s="60"/>
+      <c r="K441" s="60"/>
       <c r="L441" s="28"/>
       <c r="M441" s="28"/>
       <c r="N441" s="28"/>
@@ -21196,8 +21213,8 @@
       <c r="G442" s="28"/>
       <c r="H442" s="28"/>
       <c r="I442" s="28"/>
-      <c r="J442" s="59"/>
-      <c r="K442" s="59"/>
+      <c r="J442" s="60"/>
+      <c r="K442" s="60"/>
       <c r="L442" s="28"/>
       <c r="M442" s="28"/>
       <c r="N442" s="28"/>
@@ -21241,8 +21258,8 @@
       <c r="G443" s="28"/>
       <c r="H443" s="28"/>
       <c r="I443" s="28"/>
-      <c r="J443" s="59"/>
-      <c r="K443" s="59"/>
+      <c r="J443" s="60"/>
+      <c r="K443" s="60"/>
       <c r="L443" s="28"/>
       <c r="M443" s="28"/>
       <c r="N443" s="28"/>
@@ -21286,8 +21303,8 @@
       <c r="G444" s="28"/>
       <c r="H444" s="28"/>
       <c r="I444" s="28"/>
-      <c r="J444" s="59"/>
-      <c r="K444" s="59"/>
+      <c r="J444" s="60"/>
+      <c r="K444" s="60"/>
       <c r="L444" s="28"/>
       <c r="M444" s="28"/>
       <c r="N444" s="28"/>
@@ -21331,8 +21348,8 @@
       <c r="G445" s="28"/>
       <c r="H445" s="28"/>
       <c r="I445" s="28"/>
-      <c r="J445" s="59"/>
-      <c r="K445" s="59"/>
+      <c r="J445" s="60"/>
+      <c r="K445" s="60"/>
       <c r="L445" s="28"/>
       <c r="M445" s="28"/>
       <c r="N445" s="28"/>
@@ -21376,8 +21393,8 @@
       <c r="G446" s="28"/>
       <c r="H446" s="28"/>
       <c r="I446" s="28"/>
-      <c r="J446" s="59"/>
-      <c r="K446" s="59"/>
+      <c r="J446" s="60"/>
+      <c r="K446" s="60"/>
       <c r="L446" s="28"/>
       <c r="M446" s="28"/>
       <c r="N446" s="28"/>
@@ -21421,8 +21438,8 @@
       <c r="G447" s="28"/>
       <c r="H447" s="28"/>
       <c r="I447" s="28"/>
-      <c r="J447" s="59"/>
-      <c r="K447" s="59"/>
+      <c r="J447" s="60"/>
+      <c r="K447" s="60"/>
       <c r="L447" s="28"/>
       <c r="M447" s="28"/>
       <c r="N447" s="28"/>
@@ -21466,8 +21483,8 @@
       <c r="G448" s="28"/>
       <c r="H448" s="28"/>
       <c r="I448" s="28"/>
-      <c r="J448" s="59"/>
-      <c r="K448" s="59"/>
+      <c r="J448" s="60"/>
+      <c r="K448" s="60"/>
       <c r="L448" s="28"/>
       <c r="M448" s="28"/>
       <c r="N448" s="28"/>
@@ -21511,8 +21528,8 @@
       <c r="G449" s="28"/>
       <c r="H449" s="28"/>
       <c r="I449" s="28"/>
-      <c r="J449" s="59"/>
-      <c r="K449" s="59"/>
+      <c r="J449" s="60"/>
+      <c r="K449" s="60"/>
       <c r="L449" s="28"/>
       <c r="M449" s="28"/>
       <c r="N449" s="28"/>
@@ -21556,8 +21573,8 @@
       <c r="G450" s="28"/>
       <c r="H450" s="28"/>
       <c r="I450" s="28"/>
-      <c r="J450" s="59"/>
-      <c r="K450" s="59"/>
+      <c r="J450" s="60"/>
+      <c r="K450" s="60"/>
       <c r="L450" s="28"/>
       <c r="M450" s="28"/>
       <c r="N450" s="28"/>
@@ -21601,8 +21618,8 @@
       <c r="G451" s="28"/>
       <c r="H451" s="28"/>
       <c r="I451" s="28"/>
-      <c r="J451" s="59"/>
-      <c r="K451" s="59"/>
+      <c r="J451" s="60"/>
+      <c r="K451" s="60"/>
       <c r="L451" s="28"/>
       <c r="M451" s="28"/>
       <c r="N451" s="28"/>
@@ -21646,8 +21663,8 @@
       <c r="G452" s="28"/>
       <c r="H452" s="28"/>
       <c r="I452" s="28"/>
-      <c r="J452" s="59"/>
-      <c r="K452" s="59"/>
+      <c r="J452" s="60"/>
+      <c r="K452" s="60"/>
       <c r="L452" s="28"/>
       <c r="M452" s="28"/>
       <c r="N452" s="28"/>
@@ -21691,8 +21708,8 @@
       <c r="G453" s="28"/>
       <c r="H453" s="28"/>
       <c r="I453" s="28"/>
-      <c r="J453" s="59"/>
-      <c r="K453" s="59"/>
+      <c r="J453" s="60"/>
+      <c r="K453" s="60"/>
       <c r="L453" s="28"/>
       <c r="M453" s="28"/>
       <c r="N453" s="28"/>
@@ -21736,8 +21753,8 @@
       <c r="G454" s="28"/>
       <c r="H454" s="28"/>
       <c r="I454" s="28"/>
-      <c r="J454" s="59"/>
-      <c r="K454" s="59"/>
+      <c r="J454" s="60"/>
+      <c r="K454" s="60"/>
       <c r="L454" s="28"/>
       <c r="M454" s="28"/>
       <c r="N454" s="28"/>
@@ -21781,8 +21798,8 @@
       <c r="G455" s="28"/>
       <c r="H455" s="28"/>
       <c r="I455" s="28"/>
-      <c r="J455" s="59"/>
-      <c r="K455" s="59"/>
+      <c r="J455" s="60"/>
+      <c r="K455" s="60"/>
       <c r="L455" s="28"/>
       <c r="M455" s="28"/>
       <c r="N455" s="28"/>
@@ -21826,8 +21843,8 @@
       <c r="G456" s="28"/>
       <c r="H456" s="28"/>
       <c r="I456" s="28"/>
-      <c r="J456" s="59"/>
-      <c r="K456" s="59"/>
+      <c r="J456" s="60"/>
+      <c r="K456" s="60"/>
       <c r="L456" s="28"/>
       <c r="M456" s="28"/>
       <c r="N456" s="28"/>
@@ -21871,8 +21888,8 @@
       <c r="G457" s="28"/>
       <c r="H457" s="28"/>
       <c r="I457" s="28"/>
-      <c r="J457" s="59"/>
-      <c r="K457" s="59"/>
+      <c r="J457" s="60"/>
+      <c r="K457" s="60"/>
       <c r="L457" s="28"/>
       <c r="M457" s="28"/>
       <c r="N457" s="28"/>
@@ -21916,8 +21933,8 @@
       <c r="G458" s="28"/>
       <c r="H458" s="28"/>
       <c r="I458" s="28"/>
-      <c r="J458" s="59"/>
-      <c r="K458" s="59"/>
+      <c r="J458" s="60"/>
+      <c r="K458" s="60"/>
       <c r="L458" s="28"/>
       <c r="M458" s="28"/>
       <c r="N458" s="28"/>
@@ -21961,8 +21978,8 @@
       <c r="G459" s="28"/>
       <c r="H459" s="28"/>
       <c r="I459" s="28"/>
-      <c r="J459" s="59"/>
-      <c r="K459" s="59"/>
+      <c r="J459" s="60"/>
+      <c r="K459" s="60"/>
       <c r="L459" s="28"/>
       <c r="M459" s="28"/>
       <c r="N459" s="28"/>
@@ -22006,8 +22023,8 @@
       <c r="G460" s="28"/>
       <c r="H460" s="28"/>
       <c r="I460" s="28"/>
-      <c r="J460" s="59"/>
-      <c r="K460" s="59"/>
+      <c r="J460" s="60"/>
+      <c r="K460" s="60"/>
       <c r="L460" s="28"/>
       <c r="M460" s="28"/>
       <c r="N460" s="28"/>
@@ -22051,8 +22068,8 @@
       <c r="G461" s="28"/>
       <c r="H461" s="28"/>
       <c r="I461" s="28"/>
-      <c r="J461" s="59"/>
-      <c r="K461" s="59"/>
+      <c r="J461" s="60"/>
+      <c r="K461" s="60"/>
       <c r="L461" s="28"/>
       <c r="M461" s="28"/>
       <c r="N461" s="28"/>
@@ -22096,8 +22113,8 @@
       <c r="G462" s="28"/>
       <c r="H462" s="28"/>
       <c r="I462" s="28"/>
-      <c r="J462" s="59"/>
-      <c r="K462" s="59"/>
+      <c r="J462" s="60"/>
+      <c r="K462" s="60"/>
       <c r="L462" s="28"/>
       <c r="M462" s="28"/>
       <c r="N462" s="28"/>
@@ -22141,8 +22158,8 @@
       <c r="G463" s="28"/>
       <c r="H463" s="28"/>
       <c r="I463" s="28"/>
-      <c r="J463" s="59"/>
-      <c r="K463" s="59"/>
+      <c r="J463" s="60"/>
+      <c r="K463" s="60"/>
       <c r="L463" s="28"/>
       <c r="M463" s="28"/>
       <c r="N463" s="28"/>
@@ -22186,8 +22203,8 @@
       <c r="G464" s="28"/>
       <c r="H464" s="28"/>
       <c r="I464" s="28"/>
-      <c r="J464" s="59"/>
-      <c r="K464" s="59"/>
+      <c r="J464" s="60"/>
+      <c r="K464" s="60"/>
       <c r="L464" s="28"/>
       <c r="M464" s="28"/>
       <c r="N464" s="28"/>
@@ -22231,8 +22248,8 @@
       <c r="G465" s="28"/>
       <c r="H465" s="28"/>
       <c r="I465" s="28"/>
-      <c r="J465" s="59"/>
-      <c r="K465" s="59"/>
+      <c r="J465" s="60"/>
+      <c r="K465" s="60"/>
       <c r="L465" s="28"/>
       <c r="M465" s="28"/>
       <c r="N465" s="28"/>
@@ -22276,8 +22293,8 @@
       <c r="G466" s="28"/>
       <c r="H466" s="28"/>
       <c r="I466" s="28"/>
-      <c r="J466" s="59"/>
-      <c r="K466" s="59"/>
+      <c r="J466" s="60"/>
+      <c r="K466" s="60"/>
       <c r="L466" s="28"/>
       <c r="M466" s="28"/>
       <c r="N466" s="28"/>
@@ -22321,8 +22338,8 @@
       <c r="G467" s="28"/>
       <c r="H467" s="28"/>
       <c r="I467" s="28"/>
-      <c r="J467" s="59"/>
-      <c r="K467" s="59"/>
+      <c r="J467" s="60"/>
+      <c r="K467" s="60"/>
       <c r="L467" s="28"/>
       <c r="M467" s="28"/>
       <c r="N467" s="28"/>
@@ -22366,8 +22383,8 @@
       <c r="G468" s="28"/>
       <c r="H468" s="28"/>
       <c r="I468" s="28"/>
-      <c r="J468" s="59"/>
-      <c r="K468" s="59"/>
+      <c r="J468" s="60"/>
+      <c r="K468" s="60"/>
       <c r="L468" s="28"/>
       <c r="M468" s="28"/>
       <c r="N468" s="28"/>
@@ -22411,8 +22428,8 @@
       <c r="G469" s="28"/>
       <c r="H469" s="28"/>
       <c r="I469" s="28"/>
-      <c r="J469" s="59"/>
-      <c r="K469" s="59"/>
+      <c r="J469" s="60"/>
+      <c r="K469" s="60"/>
       <c r="L469" s="28"/>
       <c r="M469" s="28"/>
       <c r="N469" s="28"/>
@@ -22456,8 +22473,8 @@
       <c r="G470" s="28"/>
       <c r="H470" s="28"/>
       <c r="I470" s="28"/>
-      <c r="J470" s="59"/>
-      <c r="K470" s="59"/>
+      <c r="J470" s="60"/>
+      <c r="K470" s="60"/>
       <c r="L470" s="28"/>
       <c r="M470" s="28"/>
       <c r="N470" s="28"/>
@@ -22501,8 +22518,8 @@
       <c r="G471" s="28"/>
       <c r="H471" s="28"/>
       <c r="I471" s="28"/>
-      <c r="J471" s="59"/>
-      <c r="K471" s="59"/>
+      <c r="J471" s="60"/>
+      <c r="K471" s="60"/>
       <c r="L471" s="28"/>
       <c r="M471" s="28"/>
       <c r="N471" s="28"/>
@@ -22546,8 +22563,8 @@
       <c r="G472" s="28"/>
       <c r="H472" s="28"/>
       <c r="I472" s="28"/>
-      <c r="J472" s="59"/>
-      <c r="K472" s="59"/>
+      <c r="J472" s="60"/>
+      <c r="K472" s="60"/>
       <c r="L472" s="28"/>
       <c r="M472" s="28"/>
       <c r="N472" s="28"/>
@@ -22591,8 +22608,8 @@
       <c r="G473" s="28"/>
       <c r="H473" s="28"/>
       <c r="I473" s="28"/>
-      <c r="J473" s="59"/>
-      <c r="K473" s="59"/>
+      <c r="J473" s="60"/>
+      <c r="K473" s="60"/>
       <c r="L473" s="28"/>
       <c r="M473" s="28"/>
       <c r="N473" s="28"/>
@@ -22636,8 +22653,8 @@
       <c r="G474" s="28"/>
       <c r="H474" s="28"/>
       <c r="I474" s="28"/>
-      <c r="J474" s="59"/>
-      <c r="K474" s="59"/>
+      <c r="J474" s="60"/>
+      <c r="K474" s="60"/>
       <c r="L474" s="28"/>
       <c r="M474" s="28"/>
       <c r="N474" s="28"/>
@@ -22681,8 +22698,8 @@
       <c r="G475" s="28"/>
       <c r="H475" s="28"/>
       <c r="I475" s="28"/>
-      <c r="J475" s="59"/>
-      <c r="K475" s="59"/>
+      <c r="J475" s="60"/>
+      <c r="K475" s="60"/>
       <c r="L475" s="28"/>
       <c r="M475" s="28"/>
       <c r="N475" s="28"/>
@@ -22726,8 +22743,8 @@
       <c r="G476" s="28"/>
       <c r="H476" s="28"/>
       <c r="I476" s="28"/>
-      <c r="J476" s="59"/>
-      <c r="K476" s="59"/>
+      <c r="J476" s="60"/>
+      <c r="K476" s="60"/>
       <c r="L476" s="28"/>
       <c r="M476" s="28"/>
       <c r="N476" s="28"/>
@@ -22771,8 +22788,8 @@
       <c r="G477" s="28"/>
       <c r="H477" s="28"/>
       <c r="I477" s="28"/>
-      <c r="J477" s="59"/>
-      <c r="K477" s="59"/>
+      <c r="J477" s="60"/>
+      <c r="K477" s="60"/>
       <c r="L477" s="28"/>
       <c r="M477" s="28"/>
       <c r="N477" s="28"/>
@@ -22816,8 +22833,8 @@
       <c r="G478" s="28"/>
       <c r="H478" s="28"/>
       <c r="I478" s="28"/>
-      <c r="J478" s="59"/>
-      <c r="K478" s="59"/>
+      <c r="J478" s="60"/>
+      <c r="K478" s="60"/>
       <c r="L478" s="28"/>
       <c r="M478" s="28"/>
       <c r="N478" s="28"/>
@@ -22861,8 +22878,8 @@
       <c r="G479" s="28"/>
       <c r="H479" s="28"/>
       <c r="I479" s="28"/>
-      <c r="J479" s="59"/>
-      <c r="K479" s="59"/>
+      <c r="J479" s="60"/>
+      <c r="K479" s="60"/>
       <c r="L479" s="28"/>
       <c r="M479" s="28"/>
       <c r="N479" s="28"/>
@@ -22906,8 +22923,8 @@
       <c r="G480" s="28"/>
       <c r="H480" s="28"/>
       <c r="I480" s="28"/>
-      <c r="J480" s="59"/>
-      <c r="K480" s="59"/>
+      <c r="J480" s="60"/>
+      <c r="K480" s="60"/>
       <c r="L480" s="28"/>
       <c r="M480" s="28"/>
       <c r="N480" s="28"/>
@@ -22951,8 +22968,8 @@
       <c r="G481" s="28"/>
       <c r="H481" s="28"/>
       <c r="I481" s="28"/>
-      <c r="J481" s="59"/>
-      <c r="K481" s="59"/>
+      <c r="J481" s="60"/>
+      <c r="K481" s="60"/>
       <c r="L481" s="28"/>
       <c r="M481" s="28"/>
       <c r="N481" s="28"/>
@@ -22996,8 +23013,8 @@
       <c r="G482" s="28"/>
       <c r="H482" s="28"/>
       <c r="I482" s="28"/>
-      <c r="J482" s="59"/>
-      <c r="K482" s="59"/>
+      <c r="J482" s="60"/>
+      <c r="K482" s="60"/>
       <c r="L482" s="28"/>
       <c r="M482" s="28"/>
       <c r="N482" s="28"/>
@@ -23041,8 +23058,8 @@
       <c r="G483" s="28"/>
       <c r="H483" s="28"/>
       <c r="I483" s="28"/>
-      <c r="J483" s="59"/>
-      <c r="K483" s="59"/>
+      <c r="J483" s="60"/>
+      <c r="K483" s="60"/>
       <c r="L483" s="28"/>
       <c r="M483" s="28"/>
       <c r="N483" s="28"/>
@@ -23086,8 +23103,8 @@
       <c r="G484" s="28"/>
       <c r="H484" s="28"/>
       <c r="I484" s="28"/>
-      <c r="J484" s="59"/>
-      <c r="K484" s="59"/>
+      <c r="J484" s="60"/>
+      <c r="K484" s="60"/>
       <c r="L484" s="28"/>
       <c r="M484" s="28"/>
       <c r="N484" s="28"/>
@@ -23131,8 +23148,8 @@
       <c r="G485" s="28"/>
       <c r="H485" s="28"/>
       <c r="I485" s="28"/>
-      <c r="J485" s="59"/>
-      <c r="K485" s="59"/>
+      <c r="J485" s="60"/>
+      <c r="K485" s="60"/>
       <c r="L485" s="28"/>
       <c r="M485" s="28"/>
       <c r="N485" s="28"/>
@@ -23176,8 +23193,8 @@
       <c r="G486" s="28"/>
       <c r="H486" s="28"/>
       <c r="I486" s="28"/>
-      <c r="J486" s="59"/>
-      <c r="K486" s="59"/>
+      <c r="J486" s="60"/>
+      <c r="K486" s="60"/>
       <c r="L486" s="28"/>
       <c r="M486" s="28"/>
       <c r="N486" s="28"/>
@@ -23221,8 +23238,8 @@
       <c r="G487" s="28"/>
       <c r="H487" s="28"/>
       <c r="I487" s="28"/>
-      <c r="J487" s="59"/>
-      <c r="K487" s="59"/>
+      <c r="J487" s="60"/>
+      <c r="K487" s="60"/>
       <c r="L487" s="28"/>
       <c r="M487" s="28"/>
       <c r="N487" s="28"/>
@@ -23266,8 +23283,8 @@
       <c r="G488" s="28"/>
       <c r="H488" s="28"/>
       <c r="I488" s="28"/>
-      <c r="J488" s="59"/>
-      <c r="K488" s="59"/>
+      <c r="J488" s="60"/>
+      <c r="K488" s="60"/>
       <c r="L488" s="28"/>
       <c r="M488" s="28"/>
       <c r="N488" s="28"/>
@@ -23311,8 +23328,8 @@
       <c r="G489" s="28"/>
       <c r="H489" s="28"/>
       <c r="I489" s="28"/>
-      <c r="J489" s="59"/>
-      <c r="K489" s="59"/>
+      <c r="J489" s="60"/>
+      <c r="K489" s="60"/>
       <c r="L489" s="28"/>
       <c r="M489" s="28"/>
       <c r="N489" s="28"/>
@@ -23356,8 +23373,8 @@
       <c r="G490" s="28"/>
       <c r="H490" s="28"/>
       <c r="I490" s="28"/>
-      <c r="J490" s="59"/>
-      <c r="K490" s="59"/>
+      <c r="J490" s="60"/>
+      <c r="K490" s="60"/>
       <c r="L490" s="28"/>
       <c r="M490" s="28"/>
       <c r="N490" s="28"/>
@@ -23401,8 +23418,8 @@
       <c r="G491" s="28"/>
       <c r="H491" s="28"/>
       <c r="I491" s="28"/>
-      <c r="J491" s="59"/>
-      <c r="K491" s="59"/>
+      <c r="J491" s="60"/>
+      <c r="K491" s="60"/>
       <c r="L491" s="28"/>
       <c r="M491" s="28"/>
       <c r="N491" s="28"/>
@@ -23446,8 +23463,8 @@
       <c r="G492" s="28"/>
       <c r="H492" s="28"/>
       <c r="I492" s="28"/>
-      <c r="J492" s="59"/>
-      <c r="K492" s="59"/>
+      <c r="J492" s="60"/>
+      <c r="K492" s="60"/>
       <c r="L492" s="28"/>
       <c r="M492" s="28"/>
       <c r="N492" s="28"/>
@@ -23491,8 +23508,8 @@
       <c r="G493" s="28"/>
       <c r="H493" s="28"/>
       <c r="I493" s="28"/>
-      <c r="J493" s="59"/>
-      <c r="K493" s="59"/>
+      <c r="J493" s="60"/>
+      <c r="K493" s="60"/>
       <c r="L493" s="28"/>
       <c r="M493" s="28"/>
       <c r="N493" s="28"/>
@@ -23536,8 +23553,8 @@
       <c r="G494" s="28"/>
       <c r="H494" s="28"/>
       <c r="I494" s="28"/>
-      <c r="J494" s="59"/>
-      <c r="K494" s="59"/>
+      <c r="J494" s="60"/>
+      <c r="K494" s="60"/>
       <c r="L494" s="28"/>
       <c r="M494" s="28"/>
       <c r="N494" s="28"/>
@@ -23581,8 +23598,8 @@
       <c r="G495" s="28"/>
       <c r="H495" s="28"/>
       <c r="I495" s="28"/>
-      <c r="J495" s="59"/>
-      <c r="K495" s="59"/>
+      <c r="J495" s="60"/>
+      <c r="K495" s="60"/>
       <c r="L495" s="28"/>
       <c r="M495" s="28"/>
       <c r="N495" s="28"/>
@@ -23626,8 +23643,8 @@
       <c r="G496" s="28"/>
       <c r="H496" s="28"/>
       <c r="I496" s="28"/>
-      <c r="J496" s="59"/>
-      <c r="K496" s="59"/>
+      <c r="J496" s="60"/>
+      <c r="K496" s="60"/>
       <c r="L496" s="28"/>
       <c r="M496" s="28"/>
       <c r="N496" s="28"/>
@@ -23671,8 +23688,8 @@
       <c r="G497" s="28"/>
       <c r="H497" s="28"/>
       <c r="I497" s="28"/>
-      <c r="J497" s="59"/>
-      <c r="K497" s="59"/>
+      <c r="J497" s="60"/>
+      <c r="K497" s="60"/>
       <c r="L497" s="28"/>
       <c r="M497" s="28"/>
       <c r="N497" s="28"/>
@@ -23716,8 +23733,8 @@
       <c r="G498" s="28"/>
       <c r="H498" s="28"/>
       <c r="I498" s="28"/>
-      <c r="J498" s="59"/>
-      <c r="K498" s="59"/>
+      <c r="J498" s="60"/>
+      <c r="K498" s="60"/>
       <c r="L498" s="28"/>
       <c r="M498" s="28"/>
       <c r="N498" s="28"/>
@@ -23761,8 +23778,8 @@
       <c r="G499" s="28"/>
       <c r="H499" s="28"/>
       <c r="I499" s="28"/>
-      <c r="J499" s="59"/>
-      <c r="K499" s="59"/>
+      <c r="J499" s="60"/>
+      <c r="K499" s="60"/>
       <c r="L499" s="28"/>
       <c r="M499" s="28"/>
       <c r="N499" s="28"/>
@@ -23806,8 +23823,8 @@
       <c r="G500" s="28"/>
       <c r="H500" s="28"/>
       <c r="I500" s="28"/>
-      <c r="J500" s="59"/>
-      <c r="K500" s="59"/>
+      <c r="J500" s="60"/>
+      <c r="K500" s="60"/>
       <c r="L500" s="28"/>
       <c r="M500" s="28"/>
       <c r="N500" s="28"/>
@@ -23851,8 +23868,8 @@
       <c r="G501" s="28"/>
       <c r="H501" s="28"/>
       <c r="I501" s="28"/>
-      <c r="J501" s="59"/>
-      <c r="K501" s="59"/>
+      <c r="J501" s="60"/>
+      <c r="K501" s="60"/>
       <c r="L501" s="28"/>
       <c r="M501" s="28"/>
       <c r="N501" s="28"/>
@@ -23896,8 +23913,8 @@
       <c r="G502" s="28"/>
       <c r="H502" s="28"/>
       <c r="I502" s="28"/>
-      <c r="J502" s="59"/>
-      <c r="K502" s="59"/>
+      <c r="J502" s="60"/>
+      <c r="K502" s="60"/>
       <c r="L502" s="28"/>
       <c r="M502" s="28"/>
       <c r="N502" s="28"/>
@@ -23941,8 +23958,8 @@
       <c r="G503" s="28"/>
       <c r="H503" s="28"/>
       <c r="I503" s="28"/>
-      <c r="J503" s="59"/>
-      <c r="K503" s="59"/>
+      <c r="J503" s="60"/>
+      <c r="K503" s="60"/>
       <c r="L503" s="28"/>
       <c r="M503" s="28"/>
       <c r="N503" s="28"/>
@@ -23986,8 +24003,8 @@
       <c r="G504" s="28"/>
       <c r="H504" s="28"/>
       <c r="I504" s="28"/>
-      <c r="J504" s="59"/>
-      <c r="K504" s="59"/>
+      <c r="J504" s="60"/>
+      <c r="K504" s="60"/>
       <c r="L504" s="28"/>
       <c r="M504" s="28"/>
       <c r="N504" s="28"/>
@@ -24031,8 +24048,8 @@
       <c r="G505" s="28"/>
       <c r="H505" s="28"/>
       <c r="I505" s="28"/>
-      <c r="J505" s="59"/>
-      <c r="K505" s="59"/>
+      <c r="J505" s="60"/>
+      <c r="K505" s="60"/>
       <c r="L505" s="28"/>
       <c r="M505" s="28"/>
       <c r="N505" s="28"/>
@@ -24076,8 +24093,8 @@
       <c r="G506" s="28"/>
       <c r="H506" s="28"/>
       <c r="I506" s="28"/>
-      <c r="J506" s="59"/>
-      <c r="K506" s="59"/>
+      <c r="J506" s="60"/>
+      <c r="K506" s="60"/>
       <c r="L506" s="28"/>
       <c r="M506" s="28"/>
       <c r="N506" s="28"/>
@@ -24121,8 +24138,8 @@
       <c r="G507" s="28"/>
       <c r="H507" s="28"/>
       <c r="I507" s="28"/>
-      <c r="J507" s="59"/>
-      <c r="K507" s="59"/>
+      <c r="J507" s="60"/>
+      <c r="K507" s="60"/>
       <c r="L507" s="28"/>
       <c r="M507" s="28"/>
       <c r="N507" s="28"/>
@@ -24166,8 +24183,8 @@
       <c r="G508" s="28"/>
       <c r="H508" s="28"/>
       <c r="I508" s="28"/>
-      <c r="J508" s="59"/>
-      <c r="K508" s="59"/>
+      <c r="J508" s="60"/>
+      <c r="K508" s="60"/>
       <c r="L508" s="28"/>
       <c r="M508" s="28"/>
       <c r="N508" s="28"/>
@@ -24211,8 +24228,8 @@
       <c r="G509" s="28"/>
       <c r="H509" s="28"/>
       <c r="I509" s="28"/>
-      <c r="J509" s="59"/>
-      <c r="K509" s="59"/>
+      <c r="J509" s="60"/>
+      <c r="K509" s="60"/>
       <c r="L509" s="28"/>
       <c r="M509" s="28"/>
       <c r="N509" s="28"/>
@@ -24256,8 +24273,8 @@
       <c r="G510" s="28"/>
       <c r="H510" s="28"/>
       <c r="I510" s="28"/>
-      <c r="J510" s="59"/>
-      <c r="K510" s="59"/>
+      <c r="J510" s="60"/>
+      <c r="K510" s="60"/>
       <c r="L510" s="28"/>
       <c r="M510" s="28"/>
       <c r="N510" s="28"/>
@@ -24301,8 +24318,8 @@
       <c r="G511" s="28"/>
       <c r="H511" s="28"/>
       <c r="I511" s="28"/>
-      <c r="J511" s="59"/>
-      <c r="K511" s="59"/>
+      <c r="J511" s="60"/>
+      <c r="K511" s="60"/>
       <c r="L511" s="28"/>
       <c r="M511" s="28"/>
       <c r="N511" s="28"/>
@@ -24346,8 +24363,8 @@
       <c r="G512" s="28"/>
       <c r="H512" s="28"/>
       <c r="I512" s="28"/>
-      <c r="J512" s="59"/>
-      <c r="K512" s="59"/>
+      <c r="J512" s="60"/>
+      <c r="K512" s="60"/>
       <c r="L512" s="28"/>
       <c r="M512" s="28"/>
       <c r="N512" s="28"/>
@@ -24391,8 +24408,8 @@
       <c r="G513" s="28"/>
       <c r="H513" s="28"/>
       <c r="I513" s="28"/>
-      <c r="J513" s="59"/>
-      <c r="K513" s="59"/>
+      <c r="J513" s="60"/>
+      <c r="K513" s="60"/>
       <c r="L513" s="28"/>
       <c r="M513" s="28"/>
       <c r="N513" s="28"/>
@@ -24436,8 +24453,8 @@
       <c r="G514" s="28"/>
       <c r="H514" s="28"/>
       <c r="I514" s="28"/>
-      <c r="J514" s="59"/>
-      <c r="K514" s="59"/>
+      <c r="J514" s="60"/>
+      <c r="K514" s="60"/>
       <c r="L514" s="28"/>
       <c r="M514" s="28"/>
       <c r="N514" s="28"/>
@@ -24481,8 +24498,8 @@
       <c r="G515" s="28"/>
       <c r="H515" s="28"/>
       <c r="I515" s="28"/>
-      <c r="J515" s="59"/>
-      <c r="K515" s="59"/>
+      <c r="J515" s="60"/>
+      <c r="K515" s="60"/>
       <c r="L515" s="28"/>
       <c r="M515" s="28"/>
       <c r="N515" s="28"/>
@@ -24526,8 +24543,8 @@
       <c r="G516" s="28"/>
       <c r="H516" s="28"/>
       <c r="I516" s="28"/>
-      <c r="J516" s="59"/>
-      <c r="K516" s="59"/>
+      <c r="J516" s="60"/>
+      <c r="K516" s="60"/>
       <c r="L516" s="28"/>
       <c r="M516" s="28"/>
       <c r="N516" s="28"/>
@@ -24571,8 +24588,8 @@
       <c r="G517" s="28"/>
       <c r="H517" s="28"/>
       <c r="I517" s="28"/>
-      <c r="J517" s="59"/>
-      <c r="K517" s="59"/>
+      <c r="J517" s="60"/>
+      <c r="K517" s="60"/>
       <c r="L517" s="28"/>
       <c r="M517" s="28"/>
       <c r="N517" s="28"/>
@@ -24616,8 +24633,8 @@
       <c r="G518" s="28"/>
       <c r="H518" s="28"/>
       <c r="I518" s="28"/>
-      <c r="J518" s="59"/>
-      <c r="K518" s="59"/>
+      <c r="J518" s="60"/>
+      <c r="K518" s="60"/>
       <c r="L518" s="28"/>
       <c r="M518" s="28"/>
       <c r="N518" s="28"/>
@@ -24661,8 +24678,8 @@
       <c r="G519" s="28"/>
       <c r="H519" s="28"/>
       <c r="I519" s="28"/>
-      <c r="J519" s="59"/>
-      <c r="K519" s="59"/>
+      <c r="J519" s="60"/>
+      <c r="K519" s="60"/>
       <c r="L519" s="28"/>
       <c r="M519" s="28"/>
       <c r="N519" s="28"/>
@@ -24706,8 +24723,8 @@
       <c r="G520" s="28"/>
       <c r="H520" s="28"/>
       <c r="I520" s="28"/>
-      <c r="J520" s="59"/>
-      <c r="K520" s="59"/>
+      <c r="J520" s="60"/>
+      <c r="K520" s="60"/>
       <c r="L520" s="28"/>
       <c r="M520" s="28"/>
       <c r="N520" s="28"/>
@@ -24751,8 +24768,8 @@
       <c r="G521" s="28"/>
       <c r="H521" s="28"/>
       <c r="I521" s="28"/>
-      <c r="J521" s="59"/>
-      <c r="K521" s="59"/>
+      <c r="J521" s="60"/>
+      <c r="K521" s="60"/>
       <c r="L521" s="28"/>
       <c r="M521" s="28"/>
       <c r="N521" s="28"/>
@@ -24796,8 +24813,8 @@
       <c r="G522" s="28"/>
       <c r="H522" s="28"/>
       <c r="I522" s="28"/>
-      <c r="J522" s="59"/>
-      <c r="K522" s="59"/>
+      <c r="J522" s="60"/>
+      <c r="K522" s="60"/>
       <c r="L522" s="28"/>
       <c r="M522" s="28"/>
       <c r="N522" s="28"/>
@@ -24841,8 +24858,8 @@
       <c r="G523" s="28"/>
       <c r="H523" s="28"/>
       <c r="I523" s="28"/>
-      <c r="J523" s="59"/>
-      <c r="K523" s="59"/>
+      <c r="J523" s="60"/>
+      <c r="K523" s="60"/>
       <c r="L523" s="28"/>
       <c r="M523" s="28"/>
       <c r="N523" s="28"/>
@@ -24886,8 +24903,8 @@
       <c r="G524" s="28"/>
       <c r="H524" s="28"/>
       <c r="I524" s="28"/>
-      <c r="J524" s="59"/>
-      <c r="K524" s="59"/>
+      <c r="J524" s="60"/>
+      <c r="K524" s="60"/>
       <c r="L524" s="28"/>
       <c r="M524" s="28"/>
       <c r="N524" s="28"/>
@@ -24931,8 +24948,8 @@
       <c r="G525" s="28"/>
       <c r="H525" s="28"/>
       <c r="I525" s="28"/>
-      <c r="J525" s="59"/>
-      <c r="K525" s="59"/>
+      <c r="J525" s="60"/>
+      <c r="K525" s="60"/>
       <c r="L525" s="28"/>
       <c r="M525" s="28"/>
       <c r="N525" s="28"/>
@@ -24976,8 +24993,8 @@
       <c r="G526" s="28"/>
       <c r="H526" s="28"/>
       <c r="I526" s="28"/>
-      <c r="J526" s="59"/>
-      <c r="K526" s="59"/>
+      <c r="J526" s="60"/>
+      <c r="K526" s="60"/>
       <c r="L526" s="28"/>
       <c r="M526" s="28"/>
       <c r="N526" s="28"/>
@@ -25021,8 +25038,8 @@
       <c r="G527" s="28"/>
       <c r="H527" s="28"/>
       <c r="I527" s="28"/>
-      <c r="J527" s="59"/>
-      <c r="K527" s="59"/>
+      <c r="J527" s="60"/>
+      <c r="K527" s="60"/>
       <c r="L527" s="28"/>
       <c r="M527" s="28"/>
       <c r="N527" s="28"/>
@@ -25066,8 +25083,8 @@
       <c r="G528" s="28"/>
       <c r="H528" s="28"/>
       <c r="I528" s="28"/>
-      <c r="J528" s="59"/>
-      <c r="K528" s="59"/>
+      <c r="J528" s="60"/>
+      <c r="K528" s="60"/>
       <c r="L528" s="28"/>
       <c r="M528" s="28"/>
       <c r="N528" s="28"/>
@@ -25111,8 +25128,8 @@
       <c r="G529" s="28"/>
       <c r="H529" s="28"/>
       <c r="I529" s="28"/>
-      <c r="J529" s="59"/>
-      <c r="K529" s="59"/>
+      <c r="J529" s="60"/>
+      <c r="K529" s="60"/>
       <c r="L529" s="28"/>
       <c r="M529" s="28"/>
       <c r="N529" s="28"/>
@@ -25156,8 +25173,8 @@
       <c r="G530" s="28"/>
       <c r="H530" s="28"/>
       <c r="I530" s="28"/>
-      <c r="J530" s="59"/>
-      <c r="K530" s="59"/>
+      <c r="J530" s="60"/>
+      <c r="K530" s="60"/>
       <c r="L530" s="28"/>
       <c r="M530" s="28"/>
       <c r="N530" s="28"/>
@@ -25201,8 +25218,8 @@
       <c r="G531" s="28"/>
       <c r="H531" s="28"/>
       <c r="I531" s="28"/>
-      <c r="J531" s="59"/>
-      <c r="K531" s="59"/>
+      <c r="J531" s="60"/>
+      <c r="K531" s="60"/>
       <c r="L531" s="28"/>
       <c r="M531" s="28"/>
       <c r="N531" s="28"/>
@@ -25246,8 +25263,8 @@
       <c r="G532" s="28"/>
       <c r="H532" s="28"/>
       <c r="I532" s="28"/>
-      <c r="J532" s="59"/>
-      <c r="K532" s="59"/>
+      <c r="J532" s="60"/>
+      <c r="K532" s="60"/>
       <c r="L532" s="28"/>
       <c r="M532" s="28"/>
       <c r="N532" s="28"/>
@@ -25291,8 +25308,8 @@
       <c r="G533" s="28"/>
       <c r="H533" s="28"/>
       <c r="I533" s="28"/>
-      <c r="J533" s="59"/>
-      <c r="K533" s="59"/>
+      <c r="J533" s="60"/>
+      <c r="K533" s="60"/>
       <c r="L533" s="28"/>
       <c r="M533" s="28"/>
       <c r="N533" s="28"/>
@@ -25336,8 +25353,8 @@
       <c r="G534" s="28"/>
       <c r="H534" s="28"/>
       <c r="I534" s="28"/>
-      <c r="J534" s="59"/>
-      <c r="K534" s="59"/>
+      <c r="J534" s="60"/>
+      <c r="K534" s="60"/>
       <c r="L534" s="28"/>
       <c r="M534" s="28"/>
       <c r="N534" s="28"/>
@@ -25381,8 +25398,8 @@
       <c r="G535" s="28"/>
       <c r="H535" s="28"/>
       <c r="I535" s="28"/>
-      <c r="J535" s="59"/>
-      <c r="K535" s="59"/>
+      <c r="J535" s="60"/>
+      <c r="K535" s="60"/>
       <c r="L535" s="28"/>
       <c r="M535" s="28"/>
       <c r="N535" s="28"/>
@@ -25426,8 +25443,8 @@
       <c r="G536" s="28"/>
       <c r="H536" s="28"/>
       <c r="I536" s="28"/>
-      <c r="J536" s="59"/>
-      <c r="K536" s="59"/>
+      <c r="J536" s="60"/>
+      <c r="K536" s="60"/>
       <c r="L536" s="28"/>
       <c r="M536" s="28"/>
       <c r="N536" s="28"/>
@@ -25471,8 +25488,8 @@
       <c r="G537" s="28"/>
       <c r="H537" s="28"/>
       <c r="I537" s="28"/>
-      <c r="J537" s="59"/>
-      <c r="K537" s="59"/>
+      <c r="J537" s="60"/>
+      <c r="K537" s="60"/>
       <c r="L537" s="28"/>
       <c r="M537" s="28"/>
       <c r="N537" s="28"/>
@@ -25516,8 +25533,8 @@
       <c r="G538" s="28"/>
       <c r="H538" s="28"/>
       <c r="I538" s="28"/>
-      <c r="J538" s="59"/>
-      <c r="K538" s="59"/>
+      <c r="J538" s="60"/>
+      <c r="K538" s="60"/>
       <c r="L538" s="28"/>
       <c r="M538" s="28"/>
       <c r="N538" s="28"/>
@@ -25561,8 +25578,8 @@
       <c r="G539" s="28"/>
       <c r="H539" s="28"/>
       <c r="I539" s="28"/>
-      <c r="J539" s="59"/>
-      <c r="K539" s="59"/>
+      <c r="J539" s="60"/>
+      <c r="K539" s="60"/>
       <c r="L539" s="28"/>
       <c r="M539" s="28"/>
       <c r="N539" s="28"/>
@@ -25606,8 +25623,8 @@
       <c r="G540" s="28"/>
       <c r="H540" s="28"/>
       <c r="I540" s="28"/>
-      <c r="J540" s="59"/>
-      <c r="K540" s="59"/>
+      <c r="J540" s="60"/>
+      <c r="K540" s="60"/>
       <c r="L540" s="28"/>
       <c r="M540" s="28"/>
       <c r="N540" s="28"/>
@@ -25651,8 +25668,8 @@
       <c r="G541" s="28"/>
       <c r="H541" s="28"/>
       <c r="I541" s="28"/>
-      <c r="J541" s="59"/>
-      <c r="K541" s="59"/>
+      <c r="J541" s="60"/>
+      <c r="K541" s="60"/>
       <c r="L541" s="28"/>
       <c r="M541" s="28"/>
       <c r="N541" s="28"/>
@@ -25696,8 +25713,8 @@
       <c r="G542" s="28"/>
       <c r="H542" s="28"/>
       <c r="I542" s="28"/>
-      <c r="J542" s="59"/>
-      <c r="K542" s="59"/>
+      <c r="J542" s="60"/>
+      <c r="K542" s="60"/>
       <c r="L542" s="28"/>
       <c r="M542" s="28"/>
       <c r="N542" s="28"/>
@@ -25741,8 +25758,8 @@
       <c r="G543" s="28"/>
       <c r="H543" s="28"/>
       <c r="I543" s="28"/>
-      <c r="J543" s="59"/>
-      <c r="K543" s="59"/>
+      <c r="J543" s="60"/>
+      <c r="K543" s="60"/>
       <c r="L543" s="28"/>
       <c r="M543" s="28"/>
       <c r="N543" s="28"/>
@@ -25786,8 +25803,8 @@
       <c r="G544" s="28"/>
       <c r="H544" s="28"/>
       <c r="I544" s="28"/>
-      <c r="J544" s="59"/>
-      <c r="K544" s="59"/>
+      <c r="J544" s="60"/>
+      <c r="K544" s="60"/>
       <c r="L544" s="28"/>
       <c r="M544" s="28"/>
       <c r="N544" s="28"/>
@@ -25831,8 +25848,8 @@
       <c r="G545" s="28"/>
       <c r="H545" s="28"/>
       <c r="I545" s="28"/>
-      <c r="J545" s="59"/>
-      <c r="K545" s="59"/>
+      <c r="J545" s="60"/>
+      <c r="K545" s="60"/>
       <c r="L545" s="28"/>
       <c r="M545" s="28"/>
       <c r="N545" s="28"/>
@@ -25876,8 +25893,8 @@
       <c r="G546" s="28"/>
       <c r="H546" s="28"/>
       <c r="I546" s="28"/>
-      <c r="J546" s="59"/>
-      <c r="K546" s="59"/>
+      <c r="J546" s="60"/>
+      <c r="K546" s="60"/>
       <c r="L546" s="28"/>
       <c r="M546" s="28"/>
       <c r="N546" s="28"/>
@@ -25921,8 +25938,8 @@
       <c r="G547" s="28"/>
       <c r="H547" s="28"/>
       <c r="I547" s="28"/>
-      <c r="J547" s="59"/>
-      <c r="K547" s="59"/>
+      <c r="J547" s="60"/>
+      <c r="K547" s="60"/>
       <c r="L547" s="28"/>
       <c r="M547" s="28"/>
       <c r="N547" s="28"/>
@@ -25966,8 +25983,8 @@
       <c r="G548" s="28"/>
       <c r="H548" s="28"/>
       <c r="I548" s="28"/>
-      <c r="J548" s="59"/>
-      <c r="K548" s="59"/>
+      <c r="J548" s="60"/>
+      <c r="K548" s="60"/>
       <c r="L548" s="28"/>
       <c r="M548" s="28"/>
       <c r="N548" s="28"/>
@@ -26011,8 +26028,8 @@
       <c r="G549" s="28"/>
       <c r="H549" s="28"/>
       <c r="I549" s="28"/>
-      <c r="J549" s="59"/>
-      <c r="K549" s="59"/>
+      <c r="J549" s="60"/>
+      <c r="K549" s="60"/>
       <c r="L549" s="28"/>
       <c r="M549" s="28"/>
       <c r="N549" s="28"/>
@@ -26056,8 +26073,8 @@
       <c r="G550" s="28"/>
       <c r="H550" s="28"/>
       <c r="I550" s="28"/>
-      <c r="J550" s="59"/>
-      <c r="K550" s="59"/>
+      <c r="J550" s="60"/>
+      <c r="K550" s="60"/>
       <c r="L550" s="28"/>
       <c r="M550" s="28"/>
       <c r="N550" s="28"/>
@@ -26101,8 +26118,8 @@
       <c r="G551" s="28"/>
       <c r="H551" s="28"/>
       <c r="I551" s="28"/>
-      <c r="J551" s="59"/>
-      <c r="K551" s="59"/>
+      <c r="J551" s="60"/>
+      <c r="K551" s="60"/>
       <c r="L551" s="28"/>
       <c r="M551" s="28"/>
       <c r="N551" s="28"/>
@@ -26146,8 +26163,8 @@
       <c r="G552" s="28"/>
       <c r="H552" s="28"/>
       <c r="I552" s="28"/>
-      <c r="J552" s="59"/>
-      <c r="K552" s="59"/>
+      <c r="J552" s="60"/>
+      <c r="K552" s="60"/>
       <c r="L552" s="28"/>
       <c r="M552" s="28"/>
       <c r="N552" s="28"/>
@@ -26191,8 +26208,8 @@
       <c r="G553" s="28"/>
       <c r="H553" s="28"/>
       <c r="I553" s="28"/>
-      <c r="J553" s="59"/>
-      <c r="K553" s="59"/>
+      <c r="J553" s="60"/>
+      <c r="K553" s="60"/>
       <c r="L553" s="28"/>
       <c r="M553" s="28"/>
       <c r="N553" s="28"/>
@@ -26236,8 +26253,8 @@
       <c r="G554" s="28"/>
       <c r="H554" s="28"/>
       <c r="I554" s="28"/>
-      <c r="J554" s="59"/>
-      <c r="K554" s="59"/>
+      <c r="J554" s="60"/>
+      <c r="K554" s="60"/>
       <c r="L554" s="28"/>
       <c r="M554" s="28"/>
       <c r="N554" s="28"/>
@@ -26281,8 +26298,8 @@
       <c r="G555" s="28"/>
       <c r="H555" s="28"/>
       <c r="I555" s="28"/>
-      <c r="J555" s="59"/>
-      <c r="K555" s="59"/>
+      <c r="J555" s="60"/>
+      <c r="K555" s="60"/>
       <c r="L555" s="28"/>
       <c r="M555" s="28"/>
       <c r="N555" s="28"/>
@@ -26326,8 +26343,8 @@
       <c r="G556" s="28"/>
       <c r="H556" s="28"/>
       <c r="I556" s="28"/>
-      <c r="J556" s="59"/>
-      <c r="K556" s="59"/>
+      <c r="J556" s="60"/>
+      <c r="K556" s="60"/>
       <c r="L556" s="28"/>
       <c r="M556" s="28"/>
       <c r="N556" s="28"/>
@@ -26371,8 +26388,8 @@
       <c r="G557" s="28"/>
       <c r="H557" s="28"/>
       <c r="I557" s="28"/>
-      <c r="J557" s="59"/>
-      <c r="K557" s="59"/>
+      <c r="J557" s="60"/>
+      <c r="K557" s="60"/>
       <c r="L557" s="28"/>
       <c r="M557" s="28"/>
       <c r="N557" s="28"/>
@@ -26416,8 +26433,8 @@
       <c r="G558" s="28"/>
       <c r="H558" s="28"/>
       <c r="I558" s="28"/>
-      <c r="J558" s="59"/>
-      <c r="K558" s="59"/>
+      <c r="J558" s="60"/>
+      <c r="K558" s="60"/>
       <c r="L558" s="28"/>
       <c r="M558" s="28"/>
       <c r="N558" s="28"/>
@@ -26461,8 +26478,8 @@
       <c r="G559" s="28"/>
       <c r="H559" s="28"/>
       <c r="I559" s="28"/>
-      <c r="J559" s="59"/>
-      <c r="K559" s="59"/>
+      <c r="J559" s="60"/>
+      <c r="K559" s="60"/>
       <c r="L559" s="28"/>
       <c r="M559" s="28"/>
       <c r="N559" s="28"/>
@@ -26506,8 +26523,8 @@
       <c r="G560" s="28"/>
       <c r="H560" s="28"/>
       <c r="I560" s="28"/>
-      <c r="J560" s="59"/>
-      <c r="K560" s="59"/>
+      <c r="J560" s="60"/>
+      <c r="K560" s="60"/>
       <c r="L560" s="28"/>
       <c r="M560" s="28"/>
       <c r="N560" s="28"/>
@@ -26551,8 +26568,8 @@
       <c r="G561" s="28"/>
       <c r="H561" s="28"/>
       <c r="I561" s="28"/>
-      <c r="J561" s="59"/>
-      <c r="K561" s="59"/>
+      <c r="J561" s="60"/>
+      <c r="K561" s="60"/>
       <c r="L561" s="28"/>
       <c r="M561" s="28"/>
       <c r="N561" s="28"/>
@@ -26596,8 +26613,8 @@
       <c r="G562" s="28"/>
       <c r="H562" s="28"/>
       <c r="I562" s="28"/>
-      <c r="J562" s="59"/>
-      <c r="K562" s="59"/>
+      <c r="J562" s="60"/>
+      <c r="K562" s="60"/>
       <c r="L562" s="28"/>
       <c r="M562" s="28"/>
       <c r="N562" s="28"/>
@@ -26641,8 +26658,8 @@
       <c r="G563" s="28"/>
       <c r="H563" s="28"/>
       <c r="I563" s="28"/>
-      <c r="J563" s="59"/>
-      <c r="K563" s="59"/>
+      <c r="J563" s="60"/>
+      <c r="K563" s="60"/>
       <c r="L563" s="28"/>
       <c r="M563" s="28"/>
       <c r="N563" s="28"/>
@@ -26686,8 +26703,8 @@
       <c r="G564" s="28"/>
       <c r="H564" s="28"/>
       <c r="I564" s="28"/>
-      <c r="J564" s="59"/>
-      <c r="K564" s="59"/>
+      <c r="J564" s="60"/>
+      <c r="K564" s="60"/>
       <c r="L564" s="28"/>
       <c r="M564" s="28"/>
       <c r="N564" s="28"/>
@@ -26731,8 +26748,8 @@
       <c r="G565" s="28"/>
       <c r="H565" s="28"/>
       <c r="I565" s="28"/>
-      <c r="J565" s="59"/>
-      <c r="K565" s="59"/>
+      <c r="J565" s="60"/>
+      <c r="K565" s="60"/>
       <c r="L565" s="28"/>
       <c r="M565" s="28"/>
       <c r="N565" s="28"/>
@@ -26776,8 +26793,8 @@
       <c r="G566" s="28"/>
       <c r="H566" s="28"/>
       <c r="I566" s="28"/>
-      <c r="J566" s="59"/>
-      <c r="K566" s="59"/>
+      <c r="J566" s="60"/>
+      <c r="K566" s="60"/>
       <c r="L566" s="28"/>
       <c r="M566" s="28"/>
       <c r="N566" s="28"/>
@@ -26821,8 +26838,8 @@
       <c r="G567" s="28"/>
       <c r="H567" s="28"/>
       <c r="I567" s="28"/>
-      <c r="J567" s="59"/>
-      <c r="K567" s="59"/>
+      <c r="J567" s="60"/>
+      <c r="K567" s="60"/>
       <c r="L567" s="28"/>
       <c r="M567" s="28"/>
       <c r="N567" s="28"/>
@@ -26866,8 +26883,8 @@
       <c r="G568" s="28"/>
       <c r="H568" s="28"/>
       <c r="I568" s="28"/>
-      <c r="J568" s="59"/>
-      <c r="K568" s="59"/>
+      <c r="J568" s="60"/>
+      <c r="K568" s="60"/>
       <c r="L568" s="28"/>
       <c r="M568" s="28"/>
       <c r="N568" s="28"/>
@@ -26911,8 +26928,8 @@
       <c r="G569" s="28"/>
       <c r="H569" s="28"/>
       <c r="I569" s="28"/>
-      <c r="J569" s="59"/>
-      <c r="K569" s="59"/>
+      <c r="J569" s="60"/>
+      <c r="K569" s="60"/>
       <c r="L569" s="28"/>
       <c r="M569" s="28"/>
       <c r="N569" s="28"/>
@@ -26956,8 +26973,8 @@
       <c r="G570" s="28"/>
       <c r="H570" s="28"/>
       <c r="I570" s="28"/>
-      <c r="J570" s="59"/>
-      <c r="K570" s="59"/>
+      <c r="J570" s="60"/>
+      <c r="K570" s="60"/>
       <c r="L570" s="28"/>
       <c r="M570" s="28"/>
       <c r="N570" s="28"/>
@@ -27001,8 +27018,8 @@
       <c r="G571" s="28"/>
       <c r="H571" s="28"/>
       <c r="I571" s="28"/>
-      <c r="J571" s="59"/>
-      <c r="K571" s="59"/>
+      <c r="J571" s="60"/>
+      <c r="K571" s="60"/>
       <c r="L571" s="28"/>
       <c r="M571" s="28"/>
       <c r="N571" s="28"/>
@@ -27046,8 +27063,8 @@
       <c r="G572" s="28"/>
       <c r="H572" s="28"/>
       <c r="I572" s="28"/>
-      <c r="J572" s="59"/>
-      <c r="K572" s="59"/>
+      <c r="J572" s="60"/>
+      <c r="K572" s="60"/>
       <c r="L572" s="28"/>
       <c r="M572" s="28"/>
       <c r="N572" s="28"/>
@@ -27091,8 +27108,8 @@
       <c r="G573" s="28"/>
       <c r="H573" s="28"/>
       <c r="I573" s="28"/>
-      <c r="J573" s="59"/>
-      <c r="K573" s="59"/>
+      <c r="J573" s="60"/>
+      <c r="K573" s="60"/>
       <c r="L573" s="28"/>
       <c r="M573" s="28"/>
       <c r="N573" s="28"/>
@@ -27136,8 +27153,8 @@
       <c r="G574" s="28"/>
       <c r="H574" s="28"/>
       <c r="I574" s="28"/>
-      <c r="J574" s="59"/>
-      <c r="K574" s="59"/>
+      <c r="J574" s="60"/>
+      <c r="K574" s="60"/>
       <c r="L574" s="28"/>
       <c r="M574" s="28"/>
       <c r="N574" s="28"/>
@@ -27181,8 +27198,8 @@
       <c r="G575" s="28"/>
       <c r="H575" s="28"/>
       <c r="I575" s="28"/>
-      <c r="J575" s="59"/>
-      <c r="K575" s="59"/>
+      <c r="J575" s="60"/>
+      <c r="K575" s="60"/>
       <c r="L575" s="28"/>
       <c r="M575" s="28"/>
       <c r="N575" s="28"/>
@@ -27226,8 +27243,8 @@
       <c r="G576" s="28"/>
       <c r="H576" s="28"/>
       <c r="I576" s="28"/>
-      <c r="J576" s="59"/>
-      <c r="K576" s="59"/>
+      <c r="J576" s="60"/>
+      <c r="K576" s="60"/>
       <c r="L576" s="28"/>
       <c r="M576" s="28"/>
       <c r="N576" s="28"/>
@@ -27271,8 +27288,8 @@
       <c r="G577" s="28"/>
       <c r="H577" s="28"/>
       <c r="I577" s="28"/>
-      <c r="J577" s="59"/>
-      <c r="K577" s="59"/>
+      <c r="J577" s="60"/>
+      <c r="K577" s="60"/>
       <c r="L577" s="28"/>
       <c r="M577" s="28"/>
       <c r="N577" s="28"/>
@@ -27316,8 +27333,8 @@
       <c r="G578" s="28"/>
       <c r="H578" s="28"/>
       <c r="I578" s="28"/>
-      <c r="J578" s="59"/>
-      <c r="K578" s="59"/>
+      <c r="J578" s="60"/>
+      <c r="K578" s="60"/>
       <c r="L578" s="28"/>
       <c r="M578" s="28"/>
       <c r="N578" s="28"/>
@@ -27361,8 +27378,8 @@
       <c r="G579" s="28"/>
       <c r="H579" s="28"/>
       <c r="I579" s="28"/>
-      <c r="J579" s="59"/>
-      <c r="K579" s="59"/>
+      <c r="J579" s="60"/>
+      <c r="K579" s="60"/>
       <c r="L579" s="28"/>
       <c r="M579" s="28"/>
       <c r="N579" s="28"/>
@@ -27406,8 +27423,8 @@
       <c r="G580" s="28"/>
       <c r="H580" s="28"/>
       <c r="I580" s="28"/>
-      <c r="J580" s="59"/>
-      <c r="K580" s="59"/>
+      <c r="J580" s="60"/>
+      <c r="K580" s="60"/>
       <c r="L580" s="28"/>
       <c r="M580" s="28"/>
       <c r="N580" s="28"/>
@@ -27451,8 +27468,8 @@
       <c r="G581" s="28"/>
       <c r="H581" s="28"/>
       <c r="I581" s="28"/>
-      <c r="J581" s="59"/>
-      <c r="K581" s="59"/>
+      <c r="J581" s="60"/>
+      <c r="K581" s="60"/>
       <c r="L581" s="28"/>
       <c r="M581" s="28"/>
       <c r="N581" s="28"/>
@@ -27496,8 +27513,8 @@
       <c r="G582" s="28"/>
       <c r="H582" s="28"/>
       <c r="I582" s="28"/>
-      <c r="J582" s="59"/>
-      <c r="K582" s="59"/>
+      <c r="J582" s="60"/>
+      <c r="K582" s="60"/>
       <c r="L582" s="28"/>
       <c r="M582" s="28"/>
       <c r="N582" s="28"/>
@@ -27541,8 +27558,8 @@
       <c r="G583" s="28"/>
       <c r="H583" s="28"/>
       <c r="I583" s="28"/>
-      <c r="J583" s="59"/>
-      <c r="K583" s="59"/>
+      <c r="J583" s="60"/>
+      <c r="K583" s="60"/>
       <c r="L583" s="28"/>
       <c r="M583" s="28"/>
       <c r="N583" s="28"/>
@@ -27586,8 +27603,8 @@
       <c r="G584" s="28"/>
       <c r="H584" s="28"/>
       <c r="I584" s="28"/>
-      <c r="J584" s="59"/>
-      <c r="K584" s="59"/>
+      <c r="J584" s="60"/>
+      <c r="K584" s="60"/>
       <c r="L584" s="28"/>
       <c r="M584" s="28"/>
       <c r="N584" s="28"/>
@@ -27631,8 +27648,8 @@
       <c r="G585" s="28"/>
       <c r="H585" s="28"/>
       <c r="I585" s="28"/>
-      <c r="J585" s="59"/>
-      <c r="K585" s="59"/>
+      <c r="J585" s="60"/>
+      <c r="K585" s="60"/>
       <c r="L585" s="28"/>
       <c r="M585" s="28"/>
       <c r="N585" s="28"/>
@@ -27676,8 +27693,8 @@
       <c r="G586" s="28"/>
       <c r="H586" s="28"/>
       <c r="I586" s="28"/>
-      <c r="J586" s="59"/>
-      <c r="K586" s="59"/>
+      <c r="J586" s="60"/>
+      <c r="K586" s="60"/>
       <c r="L586" s="28"/>
       <c r="M586" s="28"/>
       <c r="N586" s="28"/>
@@ -27721,8 +27738,8 @@
       <c r="G587" s="28"/>
       <c r="H587" s="28"/>
       <c r="I587" s="28"/>
-      <c r="J587" s="59"/>
-      <c r="K587" s="59"/>
+      <c r="J587" s="60"/>
+      <c r="K587" s="60"/>
       <c r="L587" s="28"/>
       <c r="M587" s="28"/>
       <c r="N587" s="28"/>
@@ -27766,8 +27783,8 @@
       <c r="G588" s="28"/>
       <c r="H588" s="28"/>
       <c r="I588" s="28"/>
-      <c r="J588" s="59"/>
-      <c r="K588" s="59"/>
+      <c r="J588" s="60"/>
+      <c r="K588" s="60"/>
       <c r="L588" s="28"/>
       <c r="M588" s="28"/>
       <c r="N588" s="28"/>
@@ -27811,8 +27828,8 @@
       <c r="G589" s="28"/>
       <c r="H589" s="28"/>
       <c r="I589" s="28"/>
-      <c r="J589" s="59"/>
-      <c r="K589" s="59"/>
+      <c r="J589" s="60"/>
+      <c r="K589" s="60"/>
       <c r="L589" s="28"/>
       <c r="M589" s="28"/>
       <c r="N589" s="28"/>
@@ -27856,8 +27873,8 @@
       <c r="G590" s="28"/>
       <c r="H590" s="28"/>
       <c r="I590" s="28"/>
-      <c r="J590" s="59"/>
-      <c r="K590" s="59"/>
+      <c r="J590" s="60"/>
+      <c r="K590" s="60"/>
       <c r="L590" s="28"/>
       <c r="M590" s="28"/>
       <c r="N590" s="28"/>
@@ -27901,8 +27918,8 @@
       <c r="G591" s="28"/>
       <c r="H591" s="28"/>
       <c r="I591" s="28"/>
-      <c r="J591" s="59"/>
-      <c r="K591" s="59"/>
+      <c r="J591" s="60"/>
+      <c r="K591" s="60"/>
       <c r="L591" s="28"/>
       <c r="M591" s="28"/>
       <c r="N591" s="28"/>
@@ -27946,8 +27963,8 @@
       <c r="G592" s="28"/>
       <c r="H592" s="28"/>
       <c r="I592" s="28"/>
-      <c r="J592" s="59"/>
-      <c r="K592" s="59"/>
+      <c r="J592" s="60"/>
+      <c r="K592" s="60"/>
       <c r="L592" s="28"/>
       <c r="M592" s="28"/>
       <c r="N592" s="28"/>
@@ -27991,8 +28008,8 @@
       <c r="G593" s="28"/>
       <c r="H593" s="28"/>
       <c r="I593" s="28"/>
-      <c r="J593" s="59"/>
-      <c r="K593" s="59"/>
+      <c r="J593" s="60"/>
+      <c r="K593" s="60"/>
       <c r="L593" s="28"/>
       <c r="M593" s="28"/>
       <c r="N593" s="28"/>
@@ -28036,8 +28053,8 @@
       <c r="G594" s="28"/>
       <c r="H594" s="28"/>
       <c r="I594" s="28"/>
-      <c r="J594" s="59"/>
-      <c r="K594" s="59"/>
+      <c r="J594" s="60"/>
+      <c r="K594" s="60"/>
       <c r="L594" s="28"/>
       <c r="M594" s="28"/>
       <c r="N594" s="28"/>
@@ -28081,8 +28098,8 @@
       <c r="G595" s="28"/>
       <c r="H595" s="28"/>
       <c r="I595" s="28"/>
-      <c r="J595" s="59"/>
-      <c r="K595" s="59"/>
+      <c r="J595" s="60"/>
+      <c r="K595" s="60"/>
       <c r="L595" s="28"/>
       <c r="M595" s="28"/>
       <c r="N595" s="28"/>
@@ -28126,8 +28143,8 @@
       <c r="G596" s="28"/>
       <c r="H596" s="28"/>
       <c r="I596" s="28"/>
-      <c r="J596" s="59"/>
-      <c r="K596" s="59"/>
+      <c r="J596" s="60"/>
+      <c r="K596" s="60"/>
       <c r="L596" s="28"/>
       <c r="M596" s="28"/>
       <c r="N596" s="28"/>
@@ -28171,8 +28188,8 @@
       <c r="G597" s="28"/>
       <c r="H597" s="28"/>
       <c r="I597" s="28"/>
-      <c r="J597" s="59"/>
-      <c r="K597" s="59"/>
+      <c r="J597" s="60"/>
+      <c r="K597" s="60"/>
       <c r="L597" s="28"/>
       <c r="M597" s="28"/>
       <c r="N597" s="28"/>
@@ -28216,8 +28233,8 @@
       <c r="G598" s="28"/>
       <c r="H598" s="28"/>
       <c r="I598" s="28"/>
-      <c r="J598" s="59"/>
-      <c r="K598" s="59"/>
+      <c r="J598" s="60"/>
+      <c r="K598" s="60"/>
       <c r="L598" s="28"/>
       <c r="M598" s="28"/>
       <c r="N598" s="28"/>
@@ -28261,8 +28278,8 @@
       <c r="G599" s="28"/>
       <c r="H599" s="28"/>
       <c r="I599" s="28"/>
-      <c r="J599" s="59"/>
-      <c r="K599" s="59"/>
+      <c r="J599" s="60"/>
+      <c r="K599" s="60"/>
       <c r="L599" s="28"/>
       <c r="M599" s="28"/>
       <c r="N599" s="28"/>
@@ -28306,8 +28323,8 @@
       <c r="G600" s="28"/>
       <c r="H600" s="28"/>
       <c r="I600" s="28"/>
-      <c r="J600" s="59"/>
-      <c r="K600" s="59"/>
+      <c r="J600" s="60"/>
+      <c r="K600" s="60"/>
       <c r="L600" s="28"/>
       <c r="M600" s="28"/>
       <c r="N600" s="28"/>
@@ -28351,8 +28368,8 @@
       <c r="G601" s="28"/>
       <c r="H601" s="28"/>
       <c r="I601" s="28"/>
-      <c r="J601" s="59"/>
-      <c r="K601" s="59"/>
+      <c r="J601" s="60"/>
+      <c r="K601" s="60"/>
       <c r="L601" s="28"/>
       <c r="M601" s="28"/>
       <c r="N601" s="28"/>
@@ -28396,8 +28413,8 @@
       <c r="G602" s="28"/>
       <c r="H602" s="28"/>
       <c r="I602" s="28"/>
-      <c r="J602" s="59"/>
-      <c r="K602" s="59"/>
+      <c r="J602" s="60"/>
+      <c r="K602" s="60"/>
       <c r="L602" s="28"/>
       <c r="M602" s="28"/>
       <c r="N602" s="28"/>
@@ -28441,8 +28458,8 @@
       <c r="G603" s="28"/>
       <c r="H603" s="28"/>
       <c r="I603" s="28"/>
-      <c r="J603" s="59"/>
-      <c r="K603" s="59"/>
+      <c r="J603" s="60"/>
+      <c r="K603" s="60"/>
       <c r="L603" s="28"/>
       <c r="M603" s="28"/>
       <c r="N603" s="28"/>
@@ -28486,8 +28503,8 @@
       <c r="G604" s="28"/>
       <c r="H604" s="28"/>
       <c r="I604" s="28"/>
-      <c r="J604" s="59"/>
-      <c r="K604" s="59"/>
+      <c r="J604" s="60"/>
+      <c r="K604" s="60"/>
       <c r="L604" s="28"/>
       <c r="M604" s="28"/>
       <c r="N604" s="28"/>
@@ -28531,8 +28548,8 @@
       <c r="G605" s="28"/>
       <c r="H605" s="28"/>
       <c r="I605" s="28"/>
-      <c r="J605" s="59"/>
-      <c r="K605" s="59"/>
+      <c r="J605" s="60"/>
+      <c r="K605" s="60"/>
       <c r="L605" s="28"/>
       <c r="M605" s="28"/>
       <c r="N605" s="28"/>
@@ -28576,8 +28593,8 @@
       <c r="G606" s="28"/>
       <c r="H606" s="28"/>
       <c r="I606" s="28"/>
-      <c r="J606" s="59"/>
-      <c r="K606" s="59"/>
+      <c r="J606" s="60"/>
+      <c r="K606" s="60"/>
       <c r="L606" s="28"/>
       <c r="M606" s="28"/>
       <c r="N606" s="28"/>
@@ -28621,8 +28638,8 @@
       <c r="G607" s="28"/>
       <c r="H607" s="28"/>
       <c r="I607" s="28"/>
-      <c r="J607" s="59"/>
-      <c r="K607" s="59"/>
+      <c r="J607" s="60"/>
+      <c r="K607" s="60"/>
       <c r="L607" s="28"/>
       <c r="M607" s="28"/>
       <c r="N607" s="28"/>
@@ -28666,8 +28683,8 @@
       <c r="G608" s="28"/>
       <c r="H608" s="28"/>
       <c r="I608" s="28"/>
-      <c r="J608" s="59"/>
-      <c r="K608" s="59"/>
+      <c r="J608" s="60"/>
+      <c r="K608" s="60"/>
       <c r="L608" s="28"/>
       <c r="M608" s="28"/>
       <c r="N608" s="28"/>
@@ -28711,8 +28728,8 @@
       <c r="G609" s="28"/>
       <c r="H609" s="28"/>
       <c r="I609" s="28"/>
-      <c r="J609" s="59"/>
-      <c r="K609" s="59"/>
+      <c r="J609" s="60"/>
+      <c r="K609" s="60"/>
       <c r="L609" s="28"/>
       <c r="M609" s="28"/>
       <c r="N609" s="28"/>
@@ -28756,8 +28773,8 @@
       <c r="G610" s="28"/>
       <c r="H610" s="28"/>
       <c r="I610" s="28"/>
-      <c r="J610" s="59"/>
-      <c r="K610" s="59"/>
+      <c r="J610" s="60"/>
+      <c r="K610" s="60"/>
       <c r="L610" s="28"/>
       <c r="M610" s="28"/>
       <c r="N610" s="28"/>
@@ -28801,8 +28818,8 @@
       <c r="G611" s="28"/>
       <c r="H611" s="28"/>
       <c r="I611" s="28"/>
-      <c r="J611" s="59"/>
-      <c r="K611" s="59"/>
+      <c r="J611" s="60"/>
+      <c r="K611" s="60"/>
       <c r="L611" s="28"/>
       <c r="M611" s="28"/>
       <c r="N611" s="28"/>
@@ -28846,8 +28863,8 @@
       <c r="G612" s="28"/>
       <c r="H612" s="28"/>
       <c r="I612" s="28"/>
-      <c r="J612" s="59"/>
-      <c r="K612" s="59"/>
+      <c r="J612" s="60"/>
+      <c r="K612" s="60"/>
       <c r="L612" s="28"/>
       <c r="M612" s="28"/>
       <c r="N612" s="28"/>
@@ -28891,8 +28908,8 @@
       <c r="G613" s="28"/>
       <c r="H613" s="28"/>
       <c r="I613" s="28"/>
-      <c r="J613" s="59"/>
-      <c r="K613" s="59"/>
+      <c r="J613" s="60"/>
+      <c r="K613" s="60"/>
       <c r="L613" s="28"/>
       <c r="M613" s="28"/>
       <c r="N613" s="28"/>
@@ -28936,8 +28953,8 @@
       <c r="G614" s="28"/>
       <c r="H614" s="28"/>
       <c r="I614" s="28"/>
-      <c r="J614" s="59"/>
-      <c r="K614" s="59"/>
+      <c r="J614" s="60"/>
+      <c r="K614" s="60"/>
       <c r="L614" s="28"/>
       <c r="M614" s="28"/>
       <c r="N614" s="28"/>
@@ -28981,8 +28998,8 @@
       <c r="G615" s="28"/>
       <c r="H615" s="28"/>
       <c r="I615" s="28"/>
-      <c r="J615" s="59"/>
-      <c r="K615" s="59"/>
+      <c r="J615" s="60"/>
+      <c r="K615" s="60"/>
       <c r="L615" s="28"/>
       <c r="M615" s="28"/>
       <c r="N615" s="28"/>
@@ -29026,8 +29043,8 @@
       <c r="G616" s="28"/>
       <c r="H616" s="28"/>
       <c r="I616" s="28"/>
-      <c r="J616" s="59"/>
-      <c r="K616" s="59"/>
+      <c r="J616" s="60"/>
+      <c r="K616" s="60"/>
       <c r="L616" s="28"/>
       <c r="M616" s="28"/>
       <c r="N616" s="28"/>
@@ -29071,8 +29088,8 @@
       <c r="G617" s="28"/>
       <c r="H617" s="28"/>
       <c r="I617" s="28"/>
-      <c r="J617" s="59"/>
-      <c r="K617" s="59"/>
+      <c r="J617" s="60"/>
+      <c r="K617" s="60"/>
       <c r="L617" s="28"/>
       <c r="M617" s="28"/>
       <c r="N617" s="28"/>
@@ -29116,8 +29133,8 @@
       <c r="G618" s="28"/>
       <c r="H618" s="28"/>
       <c r="I618" s="28"/>
-      <c r="J618" s="59"/>
-      <c r="K618" s="59"/>
+      <c r="J618" s="60"/>
+      <c r="K618" s="60"/>
       <c r="L618" s="28"/>
       <c r="M618" s="28"/>
       <c r="N618" s="28"/>
@@ -29161,8 +29178,8 @@
       <c r="G619" s="28"/>
       <c r="H619" s="28"/>
       <c r="I619" s="28"/>
-      <c r="J619" s="59"/>
-      <c r="K619" s="59"/>
+      <c r="J619" s="60"/>
+      <c r="K619" s="60"/>
       <c r="L619" s="28"/>
       <c r="M619" s="28"/>
       <c r="N619" s="28"/>
@@ -29206,8 +29223,8 @@
       <c r="G620" s="28"/>
       <c r="H620" s="28"/>
       <c r="I620" s="28"/>
-      <c r="J620" s="59"/>
-      <c r="K620" s="59"/>
+      <c r="J620" s="60"/>
+      <c r="K620" s="60"/>
       <c r="L620" s="28"/>
       <c r="M620" s="28"/>
       <c r="N620" s="28"/>
@@ -29251,8 +29268,8 @@
       <c r="G621" s="28"/>
       <c r="H621" s="28"/>
       <c r="I621" s="28"/>
-      <c r="J621" s="59"/>
-      <c r="K621" s="59"/>
+      <c r="J621" s="60"/>
+      <c r="K621" s="60"/>
       <c r="L621" s="28"/>
       <c r="M621" s="28"/>
       <c r="N621" s="28"/>
@@ -29296,8 +29313,8 @@
       <c r="G622" s="28"/>
       <c r="H622" s="28"/>
       <c r="I622" s="28"/>
-      <c r="J622" s="59"/>
-      <c r="K622" s="59"/>
+      <c r="J622" s="60"/>
+      <c r="K622" s="60"/>
       <c r="L622" s="28"/>
       <c r="M622" s="28"/>
       <c r="N622" s="28"/>
@@ -29341,8 +29358,8 @@
       <c r="G623" s="28"/>
       <c r="H623" s="28"/>
       <c r="I623" s="28"/>
-      <c r="J623" s="59"/>
-      <c r="K623" s="59"/>
+      <c r="J623" s="60"/>
+      <c r="K623" s="60"/>
       <c r="L623" s="28"/>
       <c r="M623" s="28"/>
       <c r="N623" s="28"/>
@@ -29386,8 +29403,8 @@
       <c r="G624" s="28"/>
       <c r="H624" s="28"/>
       <c r="I624" s="28"/>
-      <c r="J624" s="59"/>
-      <c r="K624" s="59"/>
+      <c r="J624" s="60"/>
+      <c r="K624" s="60"/>
       <c r="L624" s="28"/>
       <c r="M624" s="28"/>
       <c r="N624" s="28"/>
@@ -29431,8 +29448,8 @@
       <c r="G625" s="28"/>
       <c r="H625" s="28"/>
       <c r="I625" s="28"/>
-      <c r="J625" s="59"/>
-      <c r="K625" s="59"/>
+      <c r="J625" s="60"/>
+      <c r="K625" s="60"/>
       <c r="L625" s="28"/>
       <c r="M625" s="28"/>
       <c r="N625" s="28"/>
@@ -29476,8 +29493,8 @@
       <c r="G626" s="28"/>
       <c r="H626" s="28"/>
       <c r="I626" s="28"/>
-      <c r="J626" s="59"/>
-      <c r="K626" s="59"/>
+      <c r="J626" s="60"/>
+      <c r="K626" s="60"/>
       <c r="L626" s="28"/>
       <c r="M626" s="28"/>
       <c r="N626" s="28"/>
@@ -29521,8 +29538,8 @@
       <c r="G627" s="28"/>
       <c r="H627" s="28"/>
       <c r="I627" s="28"/>
-      <c r="J627" s="59"/>
-      <c r="K627" s="59"/>
+      <c r="J627" s="60"/>
+      <c r="K627" s="60"/>
       <c r="L627" s="28"/>
       <c r="M627" s="28"/>
       <c r="N627" s="28"/>
@@ -29566,8 +29583,8 @@
       <c r="G628" s="28"/>
       <c r="H628" s="28"/>
       <c r="I628" s="28"/>
-      <c r="J628" s="59"/>
-      <c r="K628" s="59"/>
+      <c r="J628" s="60"/>
+      <c r="K628" s="60"/>
       <c r="L628" s="28"/>
       <c r="M628" s="28"/>
       <c r="N628" s="28"/>
@@ -29611,8 +29628,8 @@
       <c r="G629" s="28"/>
       <c r="H629" s="28"/>
       <c r="I629" s="28"/>
-      <c r="J629" s="59"/>
-      <c r="K629" s="59"/>
+      <c r="J629" s="60"/>
+      <c r="K629" s="60"/>
       <c r="L629" s="28"/>
       <c r="M629" s="28"/>
       <c r="N629" s="28"/>
@@ -29656,8 +29673,8 @@
       <c r="G630" s="28"/>
       <c r="H630" s="28"/>
       <c r="I630" s="28"/>
-      <c r="J630" s="59"/>
-      <c r="K630" s="59"/>
+      <c r="J630" s="60"/>
+      <c r="K630" s="60"/>
       <c r="L630" s="28"/>
       <c r="M630" s="28"/>
       <c r="N630" s="28"/>
@@ -29701,8 +29718,8 @@
       <c r="G631" s="28"/>
       <c r="H631" s="28"/>
       <c r="I631" s="28"/>
-      <c r="J631" s="59"/>
-      <c r="K631" s="59"/>
+      <c r="J631" s="60"/>
+      <c r="K631" s="60"/>
       <c r="L631" s="28"/>
       <c r="M631" s="28"/>
       <c r="N631" s="28"/>
@@ -29746,8 +29763,8 @@
       <c r="G632" s="28"/>
       <c r="H632" s="28"/>
       <c r="I632" s="28"/>
-      <c r="J632" s="59"/>
-      <c r="K632" s="59"/>
+      <c r="J632" s="60"/>
+      <c r="K632" s="60"/>
       <c r="L632" s="28"/>
       <c r="M632" s="28"/>
       <c r="N632" s="28"/>
@@ -29791,8 +29808,8 @@
       <c r="G633" s="28"/>
       <c r="H633" s="28"/>
       <c r="I633" s="28"/>
-      <c r="J633" s="59"/>
-      <c r="K633" s="59"/>
+      <c r="J633" s="60"/>
+      <c r="K633" s="60"/>
       <c r="L633" s="28"/>
       <c r="M633" s="28"/>
       <c r="N633" s="28"/>
@@ -29836,8 +29853,8 @@
       <c r="G634" s="28"/>
       <c r="H634" s="28"/>
       <c r="I634" s="28"/>
-      <c r="J634" s="59"/>
-      <c r="K634" s="59"/>
+      <c r="J634" s="60"/>
+      <c r="K634" s="60"/>
       <c r="L634" s="28"/>
       <c r="M634" s="28"/>
       <c r="N634" s="28"/>
@@ -29881,8 +29898,8 @@
       <c r="G635" s="28"/>
       <c r="H635" s="28"/>
       <c r="I635" s="28"/>
-      <c r="J635" s="59"/>
-      <c r="K635" s="59"/>
+      <c r="J635" s="60"/>
+      <c r="K635" s="60"/>
       <c r="L635" s="28"/>
       <c r="M635" s="28"/>
       <c r="N635" s="28"/>
@@ -29926,8 +29943,8 @@
       <c r="G636" s="28"/>
       <c r="H636" s="28"/>
       <c r="I636" s="28"/>
-      <c r="J636" s="59"/>
-      <c r="K636" s="59"/>
+      <c r="J636" s="60"/>
+      <c r="K636" s="60"/>
       <c r="L636" s="28"/>
       <c r="M636" s="28"/>
       <c r="N636" s="28"/>
@@ -29971,8 +29988,8 @@
       <c r="G637" s="28"/>
       <c r="H637" s="28"/>
       <c r="I637" s="28"/>
-      <c r="J637" s="59"/>
-      <c r="K637" s="59"/>
+      <c r="J637" s="60"/>
+      <c r="K637" s="60"/>
       <c r="L637" s="28"/>
       <c r="M637" s="28"/>
       <c r="N637" s="28"/>
@@ -30016,8 +30033,8 @@
       <c r="G638" s="28"/>
       <c r="H638" s="28"/>
       <c r="I638" s="28"/>
-      <c r="J638" s="59"/>
-      <c r="K638" s="59"/>
+      <c r="J638" s="60"/>
+      <c r="K638" s="60"/>
       <c r="L638" s="28"/>
       <c r="M638" s="28"/>
       <c r="N638" s="28"/>
@@ -30061,8 +30078,8 @@
       <c r="G639" s="28"/>
       <c r="H639" s="28"/>
       <c r="I639" s="28"/>
-      <c r="J639" s="59"/>
-      <c r="K639" s="59"/>
+      <c r="J639" s="60"/>
+      <c r="K639" s="60"/>
       <c r="L639" s="28"/>
       <c r="M639" s="28"/>
       <c r="N639" s="28"/>
@@ -30106,8 +30123,8 @@
       <c r="G640" s="28"/>
       <c r="H640" s="28"/>
       <c r="I640" s="28"/>
-      <c r="J640" s="59"/>
-      <c r="K640" s="59"/>
+      <c r="J640" s="60"/>
+      <c r="K640" s="60"/>
       <c r="L640" s="28"/>
       <c r="M640" s="28"/>
       <c r="N640" s="28"/>
@@ -30151,8 +30168,8 @@
       <c r="G641" s="28"/>
       <c r="H641" s="28"/>
       <c r="I641" s="28"/>
-      <c r="J641" s="59"/>
-      <c r="K641" s="59"/>
+      <c r="J641" s="60"/>
+      <c r="K641" s="60"/>
       <c r="L641" s="28"/>
       <c r="M641" s="28"/>
       <c r="N641" s="28"/>
@@ -30196,8 +30213,8 @@
       <c r="G642" s="28"/>
       <c r="H642" s="28"/>
       <c r="I642" s="28"/>
-      <c r="J642" s="59"/>
-      <c r="K642" s="59"/>
+      <c r="J642" s="60"/>
+      <c r="K642" s="60"/>
       <c r="L642" s="28"/>
       <c r="M642" s="28"/>
       <c r="N642" s="28"/>
@@ -30241,8 +30258,8 @@
       <c r="G643" s="28"/>
       <c r="H643" s="28"/>
       <c r="I643" s="28"/>
-      <c r="J643" s="59"/>
-      <c r="K643" s="59"/>
+      <c r="J643" s="60"/>
+      <c r="K643" s="60"/>
       <c r="L643" s="28"/>
       <c r="M643" s="28"/>
       <c r="N643" s="28"/>
@@ -30286,8 +30303,8 @@
       <c r="G644" s="28"/>
       <c r="H644" s="28"/>
       <c r="I644" s="28"/>
-      <c r="J644" s="59"/>
-      <c r="K644" s="59"/>
+      <c r="J644" s="60"/>
+      <c r="K644" s="60"/>
       <c r="L644" s="28"/>
       <c r="M644" s="28"/>
       <c r="N644" s="28"/>
@@ -30331,8 +30348,8 @@
       <c r="G645" s="28"/>
       <c r="H645" s="28"/>
       <c r="I645" s="28"/>
-      <c r="J645" s="59"/>
-      <c r="K645" s="59"/>
+      <c r="J645" s="60"/>
+      <c r="K645" s="60"/>
       <c r="L645" s="28"/>
       <c r="M645" s="28"/>
       <c r="N645" s="28"/>
@@ -30376,8 +30393,8 @@
       <c r="G646" s="28"/>
       <c r="H646" s="28"/>
       <c r="I646" s="28"/>
-      <c r="J646" s="59"/>
-      <c r="K646" s="59"/>
+      <c r="J646" s="60"/>
+      <c r="K646" s="60"/>
       <c r="L646" s="28"/>
       <c r="M646" s="28"/>
       <c r="N646" s="28"/>
@@ -30421,8 +30438,8 @@
       <c r="G647" s="28"/>
       <c r="H647" s="28"/>
       <c r="I647" s="28"/>
-      <c r="J647" s="59"/>
-      <c r="K647" s="59"/>
+      <c r="J647" s="60"/>
+      <c r="K647" s="60"/>
       <c r="L647" s="28"/>
       <c r="M647" s="28"/>
       <c r="N647" s="28"/>
@@ -30466,8 +30483,8 @@
       <c r="G648" s="28"/>
       <c r="H648" s="28"/>
       <c r="I648" s="28"/>
-      <c r="J648" s="59"/>
-      <c r="K648" s="59"/>
+      <c r="J648" s="60"/>
+      <c r="K648" s="60"/>
       <c r="L648" s="28"/>
       <c r="M648" s="28"/>
       <c r="N648" s="28"/>
@@ -30511,8 +30528,8 @@
       <c r="G649" s="28"/>
       <c r="H649" s="28"/>
       <c r="I649" s="28"/>
-      <c r="J649" s="59"/>
-      <c r="K649" s="59"/>
+      <c r="J649" s="60"/>
+      <c r="K649" s="60"/>
       <c r="L649" s="28"/>
       <c r="M649" s="28"/>
       <c r="N649" s="28"/>
@@ -30556,8 +30573,8 @@
       <c r="G650" s="28"/>
       <c r="H650" s="28"/>
       <c r="I650" s="28"/>
-      <c r="J650" s="59"/>
-      <c r="K650" s="59"/>
+      <c r="J650" s="60"/>
+      <c r="K650" s="60"/>
       <c r="L650" s="28"/>
       <c r="M650" s="28"/>
       <c r="N650" s="28"/>
@@ -30601,8 +30618,8 @@
       <c r="G651" s="28"/>
       <c r="H651" s="28"/>
       <c r="I651" s="28"/>
-      <c r="J651" s="59"/>
-      <c r="K651" s="59"/>
+      <c r="J651" s="60"/>
+      <c r="K651" s="60"/>
       <c r="L651" s="28"/>
       <c r="M651" s="28"/>
       <c r="N651" s="28"/>
@@ -30646,8 +30663,8 @@
       <c r="G652" s="28"/>
       <c r="H652" s="28"/>
       <c r="I652" s="28"/>
-      <c r="J652" s="59"/>
-      <c r="K652" s="59"/>
+      <c r="J652" s="60"/>
+      <c r="K652" s="60"/>
       <c r="L652" s="28"/>
       <c r="M652" s="28"/>
       <c r="N652" s="28"/>
@@ -30691,8 +30708,8 @@
       <c r="G653" s="28"/>
       <c r="H653" s="28"/>
       <c r="I653" s="28"/>
-      <c r="J653" s="59"/>
-      <c r="K653" s="59"/>
+      <c r="J653" s="60"/>
+      <c r="K653" s="60"/>
       <c r="L653" s="28"/>
       <c r="M653" s="28"/>
       <c r="N653" s="28"/>
@@ -30736,8 +30753,8 @@
       <c r="G654" s="28"/>
       <c r="H654" s="28"/>
       <c r="I654" s="28"/>
-      <c r="J654" s="59"/>
-      <c r="K654" s="59"/>
+      <c r="J654" s="60"/>
+      <c r="K654" s="60"/>
       <c r="L654" s="28"/>
       <c r="M654" s="28"/>
       <c r="N654" s="28"/>
@@ -30781,8 +30798,8 @@
       <c r="G655" s="28"/>
       <c r="H655" s="28"/>
       <c r="I655" s="28"/>
-      <c r="J655" s="59"/>
-      <c r="K655" s="59"/>
+      <c r="J655" s="60"/>
+      <c r="K655" s="60"/>
       <c r="L655" s="28"/>
       <c r="M655" s="28"/>
       <c r="N655" s="28"/>
@@ -30826,8 +30843,8 @@
       <c r="G656" s="28"/>
       <c r="H656" s="28"/>
       <c r="I656" s="28"/>
-      <c r="J656" s="59"/>
-      <c r="K656" s="59"/>
+      <c r="J656" s="60"/>
+      <c r="K656" s="60"/>
       <c r="L656" s="28"/>
       <c r="M656" s="28"/>
       <c r="N656" s="28"/>
@@ -30871,8 +30888,8 @@
       <c r="G657" s="28"/>
       <c r="H657" s="28"/>
       <c r="I657" s="28"/>
-      <c r="J657" s="59"/>
-      <c r="K657" s="59"/>
+      <c r="J657" s="60"/>
+      <c r="K657" s="60"/>
       <c r="L657" s="28"/>
       <c r="M657" s="28"/>
       <c r="N657" s="28"/>
@@ -30916,8 +30933,8 @@
       <c r="G658" s="28"/>
       <c r="H658" s="28"/>
       <c r="I658" s="28"/>
-      <c r="J658" s="59"/>
-      <c r="K658" s="59"/>
+      <c r="J658" s="60"/>
+      <c r="K658" s="60"/>
       <c r="L658" s="28"/>
       <c r="M658" s="28"/>
       <c r="N658" s="28"/>
@@ -30961,8 +30978,8 @@
       <c r="G659" s="28"/>
       <c r="H659" s="28"/>
       <c r="I659" s="28"/>
-      <c r="J659" s="59"/>
-      <c r="K659" s="59"/>
+      <c r="J659" s="60"/>
+      <c r="K659" s="60"/>
       <c r="L659" s="28"/>
       <c r="M659" s="28"/>
       <c r="N659" s="28"/>
@@ -31006,8 +31023,8 @@
       <c r="G660" s="28"/>
       <c r="H660" s="28"/>
       <c r="I660" s="28"/>
-      <c r="J660" s="59"/>
-      <c r="K660" s="59"/>
+      <c r="J660" s="60"/>
+      <c r="K660" s="60"/>
       <c r="L660" s="28"/>
       <c r="M660" s="28"/>
       <c r="N660" s="28"/>
@@ -31051,8 +31068,8 @@
       <c r="G661" s="28"/>
       <c r="H661" s="28"/>
       <c r="I661" s="28"/>
-      <c r="J661" s="59"/>
-      <c r="K661" s="59"/>
+      <c r="J661" s="60"/>
+      <c r="K661" s="60"/>
       <c r="L661" s="28"/>
       <c r="M661" s="28"/>
       <c r="N661" s="28"/>
@@ -31096,8 +31113,8 @@
       <c r="G662" s="28"/>
       <c r="H662" s="28"/>
       <c r="I662" s="28"/>
-      <c r="J662" s="59"/>
-      <c r="K662" s="59"/>
+      <c r="J662" s="60"/>
+      <c r="K662" s="60"/>
       <c r="L662" s="28"/>
       <c r="M662" s="28"/>
       <c r="N662" s="28"/>
@@ -31141,8 +31158,8 @@
       <c r="G663" s="28"/>
       <c r="H663" s="28"/>
       <c r="I663" s="28"/>
-      <c r="J663" s="59"/>
-      <c r="K663" s="59"/>
+      <c r="J663" s="60"/>
+      <c r="K663" s="60"/>
       <c r="L663" s="28"/>
       <c r="M663" s="28"/>
       <c r="N663" s="28"/>
@@ -31186,8 +31203,8 @@
       <c r="G664" s="28"/>
       <c r="H664" s="28"/>
       <c r="I664" s="28"/>
-      <c r="J664" s="59"/>
-      <c r="K664" s="59"/>
+      <c r="J664" s="60"/>
+      <c r="K664" s="60"/>
       <c r="L664" s="28"/>
       <c r="M664" s="28"/>
       <c r="N664" s="28"/>
@@ -31231,8 +31248,8 @@
       <c r="G665" s="28"/>
       <c r="H665" s="28"/>
       <c r="I665" s="28"/>
-      <c r="J665" s="59"/>
-      <c r="K665" s="59"/>
+      <c r="J665" s="60"/>
+      <c r="K665" s="60"/>
       <c r="L665" s="28"/>
       <c r="M665" s="28"/>
       <c r="N665" s="28"/>
@@ -31276,8 +31293,8 @@
       <c r="G666" s="28"/>
       <c r="H666" s="28"/>
       <c r="I666" s="28"/>
-      <c r="J666" s="59"/>
-      <c r="K666" s="59"/>
+      <c r="J666" s="60"/>
+      <c r="K666" s="60"/>
       <c r="L666" s="28"/>
       <c r="M666" s="28"/>
       <c r="N666" s="28"/>
@@ -31321,8 +31338,8 @@
       <c r="G667" s="28"/>
       <c r="H667" s="28"/>
       <c r="I667" s="28"/>
-      <c r="J667" s="59"/>
-      <c r="K667" s="59"/>
+      <c r="J667" s="60"/>
+      <c r="K667" s="60"/>
       <c r="L667" s="28"/>
       <c r="M667" s="28"/>
       <c r="N667" s="28"/>
@@ -31366,8 +31383,8 @@
       <c r="G668" s="28"/>
       <c r="H668" s="28"/>
       <c r="I668" s="28"/>
-      <c r="J668" s="59"/>
-      <c r="K668" s="59"/>
+      <c r="J668" s="60"/>
+      <c r="K668" s="60"/>
       <c r="L668" s="28"/>
       <c r="M668" s="28"/>
       <c r="N668" s="28"/>
@@ -31411,8 +31428,8 @@
       <c r="G669" s="28"/>
       <c r="H669" s="28"/>
       <c r="I669" s="28"/>
-      <c r="J669" s="59"/>
-      <c r="K669" s="59"/>
+      <c r="J669" s="60"/>
+      <c r="K669" s="60"/>
       <c r="L669" s="28"/>
       <c r="M669" s="28"/>
       <c r="N669" s="28"/>
@@ -31456,8 +31473,8 @@
       <c r="G670" s="28"/>
       <c r="H670" s="28"/>
       <c r="I670" s="28"/>
-      <c r="J670" s="59"/>
-      <c r="K670" s="59"/>
+      <c r="J670" s="60"/>
+      <c r="K670" s="60"/>
       <c r="L670" s="28"/>
       <c r="M670" s="28"/>
       <c r="N670" s="28"/>
@@ -31501,8 +31518,8 @@
       <c r="G671" s="28"/>
       <c r="H671" s="28"/>
       <c r="I671" s="28"/>
-      <c r="J671" s="59"/>
-      <c r="K671" s="59"/>
+      <c r="J671" s="60"/>
+      <c r="K671" s="60"/>
       <c r="L671" s="28"/>
       <c r="M671" s="28"/>
       <c r="N671" s="28"/>
@@ -31546,8 +31563,8 @@
       <c r="G672" s="28"/>
       <c r="H672" s="28"/>
       <c r="I672" s="28"/>
-      <c r="J672" s="59"/>
-      <c r="K672" s="59"/>
+      <c r="J672" s="60"/>
+      <c r="K672" s="60"/>
       <c r="L672" s="28"/>
       <c r="M672" s="28"/>
       <c r="N672" s="28"/>
@@ -31591,8 +31608,8 @@
       <c r="G673" s="28"/>
       <c r="H673" s="28"/>
       <c r="I673" s="28"/>
-      <c r="J673" s="59"/>
-      <c r="K673" s="59"/>
+      <c r="J673" s="60"/>
+      <c r="K673" s="60"/>
       <c r="L673" s="28"/>
       <c r="M673" s="28"/>
       <c r="N673" s="28"/>
@@ -31636,8 +31653,8 @@
       <c r="G674" s="28"/>
       <c r="H674" s="28"/>
       <c r="I674" s="28"/>
-      <c r="J674" s="59"/>
-      <c r="K674" s="59"/>
+      <c r="J674" s="60"/>
+      <c r="K674" s="60"/>
       <c r="L674" s="28"/>
       <c r="M674" s="28"/>
       <c r="N674" s="28"/>
@@ -31681,8 +31698,8 @@
       <c r="G675" s="28"/>
       <c r="H675" s="28"/>
       <c r="I675" s="28"/>
-      <c r="J675" s="59"/>
-      <c r="K675" s="59"/>
+      <c r="J675" s="60"/>
+      <c r="K675" s="60"/>
       <c r="L675" s="28"/>
       <c r="M675" s="28"/>
       <c r="N675" s="28"/>
@@ -31726,8 +31743,8 @@
       <c r="G676" s="28"/>
       <c r="H676" s="28"/>
       <c r="I676" s="28"/>
-      <c r="J676" s="59"/>
-      <c r="K676" s="59"/>
+      <c r="J676" s="60"/>
+      <c r="K676" s="60"/>
       <c r="L676" s="28"/>
       <c r="M676" s="28"/>
       <c r="N676" s="28"/>
@@ -31771,8 +31788,8 @@
       <c r="G677" s="28"/>
       <c r="H677" s="28"/>
       <c r="I677" s="28"/>
-      <c r="J677" s="59"/>
-      <c r="K677" s="59"/>
+      <c r="J677" s="60"/>
+      <c r="K677" s="60"/>
       <c r="L677" s="28"/>
       <c r="M677" s="28"/>
       <c r="N677" s="28"/>
@@ -31816,8 +31833,8 @@
       <c r="G678" s="28"/>
       <c r="H678" s="28"/>
       <c r="I678" s="28"/>
-      <c r="J678" s="59"/>
-      <c r="K678" s="59"/>
+      <c r="J678" s="60"/>
+      <c r="K678" s="60"/>
       <c r="L678" s="28"/>
       <c r="M678" s="28"/>
       <c r="N678" s="28"/>
@@ -31861,8 +31878,8 @@
       <c r="G679" s="28"/>
       <c r="H679" s="28"/>
       <c r="I679" s="28"/>
-      <c r="J679" s="59"/>
-      <c r="K679" s="59"/>
+      <c r="J679" s="60"/>
+      <c r="K679" s="60"/>
       <c r="L679" s="28"/>
       <c r="M679" s="28"/>
       <c r="N679" s="28"/>
@@ -31906,8 +31923,8 @@
       <c r="G680" s="28"/>
       <c r="H680" s="28"/>
       <c r="I680" s="28"/>
-      <c r="J680" s="59"/>
-      <c r="K680" s="59"/>
+      <c r="J680" s="60"/>
+      <c r="K680" s="60"/>
       <c r="L680" s="28"/>
       <c r="M680" s="28"/>
       <c r="N680" s="28"/>
@@ -31951,8 +31968,8 @@
       <c r="G681" s="28"/>
       <c r="H681" s="28"/>
       <c r="I681" s="28"/>
-      <c r="J681" s="59"/>
-      <c r="K681" s="59"/>
+      <c r="J681" s="60"/>
+      <c r="K681" s="60"/>
       <c r="L681" s="28"/>
       <c r="M681" s="28"/>
       <c r="N681" s="28"/>
@@ -31996,8 +32013,8 @@
       <c r="G682" s="28"/>
       <c r="H682" s="28"/>
       <c r="I682" s="28"/>
-      <c r="J682" s="59"/>
-      <c r="K682" s="59"/>
+      <c r="J682" s="60"/>
+      <c r="K682" s="60"/>
       <c r="L682" s="28"/>
       <c r="M682" s="28"/>
       <c r="N682" s="28"/>
@@ -32041,8 +32058,8 @@
       <c r="G683" s="28"/>
       <c r="H683" s="28"/>
       <c r="I683" s="28"/>
-      <c r="J683" s="59"/>
-      <c r="K683" s="59"/>
+      <c r="J683" s="60"/>
+      <c r="K683" s="60"/>
       <c r="L683" s="28"/>
       <c r="M683" s="28"/>
       <c r="N683" s="28"/>
@@ -32086,8 +32103,8 @@
       <c r="G684" s="28"/>
       <c r="H684" s="28"/>
       <c r="I684" s="28"/>
-      <c r="J684" s="59"/>
-      <c r="K684" s="59"/>
+      <c r="J684" s="60"/>
+      <c r="K684" s="60"/>
       <c r="L684" s="28"/>
       <c r="M684" s="28"/>
       <c r="N684" s="28"/>
@@ -32131,8 +32148,8 @@
       <c r="G685" s="28"/>
       <c r="H685" s="28"/>
       <c r="I685" s="28"/>
-      <c r="J685" s="59"/>
-      <c r="K685" s="59"/>
+      <c r="J685" s="60"/>
+      <c r="K685" s="60"/>
       <c r="L685" s="28"/>
       <c r="M685" s="28"/>
       <c r="N685" s="28"/>
@@ -32176,8 +32193,8 @@
       <c r="G686" s="28"/>
       <c r="H686" s="28"/>
       <c r="I686" s="28"/>
-      <c r="J686" s="59"/>
-      <c r="K686" s="59"/>
+      <c r="J686" s="60"/>
+      <c r="K686" s="60"/>
       <c r="L686" s="28"/>
       <c r="M686" s="28"/>
       <c r="N686" s="28"/>
@@ -32221,8 +32238,8 @@
       <c r="G687" s="28"/>
       <c r="H687" s="28"/>
       <c r="I687" s="28"/>
-      <c r="J687" s="59"/>
-      <c r="K687" s="59"/>
+      <c r="J687" s="60"/>
+      <c r="K687" s="60"/>
       <c r="L687" s="28"/>
       <c r="M687" s="28"/>
       <c r="N687" s="28"/>
@@ -32266,8 +32283,8 @@
       <c r="G688" s="28"/>
       <c r="H688" s="28"/>
       <c r="I688" s="28"/>
-      <c r="J688" s="59"/>
-      <c r="K688" s="59"/>
+      <c r="J688" s="60"/>
+      <c r="K688" s="60"/>
       <c r="L688" s="28"/>
       <c r="M688" s="28"/>
       <c r="N688" s="28"/>
@@ -32311,8 +32328,8 @@
       <c r="G689" s="28"/>
       <c r="H689" s="28"/>
       <c r="I689" s="28"/>
-      <c r="J689" s="59"/>
-      <c r="K689" s="59"/>
+      <c r="J689" s="60"/>
+      <c r="K689" s="60"/>
       <c r="L689" s="28"/>
       <c r="M689" s="28"/>
       <c r="N689" s="28"/>
@@ -32356,8 +32373,8 @@
       <c r="G690" s="28"/>
       <c r="H690" s="28"/>
       <c r="I690" s="28"/>
-      <c r="J690" s="59"/>
-      <c r="K690" s="59"/>
+      <c r="J690" s="60"/>
+      <c r="K690" s="60"/>
       <c r="L690" s="28"/>
       <c r="M690" s="28"/>
       <c r="N690" s="28"/>
@@ -32401,8 +32418,8 @@
       <c r="G691" s="28"/>
       <c r="H691" s="28"/>
       <c r="I691" s="28"/>
-      <c r="J691" s="59"/>
-      <c r="K691" s="59"/>
+      <c r="J691" s="60"/>
+      <c r="K691" s="60"/>
       <c r="L691" s="28"/>
       <c r="M691" s="28"/>
       <c r="N691" s="28"/>
@@ -32446,8 +32463,8 @@
       <c r="G692" s="28"/>
       <c r="H692" s="28"/>
       <c r="I692" s="28"/>
-      <c r="J692" s="59"/>
-      <c r="K692" s="59"/>
+      <c r="J692" s="60"/>
+      <c r="K692" s="60"/>
       <c r="L692" s="28"/>
       <c r="M692" s="28"/>
       <c r="N692" s="28"/>
@@ -32491,8 +32508,8 @@
       <c r="G693" s="28"/>
       <c r="H693" s="28"/>
       <c r="I693" s="28"/>
-      <c r="J693" s="59"/>
-      <c r="K693" s="59"/>
+      <c r="J693" s="60"/>
+      <c r="K693" s="60"/>
       <c r="L693" s="28"/>
       <c r="M693" s="28"/>
       <c r="N693" s="28"/>
@@ -32536,8 +32553,8 @@
       <c r="G694" s="28"/>
       <c r="H694" s="28"/>
       <c r="I694" s="28"/>
-      <c r="J694" s="59"/>
-      <c r="K694" s="59"/>
+      <c r="J694" s="60"/>
+      <c r="K694" s="60"/>
       <c r="L694" s="28"/>
       <c r="M694" s="28"/>
       <c r="N694" s="28"/>
@@ -32581,8 +32598,8 @@
       <c r="G695" s="28"/>
       <c r="H695" s="28"/>
       <c r="I695" s="28"/>
-      <c r="J695" s="59"/>
-      <c r="K695" s="59"/>
+      <c r="J695" s="60"/>
+      <c r="K695" s="60"/>
       <c r="L695" s="28"/>
       <c r="M695" s="28"/>
       <c r="N695" s="28"/>
@@ -32626,8 +32643,8 @@
       <c r="G696" s="28"/>
       <c r="H696" s="28"/>
       <c r="I696" s="28"/>
-      <c r="J696" s="59"/>
-      <c r="K696" s="59"/>
+      <c r="J696" s="60"/>
+      <c r="K696" s="60"/>
       <c r="L696" s="28"/>
       <c r="M696" s="28"/>
       <c r="N696" s="28"/>
@@ -32671,8 +32688,8 @@
       <c r="G697" s="28"/>
       <c r="H697" s="28"/>
       <c r="I697" s="28"/>
-      <c r="J697" s="59"/>
-      <c r="K697" s="59"/>
+      <c r="J697" s="60"/>
+      <c r="K697" s="60"/>
       <c r="L697" s="28"/>
       <c r="M697" s="28"/>
       <c r="N697" s="28"/>
@@ -32716,8 +32733,8 @@
       <c r="G698" s="28"/>
       <c r="H698" s="28"/>
       <c r="I698" s="28"/>
-      <c r="J698" s="59"/>
-      <c r="K698" s="59"/>
+      <c r="J698" s="60"/>
+      <c r="K698" s="60"/>
       <c r="L698" s="28"/>
       <c r="M698" s="28"/>
       <c r="N698" s="28"/>
@@ -32761,8 +32778,8 @@
       <c r="G699" s="28"/>
       <c r="H699" s="28"/>
       <c r="I699" s="28"/>
-      <c r="J699" s="59"/>
-      <c r="K699" s="59"/>
+      <c r="J699" s="60"/>
+      <c r="K699" s="60"/>
       <c r="L699" s="28"/>
       <c r="M699" s="28"/>
       <c r="N699" s="28"/>
@@ -32806,8 +32823,8 @@
       <c r="G700" s="28"/>
       <c r="H700" s="28"/>
       <c r="I700" s="28"/>
-      <c r="J700" s="59"/>
-      <c r="K700" s="59"/>
+      <c r="J700" s="60"/>
+      <c r="K700" s="60"/>
       <c r="L700" s="28"/>
       <c r="M700" s="28"/>
       <c r="N700" s="28"/>
@@ -32851,8 +32868,8 @@
       <c r="G701" s="28"/>
       <c r="H701" s="28"/>
       <c r="I701" s="28"/>
-      <c r="J701" s="59"/>
-      <c r="K701" s="59"/>
+      <c r="J701" s="60"/>
+      <c r="K701" s="60"/>
       <c r="L701" s="28"/>
       <c r="M701" s="28"/>
       <c r="N701" s="28"/>
@@ -32896,8 +32913,8 @@
       <c r="G702" s="28"/>
       <c r="H702" s="28"/>
       <c r="I702" s="28"/>
-      <c r="J702" s="59"/>
-      <c r="K702" s="59"/>
+      <c r="J702" s="60"/>
+      <c r="K702" s="60"/>
       <c r="L702" s="28"/>
       <c r="M702" s="28"/>
       <c r="N702" s="28"/>
@@ -32941,8 +32958,8 @@
       <c r="G703" s="28"/>
       <c r="H703" s="28"/>
       <c r="I703" s="28"/>
-      <c r="J703" s="59"/>
-      <c r="K703" s="59"/>
+      <c r="J703" s="60"/>
+      <c r="K703" s="60"/>
       <c r="L703" s="28"/>
       <c r="M703" s="28"/>
       <c r="N703" s="28"/>
@@ -32986,8 +33003,8 @@
       <c r="G704" s="28"/>
       <c r="H704" s="28"/>
       <c r="I704" s="28"/>
-      <c r="J704" s="59"/>
-      <c r="K704" s="59"/>
+      <c r="J704" s="60"/>
+      <c r="K704" s="60"/>
       <c r="L704" s="28"/>
       <c r="M704" s="28"/>
       <c r="N704" s="28"/>
@@ -33031,8 +33048,8 @@
       <c r="G705" s="28"/>
       <c r="H705" s="28"/>
       <c r="I705" s="28"/>
-      <c r="J705" s="59"/>
-      <c r="K705" s="59"/>
+      <c r="J705" s="60"/>
+      <c r="K705" s="60"/>
       <c r="L705" s="28"/>
       <c r="M705" s="28"/>
       <c r="N705" s="28"/>
@@ -33076,8 +33093,8 @@
       <c r="G706" s="28"/>
       <c r="H706" s="28"/>
       <c r="I706" s="28"/>
-      <c r="J706" s="59"/>
-      <c r="K706" s="59"/>
+      <c r="J706" s="60"/>
+      <c r="K706" s="60"/>
       <c r="L706" s="28"/>
       <c r="M706" s="28"/>
       <c r="N706" s="28"/>
@@ -33121,8 +33138,8 @@
       <c r="G707" s="28"/>
       <c r="H707" s="28"/>
       <c r="I707" s="28"/>
-      <c r="J707" s="59"/>
-      <c r="K707" s="59"/>
+      <c r="J707" s="60"/>
+      <c r="K707" s="60"/>
       <c r="L707" s="28"/>
       <c r="M707" s="28"/>
       <c r="N707" s="28"/>
@@ -33166,8 +33183,8 @@
       <c r="G708" s="28"/>
       <c r="H708" s="28"/>
       <c r="I708" s="28"/>
-      <c r="J708" s="59"/>
-      <c r="K708" s="59"/>
+      <c r="J708" s="60"/>
+      <c r="K708" s="60"/>
       <c r="L708" s="28"/>
       <c r="M708" s="28"/>
       <c r="N708" s="28"/>
@@ -33211,8 +33228,8 @@
       <c r="G709" s="28"/>
       <c r="H709" s="28"/>
       <c r="I709" s="28"/>
-      <c r="J709" s="59"/>
-      <c r="K709" s="59"/>
+      <c r="J709" s="60"/>
+      <c r="K709" s="60"/>
       <c r="L709" s="28"/>
       <c r="M709" s="28"/>
       <c r="N709" s="28"/>
@@ -33256,8 +33273,8 @@
       <c r="G710" s="28"/>
       <c r="H710" s="28"/>
       <c r="I710" s="28"/>
-      <c r="J710" s="59"/>
-      <c r="K710" s="59"/>
+      <c r="J710" s="60"/>
+      <c r="K710" s="60"/>
       <c r="L710" s="28"/>
       <c r="M710" s="28"/>
       <c r="N710" s="28"/>
@@ -33301,8 +33318,8 @@
       <c r="G711" s="28"/>
       <c r="H711" s="28"/>
       <c r="I711" s="28"/>
-      <c r="J711" s="59"/>
-      <c r="K711" s="59"/>
+      <c r="J711" s="60"/>
+      <c r="K711" s="60"/>
       <c r="L711" s="28"/>
       <c r="M711" s="28"/>
       <c r="N711" s="28"/>
@@ -33346,8 +33363,8 @@
       <c r="G712" s="28"/>
       <c r="H712" s="28"/>
       <c r="I712" s="28"/>
-      <c r="J712" s="59"/>
-      <c r="K712" s="59"/>
+      <c r="J712" s="60"/>
+      <c r="K712" s="60"/>
       <c r="L712" s="28"/>
       <c r="M712" s="28"/>
       <c r="N712" s="28"/>
@@ -33391,8 +33408,8 @@
       <c r="G713" s="28"/>
       <c r="H713" s="28"/>
       <c r="I713" s="28"/>
-      <c r="J713" s="59"/>
-      <c r="K713" s="59"/>
+      <c r="J713" s="60"/>
+      <c r="K713" s="60"/>
       <c r="L713" s="28"/>
       <c r="M713" s="28"/>
       <c r="N713" s="28"/>
@@ -33436,8 +33453,8 @@
       <c r="G714" s="28"/>
       <c r="H714" s="28"/>
       <c r="I714" s="28"/>
-      <c r="J714" s="59"/>
-      <c r="K714" s="59"/>
+      <c r="J714" s="60"/>
+      <c r="K714" s="60"/>
       <c r="L714" s="28"/>
       <c r="M714" s="28"/>
       <c r="N714" s="28"/>
@@ -33481,8 +33498,8 @@
       <c r="G715" s="28"/>
       <c r="H715" s="28"/>
       <c r="I715" s="28"/>
-      <c r="J715" s="59"/>
-      <c r="K715" s="59"/>
+      <c r="J715" s="60"/>
+      <c r="K715" s="60"/>
       <c r="L715" s="28"/>
       <c r="M715" s="28"/>
       <c r="N715" s="28"/>
@@ -33526,8 +33543,8 @@
       <c r="G716" s="28"/>
       <c r="H716" s="28"/>
       <c r="I716" s="28"/>
-      <c r="J716" s="59"/>
-      <c r="K716" s="59"/>
+      <c r="J716" s="60"/>
+      <c r="K716" s="60"/>
       <c r="L716" s="28"/>
       <c r="M716" s="28"/>
       <c r="N716" s="28"/>
@@ -33571,8 +33588,8 @@
       <c r="G717" s="28"/>
       <c r="H717" s="28"/>
       <c r="I717" s="28"/>
-      <c r="J717" s="59"/>
-      <c r="K717" s="59"/>
+      <c r="J717" s="60"/>
+      <c r="K717" s="60"/>
       <c r="L717" s="28"/>
       <c r="M717" s="28"/>
       <c r="N717" s="28"/>
@@ -33616,8 +33633,8 @@
       <c r="G718" s="28"/>
       <c r="H718" s="28"/>
       <c r="I718" s="28"/>
-      <c r="J718" s="59"/>
-      <c r="K718" s="59"/>
+      <c r="J718" s="60"/>
+      <c r="K718" s="60"/>
       <c r="L718" s="28"/>
       <c r="M718" s="28"/>
       <c r="N718" s="28"/>
@@ -33661,8 +33678,8 @@
       <c r="G719" s="28"/>
       <c r="H719" s="28"/>
       <c r="I719" s="28"/>
-      <c r="J719" s="59"/>
-      <c r="K719" s="59"/>
+      <c r="J719" s="60"/>
+      <c r="K719" s="60"/>
       <c r="L719" s="28"/>
       <c r="M719" s="28"/>
       <c r="N719" s="28"/>
@@ -33706,8 +33723,8 @@
       <c r="G720" s="28"/>
       <c r="H720" s="28"/>
       <c r="I720" s="28"/>
-      <c r="J720" s="59"/>
-      <c r="K720" s="59"/>
+      <c r="J720" s="60"/>
+      <c r="K720" s="60"/>
       <c r="L720" s="28"/>
       <c r="M720" s="28"/>
       <c r="N720" s="28"/>
@@ -33751,8 +33768,8 @@
       <c r="G721" s="28"/>
       <c r="H721" s="28"/>
       <c r="I721" s="28"/>
-      <c r="J721" s="59"/>
-      <c r="K721" s="59"/>
+      <c r="J721" s="60"/>
+      <c r="K721" s="60"/>
       <c r="L721" s="28"/>
       <c r="M721" s="28"/>
       <c r="N721" s="28"/>
@@ -33796,8 +33813,8 @@
       <c r="G722" s="28"/>
       <c r="H722" s="28"/>
       <c r="I722" s="28"/>
-      <c r="J722" s="59"/>
-      <c r="K722" s="59"/>
+      <c r="J722" s="60"/>
+      <c r="K722" s="60"/>
       <c r="L722" s="28"/>
       <c r="M722" s="28"/>
       <c r="N722" s="28"/>
@@ -33841,8 +33858,8 @@
       <c r="G723" s="28"/>
       <c r="H723" s="28"/>
       <c r="I723" s="28"/>
-      <c r="J723" s="59"/>
-      <c r="K723" s="59"/>
+      <c r="J723" s="60"/>
+      <c r="K723" s="60"/>
       <c r="L723" s="28"/>
       <c r="M723" s="28"/>
       <c r="N723" s="28"/>
@@ -33886,8 +33903,8 @@
       <c r="G724" s="28"/>
       <c r="H724" s="28"/>
       <c r="I724" s="28"/>
-      <c r="J724" s="59"/>
-      <c r="K724" s="59"/>
+      <c r="J724" s="60"/>
+      <c r="K724" s="60"/>
       <c r="L724" s="28"/>
       <c r="M724" s="28"/>
       <c r="N724" s="28"/>
@@ -33931,8 +33948,8 @@
       <c r="G725" s="28"/>
       <c r="H725" s="28"/>
       <c r="I725" s="28"/>
-      <c r="J725" s="59"/>
-      <c r="K725" s="59"/>
+      <c r="J725" s="60"/>
+      <c r="K725" s="60"/>
       <c r="L725" s="28"/>
       <c r="M725" s="28"/>
       <c r="N725" s="28"/>
@@ -33976,8 +33993,8 @@
       <c r="G726" s="28"/>
       <c r="H726" s="28"/>
       <c r="I726" s="28"/>
-      <c r="J726" s="59"/>
-      <c r="K726" s="59"/>
+      <c r="J726" s="60"/>
+      <c r="K726" s="60"/>
       <c r="L726" s="28"/>
       <c r="M726" s="28"/>
       <c r="N726" s="28"/>
@@ -34021,8 +34038,8 @@
       <c r="G727" s="28"/>
       <c r="H727" s="28"/>
       <c r="I727" s="28"/>
-      <c r="J727" s="59"/>
-      <c r="K727" s="59"/>
+      <c r="J727" s="60"/>
+      <c r="K727" s="60"/>
       <c r="L727" s="28"/>
       <c r="M727" s="28"/>
       <c r="N727" s="28"/>
@@ -34066,8 +34083,8 @@
       <c r="G728" s="28"/>
       <c r="H728" s="28"/>
       <c r="I728" s="28"/>
-      <c r="J728" s="59"/>
-      <c r="K728" s="59"/>
+      <c r="J728" s="60"/>
+      <c r="K728" s="60"/>
       <c r="L728" s="28"/>
       <c r="M728" s="28"/>
       <c r="N728" s="28"/>
@@ -34111,8 +34128,8 @@
       <c r="G729" s="28"/>
       <c r="H729" s="28"/>
       <c r="I729" s="28"/>
-      <c r="J729" s="59"/>
-      <c r="K729" s="59"/>
+      <c r="J729" s="60"/>
+      <c r="K729" s="60"/>
       <c r="L729" s="28"/>
       <c r="M729" s="28"/>
       <c r="N729" s="28"/>
@@ -34156,8 +34173,8 @@
       <c r="G730" s="28"/>
       <c r="H730" s="28"/>
       <c r="I730" s="28"/>
-      <c r="J730" s="59"/>
-      <c r="K730" s="59"/>
+      <c r="J730" s="60"/>
+      <c r="K730" s="60"/>
       <c r="L730" s="28"/>
       <c r="M730" s="28"/>
       <c r="N730" s="28"/>
@@ -34201,8 +34218,8 @@
       <c r="G731" s="28"/>
       <c r="H731" s="28"/>
       <c r="I731" s="28"/>
-      <c r="J731" s="59"/>
-      <c r="K731" s="59"/>
+      <c r="J731" s="60"/>
+      <c r="K731" s="60"/>
       <c r="L731" s="28"/>
       <c r="M731" s="28"/>
       <c r="N731" s="28"/>
@@ -34246,8 +34263,8 @@
       <c r="G732" s="28"/>
       <c r="H732" s="28"/>
       <c r="I732" s="28"/>
-      <c r="J732" s="59"/>
-      <c r="K732" s="59"/>
+      <c r="J732" s="60"/>
+      <c r="K732" s="60"/>
       <c r="L732" s="28"/>
       <c r="M732" s="28"/>
       <c r="N732" s="28"/>
@@ -34291,8 +34308,8 @@
       <c r="G733" s="28"/>
       <c r="H733" s="28"/>
       <c r="I733" s="28"/>
-      <c r="J733" s="59"/>
-      <c r="K733" s="59"/>
+      <c r="J733" s="60"/>
+      <c r="K733" s="60"/>
       <c r="L733" s="28"/>
       <c r="M733" s="28"/>
       <c r="N733" s="28"/>
@@ -34336,8 +34353,8 @@
       <c r="G734" s="28"/>
       <c r="H734" s="28"/>
       <c r="I734" s="28"/>
-      <c r="J734" s="59"/>
-      <c r="K734" s="59"/>
+      <c r="J734" s="60"/>
+      <c r="K734" s="60"/>
       <c r="L734" s="28"/>
       <c r="M734" s="28"/>
       <c r="N734" s="28"/>
@@ -34381,8 +34398,8 @@
       <c r="G735" s="28"/>
       <c r="H735" s="28"/>
       <c r="I735" s="28"/>
-      <c r="J735" s="59"/>
-      <c r="K735" s="59"/>
+      <c r="J735" s="60"/>
+      <c r="K735" s="60"/>
       <c r="L735" s="28"/>
       <c r="M735" s="28"/>
       <c r="N735" s="28"/>
@@ -34426,8 +34443,8 @@
       <c r="G736" s="28"/>
       <c r="H736" s="28"/>
       <c r="I736" s="28"/>
-      <c r="J736" s="59"/>
-      <c r="K736" s="59"/>
+      <c r="J736" s="60"/>
+      <c r="K736" s="60"/>
       <c r="L736" s="28"/>
       <c r="M736" s="28"/>
       <c r="N736" s="28"/>
@@ -34471,8 +34488,8 @@
       <c r="G737" s="28"/>
       <c r="H737" s="28"/>
       <c r="I737" s="28"/>
-      <c r="J737" s="59"/>
-      <c r="K737" s="59"/>
+      <c r="J737" s="60"/>
+      <c r="K737" s="60"/>
       <c r="L737" s="28"/>
       <c r="M737" s="28"/>
       <c r="N737" s="28"/>
@@ -34516,8 +34533,8 @@
       <c r="G738" s="28"/>
       <c r="H738" s="28"/>
       <c r="I738" s="28"/>
-      <c r="J738" s="59"/>
-      <c r="K738" s="59"/>
+      <c r="J738" s="60"/>
+      <c r="K738" s="60"/>
       <c r="L738" s="28"/>
       <c r="M738" s="28"/>
       <c r="N738" s="28"/>
@@ -34561,8 +34578,8 @@
       <c r="G739" s="28"/>
       <c r="H739" s="28"/>
       <c r="I739" s="28"/>
-      <c r="J739" s="59"/>
-      <c r="K739" s="59"/>
+      <c r="J739" s="60"/>
+      <c r="K739" s="60"/>
       <c r="L739" s="28"/>
       <c r="M739" s="28"/>
       <c r="N739" s="28"/>
@@ -34606,8 +34623,8 @@
       <c r="G740" s="28"/>
       <c r="H740" s="28"/>
       <c r="I740" s="28"/>
-      <c r="J740" s="59"/>
-      <c r="K740" s="59"/>
+      <c r="J740" s="60"/>
+      <c r="K740" s="60"/>
       <c r="L740" s="28"/>
       <c r="M740" s="28"/>
       <c r="N740" s="28"/>
@@ -34651,8 +34668,8 @@
       <c r="G741" s="28"/>
       <c r="H741" s="28"/>
       <c r="I741" s="28"/>
-      <c r="J741" s="59"/>
-      <c r="K741" s="59"/>
+      <c r="J741" s="60"/>
+      <c r="K741" s="60"/>
       <c r="L741" s="28"/>
       <c r="M741" s="28"/>
       <c r="N741" s="28"/>
@@ -34696,8 +34713,8 @@
       <c r="G742" s="28"/>
       <c r="H742" s="28"/>
       <c r="I742" s="28"/>
-      <c r="J742" s="59"/>
-      <c r="K742" s="59"/>
+      <c r="J742" s="60"/>
+      <c r="K742" s="60"/>
       <c r="L742" s="28"/>
       <c r="M742" s="28"/>
       <c r="N742" s="28"/>
@@ -34741,8 +34758,8 @@
       <c r="G743" s="28"/>
       <c r="H743" s="28"/>
       <c r="I743" s="28"/>
-      <c r="J743" s="59"/>
-      <c r="K743" s="59"/>
+      <c r="J743" s="60"/>
+      <c r="K743" s="60"/>
       <c r="L743" s="28"/>
       <c r="M743" s="28"/>
       <c r="N743" s="28"/>
@@ -34786,8 +34803,8 @@
       <c r="G744" s="28"/>
       <c r="H744" s="28"/>
       <c r="I744" s="28"/>
-      <c r="J744" s="59"/>
-      <c r="K744" s="59"/>
+      <c r="J744" s="60"/>
+      <c r="K744" s="60"/>
       <c r="L744" s="28"/>
       <c r="M744" s="28"/>
       <c r="N744" s="28"/>
@@ -34831,8 +34848,8 @@
       <c r="G745" s="28"/>
       <c r="H745" s="28"/>
       <c r="I745" s="28"/>
-      <c r="J745" s="59"/>
-      <c r="K745" s="59"/>
+      <c r="J745" s="60"/>
+      <c r="K745" s="60"/>
       <c r="L745" s="28"/>
       <c r="M745" s="28"/>
       <c r="N745" s="28"/>
@@ -34876,8 +34893,8 @@
       <c r="G746" s="28"/>
       <c r="H746" s="28"/>
       <c r="I746" s="28"/>
-      <c r="J746" s="59"/>
-      <c r="K746" s="59"/>
+      <c r="J746" s="60"/>
+      <c r="K746" s="60"/>
       <c r="L746" s="28"/>
       <c r="M746" s="28"/>
       <c r="N746" s="28"/>
@@ -34921,8 +34938,8 @@
       <c r="G747" s="28"/>
       <c r="H747" s="28"/>
       <c r="I747" s="28"/>
-      <c r="J747" s="59"/>
-      <c r="K747" s="59"/>
+      <c r="J747" s="60"/>
+      <c r="K747" s="60"/>
       <c r="L747" s="28"/>
       <c r="M747" s="28"/>
       <c r="N747" s="28"/>
@@ -34966,8 +34983,8 @@
       <c r="G748" s="28"/>
       <c r="H748" s="28"/>
       <c r="I748" s="28"/>
-      <c r="J748" s="59"/>
-      <c r="K748" s="59"/>
+      <c r="J748" s="60"/>
+      <c r="K748" s="60"/>
       <c r="L748" s="28"/>
       <c r="M748" s="28"/>
       <c r="N748" s="28"/>
@@ -35011,8 +35028,8 @@
       <c r="G749" s="28"/>
       <c r="H749" s="28"/>
       <c r="I749" s="28"/>
-      <c r="J749" s="59"/>
-      <c r="K749" s="59"/>
+      <c r="J749" s="60"/>
+      <c r="K749" s="60"/>
       <c r="L749" s="28"/>
       <c r="M749" s="28"/>
       <c r="N749" s="28"/>
@@ -35056,8 +35073,8 @@
       <c r="G750" s="28"/>
       <c r="H750" s="28"/>
       <c r="I750" s="28"/>
-      <c r="J750" s="59"/>
-      <c r="K750" s="59"/>
+      <c r="J750" s="60"/>
+      <c r="K750" s="60"/>
       <c r="L750" s="28"/>
       <c r="M750" s="28"/>
       <c r="N750" s="28"/>
@@ -35101,8 +35118,8 @@
       <c r="G751" s="28"/>
       <c r="H751" s="28"/>
       <c r="I751" s="28"/>
-      <c r="J751" s="59"/>
-      <c r="K751" s="59"/>
+      <c r="J751" s="60"/>
+      <c r="K751" s="60"/>
       <c r="L751" s="28"/>
       <c r="M751" s="28"/>
       <c r="N751" s="28"/>
@@ -35146,8 +35163,8 @@
       <c r="G752" s="28"/>
       <c r="H752" s="28"/>
       <c r="I752" s="28"/>
-      <c r="J752" s="59"/>
-      <c r="K752" s="59"/>
+      <c r="J752" s="60"/>
+      <c r="K752" s="60"/>
       <c r="L752" s="28"/>
       <c r="M752" s="28"/>
       <c r="N752" s="28"/>
@@ -35191,8 +35208,8 @@
       <c r="G753" s="28"/>
       <c r="H753" s="28"/>
       <c r="I753" s="28"/>
-      <c r="J753" s="59"/>
-      <c r="K753" s="59"/>
+      <c r="J753" s="60"/>
+      <c r="K753" s="60"/>
       <c r="L753" s="28"/>
       <c r="M753" s="28"/>
       <c r="N753" s="28"/>
@@ -35236,8 +35253,8 @@
       <c r="G754" s="28"/>
       <c r="H754" s="28"/>
       <c r="I754" s="28"/>
-      <c r="J754" s="59"/>
-      <c r="K754" s="59"/>
+      <c r="J754" s="60"/>
+      <c r="K754" s="60"/>
       <c r="L754" s="28"/>
       <c r="M754" s="28"/>
       <c r="N754" s="28"/>
@@ -35281,8 +35298,8 @@
       <c r="G755" s="28"/>
       <c r="H755" s="28"/>
       <c r="I755" s="28"/>
-      <c r="J755" s="59"/>
-      <c r="K755" s="59"/>
+      <c r="J755" s="60"/>
+      <c r="K755" s="60"/>
       <c r="L755" s="28"/>
       <c r="M755" s="28"/>
       <c r="N755" s="28"/>
@@ -35326,8 +35343,8 @@
       <c r="G756" s="28"/>
       <c r="H756" s="28"/>
       <c r="I756" s="28"/>
-      <c r="J756" s="59"/>
-      <c r="K756" s="59"/>
+      <c r="J756" s="60"/>
+      <c r="K756" s="60"/>
       <c r="L756" s="28"/>
       <c r="M756" s="28"/>
       <c r="N756" s="28"/>
@@ -35371,8 +35388,8 @@
       <c r="G757" s="28"/>
       <c r="H757" s="28"/>
       <c r="I757" s="28"/>
-      <c r="J757" s="59"/>
-      <c r="K757" s="59"/>
+      <c r="J757" s="60"/>
+      <c r="K757" s="60"/>
       <c r="L757" s="28"/>
       <c r="M757" s="28"/>
       <c r="N757" s="28"/>
@@ -35416,8 +35433,8 @@
       <c r="G758" s="28"/>
       <c r="H758" s="28"/>
       <c r="I758" s="28"/>
-      <c r="J758" s="59"/>
-      <c r="K758" s="59"/>
+      <c r="J758" s="60"/>
+      <c r="K758" s="60"/>
       <c r="L758" s="28"/>
       <c r="M758" s="28"/>
       <c r="N758" s="28"/>
@@ -35461,8 +35478,8 @@
       <c r="G759" s="28"/>
       <c r="H759" s="28"/>
       <c r="I759" s="28"/>
-      <c r="J759" s="59"/>
-      <c r="K759" s="59"/>
+      <c r="J759" s="60"/>
+      <c r="K759" s="60"/>
       <c r="L759" s="28"/>
       <c r="M759" s="28"/>
       <c r="N759" s="28"/>
@@ -35506,8 +35523,8 @@
       <c r="G760" s="28"/>
       <c r="H760" s="28"/>
       <c r="I760" s="28"/>
-      <c r="J760" s="59"/>
-      <c r="K760" s="59"/>
+      <c r="J760" s="60"/>
+      <c r="K760" s="60"/>
       <c r="L760" s="28"/>
       <c r="M760" s="28"/>
       <c r="N760" s="28"/>
@@ -35551,8 +35568,8 @@
       <c r="G761" s="28"/>
       <c r="H761" s="28"/>
       <c r="I761" s="28"/>
-      <c r="J761" s="59"/>
-      <c r="K761" s="59"/>
+      <c r="J761" s="60"/>
+      <c r="K761" s="60"/>
       <c r="L761" s="28"/>
       <c r="M761" s="28"/>
       <c r="N761" s="28"/>
@@ -35596,8 +35613,8 @@
       <c r="G762" s="28"/>
       <c r="H762" s="28"/>
       <c r="I762" s="28"/>
-      <c r="J762" s="59"/>
-      <c r="K762" s="59"/>
+      <c r="J762" s="60"/>
+      <c r="K762" s="60"/>
       <c r="L762" s="28"/>
       <c r="M762" s="28"/>
       <c r="N762" s="28"/>
@@ -35641,8 +35658,8 @@
       <c r="G763" s="28"/>
       <c r="H763" s="28"/>
       <c r="I763" s="28"/>
-      <c r="J763" s="59"/>
-      <c r="K763" s="59"/>
+      <c r="J763" s="60"/>
+      <c r="K763" s="60"/>
       <c r="L763" s="28"/>
       <c r="M763" s="28"/>
       <c r="N763" s="28"/>
@@ -35686,8 +35703,8 @@
       <c r="G764" s="28"/>
       <c r="H764" s="28"/>
       <c r="I764" s="28"/>
-      <c r="J764" s="59"/>
-      <c r="K764" s="59"/>
+      <c r="J764" s="60"/>
+      <c r="K764" s="60"/>
       <c r="L764" s="28"/>
       <c r="M764" s="28"/>
       <c r="N764" s="28"/>
@@ -35731,8 +35748,8 @@
       <c r="G765" s="28"/>
       <c r="H765" s="28"/>
       <c r="I765" s="28"/>
-      <c r="J765" s="59"/>
-      <c r="K765" s="59"/>
+      <c r="J765" s="60"/>
+      <c r="K765" s="60"/>
       <c r="L765" s="28"/>
       <c r="M765" s="28"/>
       <c r="N765" s="28"/>
@@ -35776,8 +35793,8 @@
       <c r="G766" s="28"/>
       <c r="H766" s="28"/>
       <c r="I766" s="28"/>
-      <c r="J766" s="59"/>
-      <c r="K766" s="59"/>
+      <c r="J766" s="60"/>
+      <c r="K766" s="60"/>
       <c r="L766" s="28"/>
       <c r="M766" s="28"/>
       <c r="N766" s="28"/>
@@ -35821,8 +35838,8 @@
       <c r="G767" s="28"/>
       <c r="H767" s="28"/>
       <c r="I767" s="28"/>
-      <c r="J767" s="59"/>
-      <c r="K767" s="59"/>
+      <c r="J767" s="60"/>
+      <c r="K767" s="60"/>
       <c r="L767" s="28"/>
       <c r="M767" s="28"/>
       <c r="N767" s="28"/>
@@ -35866,8 +35883,8 @@
       <c r="G768" s="28"/>
       <c r="H768" s="28"/>
       <c r="I768" s="28"/>
-      <c r="J768" s="59"/>
-      <c r="K768" s="59"/>
+      <c r="J768" s="60"/>
+      <c r="K768" s="60"/>
       <c r="L768" s="28"/>
       <c r="M768" s="28"/>
       <c r="N768" s="28"/>
@@ -35911,8 +35928,8 @@
       <c r="G769" s="28"/>
       <c r="H769" s="28"/>
       <c r="I769" s="28"/>
-      <c r="J769" s="59"/>
-      <c r="K769" s="59"/>
+      <c r="J769" s="60"/>
+      <c r="K769" s="60"/>
       <c r="L769" s="28"/>
       <c r="M769" s="28"/>
       <c r="N769" s="28"/>
@@ -35956,8 +35973,8 @@
       <c r="G770" s="28"/>
       <c r="H770" s="28"/>
       <c r="I770" s="28"/>
-      <c r="J770" s="59"/>
-      <c r="K770" s="59"/>
+      <c r="J770" s="60"/>
+      <c r="K770" s="60"/>
       <c r="L770" s="28"/>
       <c r="M770" s="28"/>
       <c r="N770" s="28"/>
@@ -36001,8 +36018,8 @@
       <c r="G771" s="28"/>
       <c r="H771" s="28"/>
       <c r="I771" s="28"/>
-      <c r="J771" s="59"/>
-      <c r="K771" s="59"/>
+      <c r="J771" s="60"/>
+      <c r="K771" s="60"/>
       <c r="L771" s="28"/>
       <c r="M771" s="28"/>
       <c r="N771" s="28"/>
@@ -36046,8 +36063,8 @@
       <c r="G772" s="28"/>
       <c r="H772" s="28"/>
       <c r="I772" s="28"/>
-      <c r="J772" s="59"/>
-      <c r="K772" s="59"/>
+      <c r="J772" s="60"/>
+      <c r="K772" s="60"/>
       <c r="L772" s="28"/>
       <c r="M772" s="28"/>
       <c r="N772" s="28"/>
@@ -36091,8 +36108,8 @@
       <c r="G773" s="28"/>
       <c r="H773" s="28"/>
       <c r="I773" s="28"/>
-      <c r="J773" s="59"/>
-      <c r="K773" s="59"/>
+      <c r="J773" s="60"/>
+      <c r="K773" s="60"/>
       <c r="L773" s="28"/>
       <c r="M773" s="28"/>
       <c r="N773" s="28"/>
@@ -36136,8 +36153,8 @@
       <c r="G774" s="28"/>
       <c r="H774" s="28"/>
       <c r="I774" s="28"/>
-      <c r="J774" s="59"/>
-      <c r="K774" s="59"/>
+      <c r="J774" s="60"/>
+      <c r="K774" s="60"/>
       <c r="L774" s="28"/>
       <c r="M774" s="28"/>
       <c r="N774" s="28"/>
@@ -36181,8 +36198,8 @@
       <c r="G775" s="28"/>
       <c r="H775" s="28"/>
       <c r="I775" s="28"/>
-      <c r="J775" s="59"/>
-      <c r="K775" s="59"/>
+      <c r="J775" s="60"/>
+      <c r="K775" s="60"/>
       <c r="L775" s="28"/>
       <c r="M775" s="28"/>
       <c r="N775" s="28"/>
@@ -36226,8 +36243,8 @@
       <c r="G776" s="28"/>
       <c r="H776" s="28"/>
       <c r="I776" s="28"/>
-      <c r="J776" s="59"/>
-      <c r="K776" s="59"/>
+      <c r="J776" s="60"/>
+      <c r="K776" s="60"/>
       <c r="L776" s="28"/>
       <c r="M776" s="28"/>
       <c r="N776" s="28"/>
@@ -36271,8 +36288,8 @@
       <c r="G777" s="28"/>
       <c r="H777" s="28"/>
       <c r="I777" s="28"/>
-      <c r="J777" s="59"/>
-      <c r="K777" s="59"/>
+      <c r="J777" s="60"/>
+      <c r="K777" s="60"/>
       <c r="L777" s="28"/>
       <c r="M777" s="28"/>
       <c r="N777" s="28"/>
@@ -36316,8 +36333,8 @@
       <c r="G778" s="28"/>
       <c r="H778" s="28"/>
       <c r="I778" s="28"/>
-      <c r="J778" s="59"/>
-      <c r="K778" s="59"/>
+      <c r="J778" s="60"/>
+      <c r="K778" s="60"/>
       <c r="L778" s="28"/>
       <c r="M778" s="28"/>
       <c r="N778" s="28"/>
@@ -36361,8 +36378,8 @@
       <c r="G779" s="28"/>
       <c r="H779" s="28"/>
       <c r="I779" s="28"/>
-      <c r="J779" s="59"/>
-      <c r="K779" s="59"/>
+      <c r="J779" s="60"/>
+      <c r="K779" s="60"/>
       <c r="L779" s="28"/>
       <c r="M779" s="28"/>
       <c r="N779" s="28"/>
@@ -36406,8 +36423,8 @@
       <c r="G780" s="28"/>
       <c r="H780" s="28"/>
       <c r="I780" s="28"/>
-      <c r="J780" s="59"/>
-      <c r="K780" s="59"/>
+      <c r="J780" s="60"/>
+      <c r="K780" s="60"/>
       <c r="L780" s="28"/>
       <c r="M780" s="28"/>
       <c r="N780" s="28"/>
